--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -61,82 +61,103 @@
     <t>Counterparty Corres Bank.1</t>
   </si>
   <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>09 SEP 2024</t>
+  </si>
+  <si>
+    <t>10 SEP 2024</t>
+  </si>
+  <si>
+    <t>后面是不同页面的数据</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
     <t>AUD</t>
   </si>
   <si>
-    <t>17 JUL 2024</t>
-  </si>
-  <si>
-    <t>后面是不同页面的数据</t>
+    <t>Currency Bought</t>
+  </si>
+  <si>
+    <t>Currency Sold</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Buy Amount</t>
+  </si>
+  <si>
+    <t>Sell Amount</t>
+  </si>
+  <si>
+    <t>Value Date Buy</t>
+  </si>
+  <si>
+    <t>Value Date Sell</t>
+  </si>
+  <si>
+    <t>Mature at Start of Day?</t>
+  </si>
+  <si>
+    <t>inputSettlementInstructionsPage</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Sell.1</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.1</t>
+  </si>
+  <si>
+    <t>Counterparty's SSI.1</t>
+  </si>
+  <si>
+    <t>Search Content</t>
+  </si>
+  <si>
+    <t>18 JUL 2024</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FOREX</t>
+  </si>
+  <si>
+    <t>16 JUL 2024</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>abc</t>
   </si>
   <si>
-    <t>Currency Bought</t>
-  </si>
-  <si>
-    <t>Currency Sold</t>
-  </si>
-  <si>
-    <t>Spot Rate</t>
-  </si>
-  <si>
-    <t>Buy Amount</t>
-  </si>
-  <si>
-    <t>Sell Amount</t>
-  </si>
-  <si>
-    <t>Value Date Buy</t>
-  </si>
-  <si>
-    <t>Value Date Sell</t>
-  </si>
-  <si>
-    <t>Mature at Start of Day?</t>
-  </si>
-  <si>
-    <t>inputSettlementInstructionsPage</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Sell.1</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.1</t>
-  </si>
-  <si>
-    <t>Counterparty's SSI.1</t>
-  </si>
-  <si>
-    <t>Search Content</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>18 JUL 2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>FOREX</t>
-  </si>
-  <si>
-    <t>16 JUL 2024</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Netting</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>05 SEP 2024</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -144,11 +165,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="00"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="00"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -635,19 +656,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1341,13 +1362,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
     <col min="2" max="2" width="22.5462962962963" customWidth="1"/>
@@ -1397,39 +1418,223 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>9100000005</v>
+        <v>9000000004</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>543434</v>
+        <v>700000</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4">
+        <v>15000000196</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9100000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>800000</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4">
+      <c r="G3" s="4">
+        <v>1.375</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4">
+        <v>15000000242</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9100000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3900000</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.59</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4">
+        <v>15000000641</v>
+      </c>
+      <c r="J4" s="4">
+        <v>9100000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3900000</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4">
+        <v>15000000730</v>
+      </c>
+      <c r="J5" s="4">
+        <v>9100000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3910000</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4.91</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4">
+        <v>15000000722</v>
+      </c>
+      <c r="J6" s="4">
+        <v>9100000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3920000</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15000000994</v>
+      </c>
+      <c r="J7" s="4">
+        <v>9000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9100000005</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5430000</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4">
         <v>15000001591</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J8" s="4">
         <v>9000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4">
-        <v>123</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1443,8 +1648,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1465,43 +1670,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1509,10 +1714,10 @@
         <v>202234</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>1.3754</v>
@@ -1522,16 +1727,16 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4">
         <v>11010004530</v>
@@ -1541,7 +1746,7 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1549,10 +1754,10 @@
         <v>9000000009</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>0.877193</v>
@@ -1562,16 +1767,16 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4">
         <v>15000001591</v>
@@ -1583,7 +1788,7 @@
         <v>9100000014</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1591,7 +1796,7 @@
         <v>123</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -1606,8 +1811,8 @@
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1618,7 +1823,7 @@
     <col min="6" max="8" width="21.5462962962963" customWidth="1"/>
     <col min="9" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="28.0925925925926" customWidth="1"/>
-    <col min="13" max="13" width="21.0925925925926" customWidth="1"/>
+    <col min="13" max="13" width="26.1111111111111" customWidth="1"/>
     <col min="14" max="15" width="24.1759259259259" customWidth="1"/>
     <col min="16" max="16" width="15.2685185185185" customWidth="1"/>
   </cols>
@@ -1631,94 +1836,94 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2">
-        <v>9000000009</v>
+        <v>9000000004</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
-        <v>1.14</v>
+        <v>0.7654</v>
       </c>
       <c r="F2" s="4">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4">
+        <v>15000001095</v>
+      </c>
+      <c r="N2" s="4">
+        <v>15000000536</v>
+      </c>
+      <c r="O2" s="4">
+        <v>9000000020</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4">
-        <v>15000001591</v>
-      </c>
-      <c r="N2" s="4">
-        <v>15000000153</v>
-      </c>
-      <c r="O2" s="4">
-        <v>9100000014</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1726,7 +1931,7 @@
         <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -130,34 +130,28 @@
     <t>Search Content</t>
   </si>
   <si>
-    <t>18 JUL 2024</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>FOREX</t>
   </si>
   <si>
-    <t>16 JUL 2024</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
+    <t>05 SEP 2024</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>abc</t>
-  </si>
-  <si>
-    <t>Netting</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>05 SEP 2024</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1646,13 +1640,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="3" width="22.5462962962963" customWidth="1"/>
@@ -1660,8 +1654,9 @@
     <col min="5" max="7" width="21.5462962962963" customWidth="1"/>
     <col min="8" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="28.1759259259259" customWidth="1"/>
-    <col min="11" max="11" width="21.0925925925926" customWidth="1"/>
-    <col min="12" max="13" width="24.1759259259259" customWidth="1"/>
+    <col min="11" max="11" width="29.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="30.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="24.1759259259259" customWidth="1"/>
     <col min="14" max="14" width="16.0925925925926" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1711,7 +1706,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>202234</v>
+        <v>202347</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -1719,86 +1714,315 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
-        <v>1.3754</v>
+      <c r="D2" s="4">
+        <v>1.375</v>
       </c>
       <c r="E2" s="4">
-        <v>3980000</v>
+        <v>980000</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="4">
-        <v>11010004530</v>
+        <v>11020928166</v>
       </c>
       <c r="L2" s="4">
-        <v>11010005103</v>
+        <v>11020883472</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>9000000009</v>
+        <v>202347</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.877193</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.59</v>
       </c>
       <c r="E3" s="4">
-        <v>33000</v>
+        <v>3980000</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="4">
-        <v>15000001591</v>
+        <v>11020948132</v>
       </c>
       <c r="L3" s="4">
-        <v>15000000153</v>
-      </c>
-      <c r="M3" s="4">
-        <v>9100000014</v>
-      </c>
+        <v>11020883472</v>
+      </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
+        <v>202347</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4">
+        <v>11020948140</v>
+      </c>
+      <c r="L4" s="4">
+        <v>11020883472</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
+        <v>202347</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.91</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2110000</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4">
+        <v>11020948159</v>
+      </c>
+      <c r="L5" s="4">
+        <v>11020883472</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
+        <v>202347</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3780000</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4">
+        <v>11020948183</v>
+      </c>
+      <c r="L6" s="4">
+        <v>11020883472</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2">
+        <v>202347</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3910000</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4">
+        <v>11020948191</v>
+      </c>
+      <c r="L7" s="4">
+        <v>11020883472</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2">
+        <v>202347</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="D8" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2980000</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="4">
+        <v>11020948175</v>
+      </c>
+      <c r="L8" s="4">
+        <v>11020883472</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
-        <v>123</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="6"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2">
+        <v>202347</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2980000</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4">
+        <v>11020948167</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11020883472</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1812,7 +2036,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1860,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>28</v>
@@ -1889,7 +2113,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
@@ -1899,16 +2123,16 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>13</v>
@@ -1923,7 +2147,7 @@
         <v>9000000020</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1931,7 +2155,7 @@
         <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="4">
-        <v>1.375</v>
+        <v>1.175</v>
       </c>
       <c r="E2" s="4">
         <v>980000</v>
@@ -1734,10 +1734,10 @@
         <v>13</v>
       </c>
       <c r="K2" s="4">
-        <v>11020928166</v>
+        <v>11020928158</v>
       </c>
       <c r="L2" s="4">
-        <v>11020883472</v>
+        <v>11010003151</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="2" t="s">
@@ -1746,16 +1746,16 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="4">
-        <v>5.59</v>
+        <v>5.19</v>
       </c>
       <c r="E3" s="4">
         <v>3980000</v>
@@ -1777,7 +1777,7 @@
         <v>11020948132</v>
       </c>
       <c r="L3" s="4">
-        <v>11020883472</v>
+        <v>11010003151</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
@@ -1786,16 +1786,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="4">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="E4" s="4">
         <v>3000000</v>
@@ -1817,7 +1817,7 @@
         <v>11020948140</v>
       </c>
       <c r="L4" s="4">
-        <v>11020883472</v>
+        <v>11010003151</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
@@ -1826,16 +1826,16 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4">
-        <v>4.91</v>
+        <v>4.21</v>
       </c>
       <c r="E5" s="4">
         <v>2110000</v>
@@ -1857,7 +1857,7 @@
         <v>11020948159</v>
       </c>
       <c r="L5" s="4">
-        <v>11020883472</v>
+        <v>11010003151</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
@@ -1866,16 +1866,16 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4">
-        <v>3.67</v>
+        <v>3.37</v>
       </c>
       <c r="E6" s="4">
         <v>3780000</v>
@@ -1897,7 +1897,7 @@
         <v>11020948183</v>
       </c>
       <c r="L6" s="4">
-        <v>11020883472</v>
+        <v>11010003151</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
@@ -1906,10 +1906,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -1937,7 +1937,7 @@
         <v>11020948191</v>
       </c>
       <c r="L7" s="4">
-        <v>11020883472</v>
+        <v>11010003151</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
@@ -1946,16 +1946,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="4">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="E8" s="4">
         <v>2980000</v>
@@ -1977,7 +1977,7 @@
         <v>11020948175</v>
       </c>
       <c r="L8" s="4">
-        <v>11020883472</v>
+        <v>11010003151</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
@@ -1986,16 +1986,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="E9" s="4">
         <v>2980000</v>
@@ -2017,7 +2017,7 @@
         <v>11020948167</v>
       </c>
       <c r="L9" s="4">
-        <v>11020883472</v>
+        <v>11010003151</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1643,7 +1643,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1709,16 +1709,16 @@
         <v>200331</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>1.175</v>
+        <v>1.375</v>
       </c>
       <c r="E2" s="4">
-        <v>980000</v>
+        <v>4980000</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
@@ -1737,7 +1737,7 @@
         <v>11020928158</v>
       </c>
       <c r="L2" s="4">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="2" t="s">
@@ -1749,16 +1749,16 @@
         <v>200331</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="4">
-        <v>5.19</v>
+        <v>5.39</v>
       </c>
       <c r="E3" s="4">
-        <v>3980000</v>
+        <v>4980000</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
@@ -1774,10 +1774,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="4">
-        <v>11020948132</v>
+        <v>11020928166</v>
       </c>
       <c r="L3" s="4">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
@@ -1789,16 +1789,16 @@
         <v>200331</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="4">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="E4" s="4">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
@@ -1817,7 +1817,7 @@
         <v>11020948140</v>
       </c>
       <c r="L4" s="4">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
@@ -1829,16 +1829,16 @@
         <v>200331</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4">
-        <v>4.21</v>
+        <v>4.31</v>
       </c>
       <c r="E5" s="4">
-        <v>2110000</v>
+        <v>4110000</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
@@ -1857,7 +1857,7 @@
         <v>11020948159</v>
       </c>
       <c r="L5" s="4">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
@@ -1869,16 +1869,16 @@
         <v>200331</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="E6" s="4">
-        <v>3780000</v>
+        <v>4780000</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
@@ -1897,7 +1897,7 @@
         <v>11020948183</v>
       </c>
       <c r="L6" s="4">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
@@ -1909,16 +1909,16 @@
         <v>200331</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="E7" s="4">
-        <v>3910000</v>
+        <v>4910000</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
@@ -1937,7 +1937,7 @@
         <v>11020948191</v>
       </c>
       <c r="L7" s="4">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
@@ -1949,16 +1949,16 @@
         <v>200331</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="4">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="E8" s="4">
-        <v>2980000</v>
+        <v>4980000</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
@@ -1977,7 +1977,7 @@
         <v>11020948175</v>
       </c>
       <c r="L8" s="4">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
@@ -1989,16 +1989,16 @@
         <v>200331</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="E9" s="4">
-        <v>2980000</v>
+        <v>4980000</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
@@ -2017,7 +2017,7 @@
         <v>11020948167</v>
       </c>
       <c r="L9" s="4">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1642,8 +1642,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1709,16 +1709,16 @@
         <v>200331</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>1.375</v>
+        <v>1.275</v>
       </c>
       <c r="E2" s="4">
-        <v>4980000</v>
+        <v>4910000</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
@@ -1737,7 +1737,7 @@
         <v>11020928158</v>
       </c>
       <c r="L2" s="4">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="2" t="s">
@@ -1749,16 +1749,16 @@
         <v>200331</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4">
-        <v>5.39</v>
+        <v>5.29</v>
       </c>
       <c r="E3" s="4">
-        <v>4980000</v>
+        <v>4910001</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
@@ -1777,7 +1777,7 @@
         <v>11020928166</v>
       </c>
       <c r="L3" s="4">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
@@ -1789,16 +1789,16 @@
         <v>200331</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="4">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="E4" s="4">
-        <v>4000000</v>
+        <v>4910002</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
@@ -1814,10 +1814,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="4">
-        <v>11020948140</v>
+        <v>11020948132</v>
       </c>
       <c r="L4" s="4">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
@@ -1829,16 +1829,16 @@
         <v>200331</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4">
-        <v>4.31</v>
+        <v>4.21</v>
       </c>
       <c r="E5" s="4">
-        <v>4110000</v>
+        <v>4910003</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
@@ -1857,7 +1857,7 @@
         <v>11020948159</v>
       </c>
       <c r="L5" s="4">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
@@ -1869,16 +1869,16 @@
         <v>200331</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="E6" s="4">
-        <v>4780000</v>
+        <v>4910004</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
@@ -1897,7 +1897,7 @@
         <v>11020948183</v>
       </c>
       <c r="L6" s="4">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
@@ -1909,16 +1909,16 @@
         <v>200331</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="E7" s="4">
-        <v>4910000</v>
+        <v>4910005</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
@@ -1937,7 +1937,7 @@
         <v>11020948191</v>
       </c>
       <c r="L7" s="4">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
@@ -1949,7 +1949,7 @@
         <v>200331</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -1958,7 +1958,7 @@
         <v>1.71</v>
       </c>
       <c r="E8" s="4">
-        <v>4980000</v>
+        <v>4910006</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
@@ -1977,7 +1977,7 @@
         <v>11020948175</v>
       </c>
       <c r="L8" s="4">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
@@ -1989,16 +1989,16 @@
         <v>200331</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="E9" s="4">
-        <v>4980000</v>
+        <v>4910007</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
@@ -2017,7 +2017,7 @@
         <v>11020948167</v>
       </c>
       <c r="L9" s="4">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1642,8 +1642,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1709,13 +1709,13 @@
         <v>200331</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>1.275</v>
+        <v>2.175</v>
       </c>
       <c r="E2" s="4">
         <v>4910000</v>
@@ -1737,7 +1737,7 @@
         <v>11020928158</v>
       </c>
       <c r="L2" s="4">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="2" t="s">
@@ -1749,13 +1749,13 @@
         <v>200331</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4">
-        <v>5.29</v>
+        <v>1.19</v>
       </c>
       <c r="E3" s="4">
         <v>4910001</v>
@@ -1777,7 +1777,7 @@
         <v>11020928166</v>
       </c>
       <c r="L3" s="4">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
@@ -1789,13 +1789,13 @@
         <v>200331</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4">
-        <v>1.26</v>
+        <v>2.16</v>
       </c>
       <c r="E4" s="4">
         <v>4910002</v>
@@ -1817,7 +1817,7 @@
         <v>11020948132</v>
       </c>
       <c r="L4" s="4">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
@@ -1829,13 +1829,13 @@
         <v>200331</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4">
-        <v>4.21</v>
+        <v>4.11</v>
       </c>
       <c r="E5" s="4">
         <v>4910003</v>
@@ -1854,10 +1854,10 @@
         <v>13</v>
       </c>
       <c r="K5" s="4">
-        <v>11020948159</v>
+        <v>11020948140</v>
       </c>
       <c r="L5" s="4">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
@@ -1869,13 +1869,13 @@
         <v>200331</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="E6" s="4">
         <v>4910004</v>
@@ -1897,7 +1897,7 @@
         <v>11020948183</v>
       </c>
       <c r="L6" s="4">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
@@ -1909,13 +1909,13 @@
         <v>200331</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4">
-        <v>1.29</v>
+        <v>2.19</v>
       </c>
       <c r="E7" s="4">
         <v>4910005</v>
@@ -1937,7 +1937,7 @@
         <v>11020948191</v>
       </c>
       <c r="L7" s="4">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
@@ -1949,13 +1949,13 @@
         <v>200331</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="4">
-        <v>1.71</v>
+        <v>2.11</v>
       </c>
       <c r="E8" s="4">
         <v>4910006</v>
@@ -1977,7 +1977,7 @@
         <v>11020948175</v>
       </c>
       <c r="L8" s="4">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
@@ -1989,13 +1989,13 @@
         <v>200331</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4">
-        <v>1.23</v>
+        <v>2.13</v>
       </c>
       <c r="E9" s="4">
         <v>4910007</v>
@@ -2017,7 +2017,7 @@
         <v>11020948167</v>
       </c>
       <c r="L9" s="4">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -158,12 +158,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="00"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -795,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +822,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1643,7 +1647,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1706,19 +1710,19 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2">
-        <v>200331</v>
+        <v>201315</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>2.175</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4">
-        <v>4910000</v>
+        <v>5910000</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
@@ -1737,7 +1741,7 @@
         <v>11020928158</v>
       </c>
       <c r="L2" s="4">
-        <v>11020938811</v>
+        <v>11010006770</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="2" t="s">
@@ -1746,19 +1750,19 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
-        <v>200331</v>
+        <v>201315</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4">
-        <v>1.19</v>
+        <v>0.27</v>
       </c>
       <c r="E3" s="4">
-        <v>4910001</v>
+        <v>5910001</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
@@ -1777,7 +1781,7 @@
         <v>11020928166</v>
       </c>
       <c r="L3" s="4">
-        <v>11020938811</v>
+        <v>11010006770</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
@@ -1786,19 +1790,19 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
-        <v>200331</v>
+        <v>201315</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="E4" s="4">
-        <v>4910002</v>
+        <v>5910002</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
@@ -1817,7 +1821,7 @@
         <v>11020948132</v>
       </c>
       <c r="L4" s="4">
-        <v>11020938811</v>
+        <v>11010006770</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
@@ -1826,19 +1830,19 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
-        <v>200331</v>
+        <v>201315</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
-        <v>4.11</v>
+        <v>0.24</v>
       </c>
       <c r="E5" s="4">
-        <v>4910003</v>
+        <v>5910003</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
@@ -1857,7 +1861,7 @@
         <v>11020948140</v>
       </c>
       <c r="L5" s="4">
-        <v>11020938811</v>
+        <v>11010006770</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
@@ -1866,19 +1870,19 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2">
-        <v>200331</v>
+        <v>201315</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="4">
-        <v>3.17</v>
+        <v>1.93</v>
       </c>
       <c r="E6" s="4">
-        <v>4910004</v>
+        <v>5910004</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
@@ -1894,10 +1898,10 @@
         <v>13</v>
       </c>
       <c r="K6" s="4">
-        <v>11020948183</v>
+        <v>11020948159</v>
       </c>
       <c r="L6" s="4">
-        <v>11020938811</v>
+        <v>11010006770</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
@@ -1906,19 +1910,19 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
-        <v>200331</v>
+        <v>201315</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4">
-        <v>2.19</v>
+      <c r="D7" s="9">
+        <v>0.4</v>
       </c>
       <c r="E7" s="4">
-        <v>4910005</v>
+        <v>5910005</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
@@ -1937,7 +1941,7 @@
         <v>11020948191</v>
       </c>
       <c r="L7" s="4">
-        <v>11020938811</v>
+        <v>11010006770</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
@@ -1946,19 +1950,19 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2">
-        <v>200331</v>
+        <v>201315</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4">
-        <v>2.11</v>
+      <c r="D8" s="9">
+        <v>0.2</v>
       </c>
       <c r="E8" s="4">
-        <v>4910006</v>
+        <v>5910006</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
@@ -1977,7 +1981,7 @@
         <v>11020948175</v>
       </c>
       <c r="L8" s="4">
-        <v>11020938811</v>
+        <v>11010006770</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
@@ -1986,19 +1990,19 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2">
-        <v>200331</v>
+        <v>201315</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4">
-        <v>2.13</v>
+        <v>39.11</v>
       </c>
       <c r="E9" s="4">
-        <v>4910007</v>
+        <v>5910007</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
@@ -2017,7 +2021,7 @@
         <v>11020948167</v>
       </c>
       <c r="L9" s="4">
-        <v>11020938811</v>
+        <v>11010006770</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1713,16 +1713,16 @@
         <v>201315</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>0.35</v>
+        <v>0.86</v>
       </c>
       <c r="E2" s="4">
-        <v>5910000</v>
+        <v>6910000</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
@@ -1741,7 +1741,7 @@
         <v>11020928158</v>
       </c>
       <c r="L2" s="4">
-        <v>11010006770</v>
+        <v>11010006762</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="2" t="s">
@@ -1753,16 +1753,16 @@
         <v>201315</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4">
-        <v>0.27</v>
+        <v>0.66</v>
       </c>
       <c r="E3" s="4">
-        <v>5910001</v>
+        <v>6910001</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
@@ -1781,7 +1781,7 @@
         <v>11020928166</v>
       </c>
       <c r="L3" s="4">
-        <v>11010006770</v>
+        <v>11010006762</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
@@ -1793,16 +1793,16 @@
         <v>201315</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4">
-        <v>2.12</v>
+        <v>3.92</v>
       </c>
       <c r="E4" s="4">
-        <v>5910002</v>
+        <v>6910002</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
@@ -1821,7 +1821,7 @@
         <v>11020948132</v>
       </c>
       <c r="L4" s="4">
-        <v>11010006770</v>
+        <v>11010006762</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
@@ -1833,16 +1833,16 @@
         <v>201315</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4">
-        <v>5910003</v>
+        <v>6910003</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
@@ -1861,7 +1861,7 @@
         <v>11020948140</v>
       </c>
       <c r="L5" s="4">
-        <v>11010006770</v>
+        <v>11010006762</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
@@ -1873,16 +1873,16 @@
         <v>201315</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="4">
-        <v>1.93</v>
+        <v>4.7</v>
       </c>
       <c r="E6" s="4">
-        <v>5910004</v>
+        <v>6910004</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
@@ -1901,7 +1901,7 @@
         <v>11020948159</v>
       </c>
       <c r="L6" s="4">
-        <v>11010006770</v>
+        <v>11010006762</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
@@ -1913,16 +1913,16 @@
         <v>201315</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="9">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="E7" s="4">
-        <v>5910005</v>
+        <v>6910005</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
@@ -1938,10 +1938,10 @@
         <v>13</v>
       </c>
       <c r="K7" s="4">
-        <v>11020948191</v>
+        <v>11020948183</v>
       </c>
       <c r="L7" s="4">
-        <v>11010006770</v>
+        <v>11010006762</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
@@ -1953,16 +1953,16 @@
         <v>201315</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="4">
-        <v>5910006</v>
+        <v>6910006</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
@@ -1981,7 +1981,7 @@
         <v>11020948175</v>
       </c>
       <c r="L8" s="4">
-        <v>11010006770</v>
+        <v>11010006762</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
@@ -1993,16 +1993,16 @@
         <v>201315</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4">
-        <v>39.11</v>
+        <v>95.4</v>
       </c>
       <c r="E9" s="4">
-        <v>5910007</v>
+        <v>6910007</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
@@ -2021,7 +2021,7 @@
         <v>11020948167</v>
       </c>
       <c r="L9" s="4">
-        <v>11010006770</v>
+        <v>11010006762</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Search Content</t>
+  </si>
+  <si>
+    <t>11 SEP 2024</t>
   </si>
   <si>
     <t>No</t>
@@ -158,13 +161,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="00"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -796,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,7 +826,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1363,7 +1374,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1647,7 +1658,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1708,324 +1719,324 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2">
-        <v>201315</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:14">
+      <c r="A2" s="10">
+        <v>202347</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.306</v>
+      </c>
+      <c r="E2" s="11">
+        <v>20000</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="11">
+        <v>11010003909</v>
+      </c>
+      <c r="L2" s="11">
+        <v>11020928166</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:14">
+      <c r="A3" s="10">
+        <v>202347</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="E3" s="11">
+        <v>20001</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="11">
+        <v>11010003909</v>
+      </c>
+      <c r="L3" s="11">
+        <v>11020948132</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" spans="1:14">
+      <c r="A4" s="10">
+        <v>202347</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.442</v>
+      </c>
+      <c r="E4" s="11">
+        <v>20002</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="11">
+        <v>11010003909</v>
+      </c>
+      <c r="L4" s="11">
+        <v>11020948140</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:14">
+      <c r="A5" s="10">
+        <v>202347</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.183</v>
+      </c>
+      <c r="E5" s="11">
+        <v>20003</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="11">
+        <v>11010003909</v>
+      </c>
+      <c r="L5" s="11">
+        <v>11020948159</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:14">
+      <c r="A6" s="10">
+        <v>202347</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.355</v>
+      </c>
+      <c r="E6" s="11">
+        <v>20004</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="11">
+        <v>11010003909</v>
+      </c>
+      <c r="L6" s="11">
+        <v>11020948183</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:14">
+      <c r="A7" s="10">
+        <v>202347</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D7" s="11">
         <v>0.86</v>
       </c>
-      <c r="E2" s="4">
-        <v>6910000</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="E7" s="11">
+        <v>20005</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="H7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4">
-        <v>11020928158</v>
-      </c>
-      <c r="L2" s="4">
-        <v>11010006762</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="2" t="s">
+      <c r="K7" s="11">
+        <v>11010003909</v>
+      </c>
+      <c r="L7" s="11">
+        <v>11020948191</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="1" spans="1:14">
+      <c r="A8" s="10">
+        <v>202347</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.709</v>
+      </c>
+      <c r="E8" s="11">
+        <v>20006</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>34</v>
       </c>
+      <c r="J8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="11">
+        <v>11010003909</v>
+      </c>
+      <c r="L8" s="11">
+        <v>11020948175</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2">
-        <v>201315</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6910001</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
+    <row r="9" s="9" customFormat="1" spans="1:14">
+      <c r="A9" s="10">
+        <v>202347</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.009</v>
+      </c>
+      <c r="E9" s="11">
+        <v>20007</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="H9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4">
-        <v>11020928166</v>
-      </c>
-      <c r="L3" s="4">
-        <v>11010006762</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2">
-        <v>201315</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3.92</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6910002</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4">
-        <v>11020948132</v>
-      </c>
-      <c r="L4" s="4">
-        <v>11010006762</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2">
-        <v>201315</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="4">
-        <v>6910003</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="4">
-        <v>11020948140</v>
-      </c>
-      <c r="L5" s="4">
-        <v>11010006762</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2">
-        <v>201315</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6910004</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="4">
-        <v>11020948159</v>
-      </c>
-      <c r="L6" s="4">
-        <v>11010006762</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2">
-        <v>201315</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>6910005</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="4">
-        <v>11020948183</v>
-      </c>
-      <c r="L7" s="4">
-        <v>11010006762</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2">
-        <v>201315</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="K9" s="11">
+        <v>11010003909</v>
+      </c>
+      <c r="L9" s="11">
+        <v>11020948167</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="4">
-        <v>6910006</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="4">
-        <v>11020948175</v>
-      </c>
-      <c r="L8" s="4">
-        <v>11010006762</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2">
-        <v>201315</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="4">
-        <v>95.4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6910007</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="4">
-        <v>11020948167</v>
-      </c>
-      <c r="L9" s="4">
-        <v>11010006762</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2099,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>28</v>
@@ -2117,7 +2128,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
@@ -2127,16 +2138,16 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>13</v>
@@ -2151,7 +2162,7 @@
         <v>9000000020</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2159,7 +2170,7 @@
         <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -127,25 +127,28 @@
     <t>Counterparty's SSI.1</t>
   </si>
   <si>
+    <t>Settlement A/c for Buy.2</t>
+  </si>
+  <si>
+    <t>12 SEP 2024</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FOREX</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
     <t>Search Content</t>
-  </si>
-  <si>
-    <t>11 SEP 2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>FOREX</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>Netting</t>
   </si>
   <si>
     <t>05 SEP 2024</t>
@@ -1657,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1672,7 +1675,7 @@
     <col min="11" max="11" width="29.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="30.6666666666667" customWidth="1"/>
     <col min="13" max="13" width="24.1759259259259" customWidth="1"/>
-    <col min="14" max="14" width="16.0925925925926" customWidth="1"/>
+    <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1724,16 +1727,16 @@
         <v>202347</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="11">
-        <v>1.306</v>
+        <v>0.76</v>
       </c>
       <c r="E2" s="11">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
@@ -1749,14 +1752,16 @@
         <v>13</v>
       </c>
       <c r="K2" s="11">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="L2" s="11">
-        <v>11020928166</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="10" t="s">
+        <v>11020928158</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="N2" s="11">
+        <v>11020928131</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:14">
@@ -1767,13 +1772,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="11">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="11">
-        <v>20001</v>
+        <v>30001</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1789,14 +1794,16 @@
         <v>13</v>
       </c>
       <c r="K3" s="11">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="L3" s="11">
         <v>11020948132</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="N3" s="11">
+        <v>11020928131</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:14">
@@ -1807,13 +1814,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="11">
-        <v>1.442</v>
+        <v>1.1</v>
       </c>
       <c r="E4" s="11">
-        <v>20002</v>
+        <v>30002</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
@@ -1829,14 +1836,16 @@
         <v>13</v>
       </c>
       <c r="K4" s="11">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="L4" s="11">
         <v>11020948140</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="N4" s="11">
+        <v>11020928131</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:14">
@@ -1847,13 +1856,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="11">
-        <v>0.183</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="11">
-        <v>20003</v>
+        <v>30003</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
@@ -1869,14 +1878,16 @@
         <v>13</v>
       </c>
       <c r="K5" s="11">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="L5" s="11">
         <v>11020948159</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="N5" s="11">
+        <v>11020928131</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:14">
@@ -1887,13 +1898,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="11">
-        <v>0.355</v>
+        <v>0.27</v>
       </c>
       <c r="E6" s="11">
-        <v>20004</v>
+        <v>30004</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
@@ -1909,14 +1920,16 @@
         <v>13</v>
       </c>
       <c r="K6" s="11">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="L6" s="11">
         <v>11020948183</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="N6" s="11">
+        <v>11020928131</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:14">
@@ -1927,13 +1940,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="11">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="E7" s="11">
-        <v>20005</v>
+        <v>30005</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1949,14 +1962,16 @@
         <v>13</v>
       </c>
       <c r="K7" s="11">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="L7" s="11">
         <v>11020948191</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="N7" s="11">
+        <v>11020928131</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:14">
@@ -1967,13 +1982,13 @@
         <v>36</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="11">
-        <v>1.709</v>
+        <v>1.3</v>
       </c>
       <c r="E8" s="11">
-        <v>20006</v>
+        <v>30006</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
@@ -1989,14 +2004,16 @@
         <v>13</v>
       </c>
       <c r="K8" s="11">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="L8" s="11">
         <v>11020948175</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="N8" s="11">
+        <v>11020928131</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:14">
@@ -2007,13 +2024,13 @@
         <v>37</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="11">
-        <v>0.009</v>
+        <v>0.006</v>
       </c>
       <c r="E9" s="11">
-        <v>20007</v>
+        <v>30007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
@@ -2029,14 +2046,16 @@
         <v>13</v>
       </c>
       <c r="K9" s="11">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="L9" s="11">
         <v>11020948167</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>35</v>
+      </c>
+      <c r="N9" s="11">
+        <v>11020928131</v>
       </c>
     </row>
   </sheetData>
@@ -2048,13 +2067,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="4" width="22.5462962962963" customWidth="1"/>
@@ -2114,7 +2133,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2125,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -2138,16 +2157,16 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>13</v>
@@ -2165,15 +2184,63 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4">
+    <row r="3" spans="1:16">
+      <c r="A3" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.7654</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="4">
+        <v>15000001095</v>
+      </c>
+      <c r="N3" s="4">
+        <v>15000000536</v>
+      </c>
+      <c r="O3" s="4">
+        <v>9000000020</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
         <v>123</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -127,6 +127,9 @@
     <t>Counterparty's SSI.1</t>
   </si>
   <si>
+    <t>Search Content</t>
+  </si>
+  <si>
     <t>Settlement A/c for Buy.2</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
   </si>
   <si>
     <t>Netting</t>
-  </si>
-  <si>
-    <t>Search Content</t>
   </si>
   <si>
     <t>05 SEP 2024</t>
@@ -1658,10 +1658,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1674,11 +1674,12 @@
     <col min="10" max="10" width="28.1759259259259" customWidth="1"/>
     <col min="11" max="11" width="29.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="30.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="24.1759259259259" customWidth="1"/>
-    <col min="14" max="14" width="34" customWidth="1"/>
+    <col min="13" max="13" width="17.8888888888889" customWidth="1"/>
+    <col min="14" max="14" width="22.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1721,8 +1722,11 @@
       <c r="N1" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="O1" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:14">
+    <row r="2" s="9" customFormat="1" spans="1:15">
       <c r="A2" s="10">
         <v>202347</v>
       </c>
@@ -1740,13 +1744,13 @@
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>13</v>
@@ -1757,14 +1761,15 @@
       <c r="L2" s="11">
         <v>11020928158</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="11">
+      <c r="M2" s="10"/>
+      <c r="N2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:14">
+    <row r="3" s="9" customFormat="1" spans="1:15">
       <c r="A3" s="10">
         <v>202347</v>
       </c>
@@ -1782,13 +1787,13 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>13</v>
@@ -1799,14 +1804,15 @@
       <c r="L3" s="11">
         <v>11020948132</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="M3" s="10"/>
+      <c r="N3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:14">
+    <row r="4" s="9" customFormat="1" spans="1:15">
       <c r="A4" s="10">
         <v>202347</v>
       </c>
@@ -1824,13 +1830,13 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>13</v>
@@ -1841,14 +1847,15 @@
       <c r="L4" s="11">
         <v>11020948140</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="11">
+      <c r="M4" s="10"/>
+      <c r="N4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:14">
+    <row r="5" s="9" customFormat="1" spans="1:15">
       <c r="A5" s="10">
         <v>202347</v>
       </c>
@@ -1866,13 +1873,13 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>13</v>
@@ -1883,14 +1890,15 @@
       <c r="L5" s="11">
         <v>11020948159</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="M5" s="10"/>
+      <c r="N5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:14">
+    <row r="6" s="9" customFormat="1" spans="1:15">
       <c r="A6" s="10">
         <v>202347</v>
       </c>
@@ -1908,13 +1916,13 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>13</v>
@@ -1925,14 +1933,15 @@
       <c r="L6" s="11">
         <v>11020948183</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="M6" s="10"/>
+      <c r="N6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:14">
+    <row r="7" s="9" customFormat="1" spans="1:15">
       <c r="A7" s="10">
         <v>202347</v>
       </c>
@@ -1950,13 +1959,13 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>13</v>
@@ -1967,19 +1976,20 @@
       <c r="L7" s="11">
         <v>11020948191</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="M7" s="10"/>
+      <c r="N7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:14">
+    <row r="8" s="9" customFormat="1" spans="1:15">
       <c r="A8" s="10">
         <v>202347</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>14</v>
@@ -1992,13 +2002,13 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>13</v>
@@ -2009,19 +2019,20 @@
       <c r="L8" s="11">
         <v>11020948175</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="M8" s="10"/>
+      <c r="N8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:14">
+    <row r="9" s="9" customFormat="1" spans="1:15">
       <c r="A9" s="10">
         <v>202347</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>14</v>
@@ -2034,13 +2045,13 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>13</v>
@@ -2051,10 +2062,11 @@
       <c r="L9" s="11">
         <v>11020948167</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="M9" s="10"/>
+      <c r="N9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="11">
         <v>11020928131</v>
       </c>
     </row>
@@ -2069,8 +2081,8 @@
   <sheetPr/>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -2118,7 +2130,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>28</v>
@@ -2133,7 +2145,7 @@
         <v>31</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2147,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
@@ -2163,7 +2175,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>41</v>
@@ -2181,7 +2193,7 @@
         <v>9000000020</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2195,7 +2207,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2">
         <v>0.7654</v>
@@ -2211,7 +2223,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>41</v>
@@ -2229,7 +2241,7 @@
         <v>9000000020</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1673,10 +1673,9 @@
     <col min="8" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="28.1759259259259" customWidth="1"/>
     <col min="11" max="11" width="29.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="30.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="22.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="34" customWidth="1"/>
+    <col min="12" max="13" width="30.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="22.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1719,7 +1718,7 @@
       <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -1734,13 +1733,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="11">
-        <v>0.76</v>
+        <v>5.97</v>
       </c>
       <c r="E2" s="11">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
@@ -1756,17 +1755,17 @@
         <v>13</v>
       </c>
       <c r="K2" s="11">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="L2" s="11">
         <v>11020928158</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="11">
-        <v>11020928131</v>
+        <v>11020938757</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:15">
@@ -1774,16 +1773,16 @@
         <v>202347</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="11">
-        <v>0.12</v>
+        <v>7.79</v>
       </c>
       <c r="E3" s="11">
-        <v>30001</v>
+        <v>40001</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1799,17 +1798,17 @@
         <v>13</v>
       </c>
       <c r="K3" s="11">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="L3" s="11">
-        <v>11020948132</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11" t="s">
+        <v>11020928166</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O3" s="11">
-        <v>11020928131</v>
+        <v>11020938757</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:15">
@@ -1820,13 +1819,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="11">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="E4" s="11">
-        <v>30002</v>
+        <v>40002</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
@@ -1842,17 +1841,17 @@
         <v>13</v>
       </c>
       <c r="K4" s="11">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="L4" s="11">
         <v>11020948140</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O4" s="11">
-        <v>11020928131</v>
+        <v>11020938757</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:15">
@@ -1863,13 +1862,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="11">
-        <v>0.14</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="11">
-        <v>30003</v>
+        <v>40003</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
@@ -1885,17 +1884,17 @@
         <v>13</v>
       </c>
       <c r="K5" s="11">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="L5" s="11">
         <v>11020948159</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O5" s="11">
-        <v>11020928131</v>
+        <v>11020938757</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:15">
@@ -1906,13 +1905,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="11">
-        <v>0.27</v>
+        <v>2.12</v>
       </c>
       <c r="E6" s="11">
-        <v>30004</v>
+        <v>40004</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
@@ -1928,17 +1927,17 @@
         <v>13</v>
       </c>
       <c r="K6" s="11">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="L6" s="11">
         <v>11020948183</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O6" s="11">
-        <v>11020928131</v>
+        <v>11020938757</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:15">
@@ -1949,13 +1948,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="11">
-        <v>0.66</v>
+        <v>5.18</v>
       </c>
       <c r="E7" s="11">
-        <v>30005</v>
+        <v>40005</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1971,17 +1970,17 @@
         <v>13</v>
       </c>
       <c r="K7" s="11">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="L7" s="11">
         <v>11020948191</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="11"/>
+      <c r="N7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O7" s="11">
-        <v>11020928131</v>
+        <v>11020938757</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:15">
@@ -1992,13 +1991,13 @@
         <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="11">
-        <v>1.3</v>
+        <v>10.2</v>
       </c>
       <c r="E8" s="11">
-        <v>30006</v>
+        <v>40006</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
@@ -2014,17 +2013,17 @@
         <v>13</v>
       </c>
       <c r="K8" s="11">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="L8" s="11">
         <v>11020948175</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O8" s="11">
-        <v>11020928131</v>
+        <v>11020938757</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:15">
@@ -2035,13 +2034,13 @@
         <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="11">
-        <v>0.006</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="11">
-        <v>30007</v>
+        <v>40007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
@@ -2057,17 +2056,17 @@
         <v>13</v>
       </c>
       <c r="K9" s="11">
-        <v>11010003151</v>
+        <v>11020938803</v>
       </c>
       <c r="L9" s="11">
         <v>11020948167</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O9" s="11">
-        <v>11020928131</v>
+        <v>11020938757</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1660,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1739,7 +1739,7 @@
         <v>5.97</v>
       </c>
       <c r="E2" s="11">
-        <v>40000</v>
+        <v>40001</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
@@ -1782,7 +1782,7 @@
         <v>7.79</v>
       </c>
       <c r="E3" s="11">
-        <v>40001</v>
+        <v>40002</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1825,7 +1825,7 @@
         <v>8.6</v>
       </c>
       <c r="E4" s="11">
-        <v>40002</v>
+        <v>40003</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
@@ -1868,7 +1868,7 @@
         <v>1.09</v>
       </c>
       <c r="E5" s="11">
-        <v>40003</v>
+        <v>40004</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
@@ -1911,7 +1911,7 @@
         <v>2.12</v>
       </c>
       <c r="E6" s="11">
-        <v>40004</v>
+        <v>40005</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
@@ -1954,7 +1954,7 @@
         <v>5.18</v>
       </c>
       <c r="E7" s="11">
-        <v>40005</v>
+        <v>40006</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1997,7 +1997,7 @@
         <v>10.2</v>
       </c>
       <c r="E8" s="11">
-        <v>40006</v>
+        <v>40007</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
@@ -2040,7 +2040,7 @@
         <v>0.05</v>
       </c>
       <c r="E9" s="11">
-        <v>40007</v>
+        <v>40008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -801,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +840,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1660,8 +1663,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1733,13 +1736,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="11">
-        <v>5.97</v>
+        <v>0.694</v>
       </c>
       <c r="E2" s="11">
-        <v>40001</v>
+        <v>50000</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
@@ -1755,16 +1758,16 @@
         <v>13</v>
       </c>
       <c r="K2" s="11">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="L2" s="11">
         <v>11020928158</v>
       </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="13">
         <v>11020938757</v>
       </c>
     </row>
@@ -1776,13 +1779,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11">
-        <v>7.79</v>
+        <v>0.3</v>
       </c>
       <c r="E3" s="11">
-        <v>40002</v>
+        <v>50001</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1798,16 +1801,16 @@
         <v>13</v>
       </c>
       <c r="K3" s="11">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="L3" s="11">
         <v>11020928166</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="13">
         <v>11020938757</v>
       </c>
     </row>
@@ -1816,16 +1819,16 @@
         <v>202347</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="11">
-        <v>8.6</v>
+        <v>0.116</v>
       </c>
       <c r="E4" s="11">
-        <v>40003</v>
+        <v>50002</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
@@ -1841,16 +1844,16 @@
         <v>13</v>
       </c>
       <c r="K4" s="11">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="L4" s="11">
-        <v>11020948140</v>
-      </c>
-      <c r="M4" s="11"/>
+        <v>11020948132</v>
+      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="13">
         <v>11020938757</v>
       </c>
     </row>
@@ -1862,13 +1865,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11">
-        <v>1.09</v>
+        <v>0.127</v>
       </c>
       <c r="E5" s="11">
-        <v>40004</v>
+        <v>50003</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
@@ -1884,16 +1887,16 @@
         <v>13</v>
       </c>
       <c r="K5" s="11">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="L5" s="11">
         <v>11020948159</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="13">
         <v>11020938757</v>
       </c>
     </row>
@@ -1905,13 +1908,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="11">
-        <v>2.12</v>
+        <v>0.24</v>
       </c>
       <c r="E6" s="11">
-        <v>40005</v>
+        <v>50004</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
@@ -1927,16 +1930,16 @@
         <v>13</v>
       </c>
       <c r="K6" s="11">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="L6" s="11">
         <v>11020948183</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="13">
         <v>11020938757</v>
       </c>
     </row>
@@ -1948,13 +1951,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="11">
-        <v>5.18</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="11">
-        <v>40006</v>
+        <v>50005</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1970,16 +1973,16 @@
         <v>13</v>
       </c>
       <c r="K7" s="11">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="L7" s="11">
         <v>11020948191</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="13">
         <v>11020938757</v>
       </c>
     </row>
@@ -1991,13 +1994,13 @@
         <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="11">
-        <v>10.2</v>
+        <v>1.18</v>
       </c>
       <c r="E8" s="11">
-        <v>40007</v>
+        <v>50006</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
@@ -2013,16 +2016,16 @@
         <v>13</v>
       </c>
       <c r="K8" s="11">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="L8" s="11">
         <v>11020948175</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="13">
         <v>11020938757</v>
       </c>
     </row>
@@ -2034,13 +2037,13 @@
         <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="11">
-        <v>0.05</v>
+        <v>0.006</v>
       </c>
       <c r="E9" s="11">
-        <v>40008</v>
+        <v>50007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
@@ -2056,16 +2059,16 @@
         <v>13</v>
       </c>
       <c r="K9" s="11">
-        <v>11020938803</v>
+        <v>11020938781</v>
       </c>
       <c r="L9" s="11">
         <v>11020948167</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="13">
         <v>11020938757</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -801,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,9 +840,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1664,7 +1661,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1736,13 +1733,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="11">
-        <v>0.694</v>
+        <v>5.45</v>
       </c>
       <c r="E2" s="11">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
@@ -1758,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="11">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="L2" s="11">
         <v>11020928158</v>
@@ -1767,7 +1764,7 @@
       <c r="N2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="11">
         <v>11020938757</v>
       </c>
     </row>
@@ -1779,13 +1776,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11">
-        <v>0.3</v>
+        <v>6.2</v>
       </c>
       <c r="E3" s="11">
-        <v>50001</v>
+        <v>60001</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1801,7 +1798,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="11">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="L3" s="11">
         <v>11020928166</v>
@@ -1810,7 +1807,7 @@
       <c r="N3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <v>11020938757</v>
       </c>
     </row>
@@ -1822,13 +1819,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="11">
-        <v>0.116</v>
+        <v>0.92</v>
       </c>
       <c r="E4" s="11">
-        <v>50002</v>
+        <v>60002</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
@@ -1844,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="11">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="L4" s="11">
         <v>11020948132</v>
@@ -1853,7 +1850,7 @@
       <c r="N4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <v>11020938757</v>
       </c>
     </row>
@@ -1862,16 +1859,16 @@
         <v>202347</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="11">
         <v>0.127</v>
       </c>
       <c r="E5" s="11">
-        <v>50003</v>
+        <v>60003</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
@@ -1887,16 +1884,16 @@
         <v>13</v>
       </c>
       <c r="K5" s="11">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="L5" s="11">
-        <v>11020948159</v>
+        <v>11020948140</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <v>11020938757</v>
       </c>
     </row>
@@ -1908,13 +1905,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="11">
-        <v>0.24</v>
+        <v>1.9381</v>
       </c>
       <c r="E6" s="11">
-        <v>50004</v>
+        <v>60004</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
@@ -1930,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="11">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="L6" s="11">
         <v>11020948183</v>
@@ -1939,7 +1936,7 @@
       <c r="N6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <v>11020938757</v>
       </c>
     </row>
@@ -1951,13 +1948,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="11">
-        <v>0.6</v>
+        <v>4.73</v>
       </c>
       <c r="E7" s="11">
-        <v>50005</v>
+        <v>60005</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1973,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="11">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="L7" s="11">
         <v>11020948191</v>
@@ -1982,7 +1979,7 @@
       <c r="N7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <v>11020938757</v>
       </c>
     </row>
@@ -1994,13 +1991,13 @@
         <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="11">
-        <v>1.18</v>
+        <v>9.92</v>
       </c>
       <c r="E8" s="11">
-        <v>50006</v>
+        <v>60006</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
@@ -2016,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="11">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="L8" s="11">
         <v>11020948175</v>
@@ -2025,7 +2022,7 @@
       <c r="N8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>11020938757</v>
       </c>
     </row>
@@ -2037,13 +2034,13 @@
         <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="11">
-        <v>0.006</v>
+        <v>0.049</v>
       </c>
       <c r="E9" s="11">
-        <v>50007</v>
+        <v>60007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
@@ -2059,7 +2056,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="11">
-        <v>11020938781</v>
+        <v>11020938811</v>
       </c>
       <c r="L9" s="11">
         <v>11020948167</v>
@@ -2068,7 +2065,7 @@
       <c r="N9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>11020938757</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1733,13 +1733,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="11">
-        <v>5.45</v>
+        <v>2.811</v>
       </c>
       <c r="E2" s="11">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="11">
-        <v>11020938811</v>
+        <v>11020943823</v>
       </c>
       <c r="L2" s="11">
         <v>11020928158</v>
@@ -1765,7 +1765,7 @@
         <v>36</v>
       </c>
       <c r="O2" s="11">
-        <v>11020938757</v>
+        <v>11020927410</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:15">
@@ -1776,13 +1776,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11">
-        <v>6.2</v>
+        <v>3.67</v>
       </c>
       <c r="E3" s="11">
-        <v>60001</v>
+        <v>70001</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1798,7 +1798,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="11">
-        <v>11020938811</v>
+        <v>11020943823</v>
       </c>
       <c r="L3" s="11">
         <v>11020928166</v>
@@ -1808,7 +1808,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="11">
-        <v>11020938757</v>
+        <v>11020927410</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:15">
@@ -1819,13 +1819,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="11">
-        <v>0.92</v>
+        <v>0.47</v>
       </c>
       <c r="E4" s="11">
-        <v>60002</v>
+        <v>70002</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
@@ -1841,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="11">
-        <v>11020938811</v>
+        <v>11020943823</v>
       </c>
       <c r="L4" s="11">
         <v>11020948132</v>
@@ -1851,7 +1851,7 @@
         <v>36</v>
       </c>
       <c r="O4" s="11">
-        <v>11020938757</v>
+        <v>11020927410</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:15">
@@ -1862,13 +1862,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11">
-        <v>0.127</v>
+        <v>4.04</v>
       </c>
       <c r="E5" s="11">
-        <v>60003</v>
+        <v>70003</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
@@ -1884,7 +1884,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="11">
-        <v>11020938811</v>
+        <v>11020943823</v>
       </c>
       <c r="L5" s="11">
         <v>11020948140</v>
@@ -1894,7 +1894,7 @@
         <v>36</v>
       </c>
       <c r="O5" s="11">
-        <v>11020938757</v>
+        <v>11020927410</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:15">
@@ -1902,16 +1902,16 @@
         <v>202347</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="11">
-        <v>1.9381</v>
+        <v>0.51</v>
       </c>
       <c r="E6" s="11">
-        <v>60004</v>
+        <v>70004</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
@@ -1927,17 +1927,17 @@
         <v>13</v>
       </c>
       <c r="K6" s="11">
-        <v>11020938811</v>
+        <v>11020943823</v>
       </c>
       <c r="L6" s="11">
-        <v>11020948183</v>
+        <v>11020948159</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="O6" s="11">
-        <v>11020938757</v>
+        <v>11020927410</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:15">
@@ -1948,13 +1948,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="11">
-        <v>4.73</v>
+        <v>2.44</v>
       </c>
       <c r="E7" s="11">
-        <v>60005</v>
+        <v>70005</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1970,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="11">
-        <v>11020938811</v>
+        <v>11020943823</v>
       </c>
       <c r="L7" s="11">
         <v>11020948191</v>
@@ -1980,7 +1980,7 @@
         <v>36</v>
       </c>
       <c r="O7" s="11">
-        <v>11020938757</v>
+        <v>11020927410</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:15">
@@ -1991,13 +1991,13 @@
         <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11">
-        <v>9.92</v>
+        <v>4.79</v>
       </c>
       <c r="E8" s="11">
-        <v>60006</v>
+        <v>70006</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
@@ -2013,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="11">
-        <v>11020938811</v>
+        <v>11020943823</v>
       </c>
       <c r="L8" s="11">
         <v>11020948175</v>
@@ -2023,7 +2023,7 @@
         <v>36</v>
       </c>
       <c r="O8" s="11">
-        <v>11020938757</v>
+        <v>11020927410</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:15">
@@ -2034,13 +2034,13 @@
         <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="11">
-        <v>0.049</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="11">
-        <v>60007</v>
+        <v>70007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
@@ -2056,7 +2056,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="11">
-        <v>11020938811</v>
+        <v>11020943823</v>
       </c>
       <c r="L9" s="11">
         <v>11020948167</v>
@@ -2066,7 +2066,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="11">
-        <v>11020938757</v>
+        <v>11020927410</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -801,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +840,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1661,7 +1664,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O2" sqref="O2:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1733,13 +1736,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11">
-        <v>2.811</v>
+        <v>1.15</v>
       </c>
       <c r="E2" s="11">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
@@ -1755,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="11">
-        <v>11020943823</v>
+        <v>11020948922</v>
       </c>
       <c r="L2" s="11">
         <v>11020928158</v>
@@ -1764,8 +1767,8 @@
       <c r="N2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="11">
-        <v>11020927410</v>
+      <c r="O2" s="13">
+        <v>11020948302</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:15">
@@ -1776,13 +1779,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11">
-        <v>3.67</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="11">
-        <v>70001</v>
+        <v>80001</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
@@ -1798,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="11">
-        <v>11020943823</v>
+        <v>11020948922</v>
       </c>
       <c r="L3" s="11">
         <v>11020928166</v>
@@ -1807,8 +1810,8 @@
       <c r="N3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="11">
-        <v>11020927410</v>
+      <c r="O3" s="13">
+        <v>11020948302</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:15">
@@ -1819,13 +1822,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
       <c r="E4" s="11">
-        <v>70002</v>
+        <v>80002</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
@@ -1841,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="11">
-        <v>11020943823</v>
+        <v>11020948922</v>
       </c>
       <c r="L4" s="11">
         <v>11020948132</v>
@@ -1850,8 +1853,8 @@
       <c r="N4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="11">
-        <v>11020927410</v>
+      <c r="O4" s="13">
+        <v>11020948302</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:15">
@@ -1862,13 +1865,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="11">
-        <v>4.04</v>
+        <v>1.65</v>
       </c>
       <c r="E5" s="11">
-        <v>70003</v>
+        <v>80003</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
@@ -1884,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="11">
-        <v>11020943823</v>
+        <v>11020948922</v>
       </c>
       <c r="L5" s="11">
         <v>11020948140</v>
@@ -1893,8 +1896,8 @@
       <c r="N5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="11">
-        <v>11020927410</v>
+      <c r="O5" s="13">
+        <v>11020948302</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:15">
@@ -1905,13 +1908,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11">
-        <v>0.51</v>
+        <v>0.21</v>
       </c>
       <c r="E6" s="11">
-        <v>70004</v>
+        <v>80004</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
@@ -1927,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="11">
-        <v>11020943823</v>
+        <v>11020948922</v>
       </c>
       <c r="L6" s="11">
         <v>11020948159</v>
@@ -1936,8 +1939,8 @@
       <c r="N6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="11">
-        <v>11020927410</v>
+      <c r="O6" s="13">
+        <v>11020948302</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:15">
@@ -1945,16 +1948,16 @@
         <v>202347</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="11">
-        <v>2.44</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="11">
-        <v>70005</v>
+        <v>80005</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
@@ -1970,17 +1973,17 @@
         <v>13</v>
       </c>
       <c r="K7" s="11">
-        <v>11020943823</v>
+        <v>11020948922</v>
       </c>
       <c r="L7" s="11">
-        <v>11020948191</v>
+        <v>11020948183</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="11">
-        <v>11020927410</v>
+      <c r="O7" s="13">
+        <v>11020948302</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:15">
@@ -1991,13 +1994,13 @@
         <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="11">
-        <v>4.79</v>
+        <v>1.96</v>
       </c>
       <c r="E8" s="11">
-        <v>70006</v>
+        <v>80006</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
@@ -2013,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="11">
-        <v>11020943823</v>
+        <v>11020948922</v>
       </c>
       <c r="L8" s="11">
         <v>11020948175</v>
@@ -2022,8 +2025,8 @@
       <c r="N8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="11">
-        <v>11020927410</v>
+      <c r="O8" s="13">
+        <v>11020948302</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:15">
@@ -2034,13 +2037,13 @@
         <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="11">
-        <v>70007</v>
+        <v>80007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
@@ -2056,7 +2059,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="11">
-        <v>11020943823</v>
+        <v>11020948922</v>
       </c>
       <c r="L9" s="11">
         <v>11020948167</v>
@@ -2065,8 +2068,8 @@
       <c r="N9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="11">
-        <v>11020927410</v>
+      <c r="O9" s="13">
+        <v>11020948302</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -133,6 +133,9 @@
     <t>Settlement A/c for Buy.2</t>
   </si>
   <si>
+    <t>GBP</t>
+  </si>
+  <si>
     <t>12 SEP 2024</t>
   </si>
   <si>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>FOREX</t>
-  </si>
-  <si>
-    <t>GBP</t>
   </si>
   <si>
     <t>JPY</t>
@@ -164,12 +164,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="00"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -841,8 +842,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1664,7 +1665,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1736,39 +1737,39 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D2" s="11">
-        <v>1.15</v>
+        <v>0.58</v>
       </c>
       <c r="E2" s="11">
         <v>80000</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="11">
-        <v>11020948922</v>
+        <v>11020945133</v>
       </c>
       <c r="L2" s="11">
         <v>11020928158</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="13">
-        <v>11020948302</v>
+        <v>37</v>
+      </c>
+      <c r="O2" s="11">
+        <v>11020945079</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:15">
@@ -1779,39 +1780,39 @@
         <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D3" s="11">
-        <v>1.5</v>
+        <v>0.76</v>
       </c>
       <c r="E3" s="11">
         <v>80001</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="11">
-        <v>11020948922</v>
+        <v>11020945133</v>
       </c>
       <c r="L3" s="11">
         <v>11020928166</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="13">
-        <v>11020948302</v>
+        <v>37</v>
+      </c>
+      <c r="O3" s="11">
+        <v>11020945079</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:15">
@@ -1822,39 +1823,39 @@
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D4" s="11">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="11">
         <v>80002</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="11">
-        <v>11020948922</v>
+        <v>11020945133</v>
       </c>
       <c r="L4" s="11">
         <v>11020948132</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="13">
-        <v>11020948302</v>
+        <v>37</v>
+      </c>
+      <c r="O4" s="11">
+        <v>11020945079</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:15">
@@ -1865,39 +1866,39 @@
         <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11">
-        <v>1.65</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="11">
         <v>80003</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="11">
-        <v>11020948922</v>
+        <v>11020945133</v>
       </c>
       <c r="L5" s="11">
         <v>11020948140</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="13">
-        <v>11020948302</v>
+        <v>37</v>
+      </c>
+      <c r="O5" s="11">
+        <v>11020945079</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:15">
@@ -1908,39 +1909,39 @@
         <v>17</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.21</v>
+        <v>34</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.1</v>
       </c>
       <c r="E6" s="11">
         <v>80004</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="11">
-        <v>11020948922</v>
+        <v>11020945133</v>
       </c>
       <c r="L6" s="11">
         <v>11020948159</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="13">
-        <v>11020948302</v>
+        <v>37</v>
+      </c>
+      <c r="O6" s="11">
+        <v>11020945079</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:15">
@@ -1951,39 +1952,39 @@
         <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="11">
         <v>80005</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="11">
-        <v>11020948922</v>
+        <v>11020945133</v>
       </c>
       <c r="L7" s="11">
         <v>11020948183</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="13">
-        <v>11020948302</v>
+        <v>37</v>
+      </c>
+      <c r="O7" s="11">
+        <v>11020945079</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:15">
@@ -1991,42 +1992,42 @@
         <v>202347</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D8" s="11">
-        <v>1.96</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="11">
         <v>80006</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="11">
-        <v>11020948922</v>
+        <v>11020945133</v>
       </c>
       <c r="L8" s="11">
-        <v>11020948175</v>
+        <v>11020948191</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="13">
-        <v>11020948302</v>
+        <v>37</v>
+      </c>
+      <c r="O8" s="11">
+        <v>11020945079</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:15">
@@ -2037,39 +2038,39 @@
         <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D9" s="11">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="11">
         <v>80007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="11">
-        <v>11020948922</v>
+        <v>11020945133</v>
       </c>
       <c r="L9" s="11">
         <v>11020948167</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="13">
-        <v>11020948302</v>
+        <v>37</v>
+      </c>
+      <c r="O9" s="11">
+        <v>11020945079</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2178,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>41</v>
@@ -2195,7 +2196,7 @@
         <v>9000000020</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2225,7 +2226,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>41</v>
@@ -2243,7 +2244,7 @@
         <v>9000000020</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -133,16 +133,16 @@
     <t>Settlement A/c for Buy.2</t>
   </si>
   <si>
+    <t>13 SEP 2024</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FOREX</t>
+  </si>
+  <si>
     <t>GBP</t>
-  </si>
-  <si>
-    <t>12 SEP 2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>FOREX</t>
   </si>
   <si>
     <t>JPY</t>
@@ -164,13 +164,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="00"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -802,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,9 +839,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1665,7 +1661,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1731,346 +1727,346 @@
     </row>
     <row r="2" s="9" customFormat="1" spans="1:15">
       <c r="A2" s="10">
-        <v>202347</v>
-      </c>
-      <c r="B2" s="10" t="s">
+        <v>200331</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>34</v>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="11">
-        <v>0.58</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="11">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="11">
-        <v>11020945133</v>
+        <v>11020928166</v>
       </c>
       <c r="L2" s="11">
-        <v>11020928158</v>
-      </c>
-      <c r="M2" s="10"/>
+        <v>11010003909</v>
+      </c>
+      <c r="M2" s="11"/>
       <c r="N2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="11">
-        <v>11020945079</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:15">
       <c r="A3" s="10">
-        <v>202347</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>34</v>
+        <v>200331</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="11">
-        <v>0.76</v>
+        <v>5.99</v>
       </c>
       <c r="E3" s="11">
-        <v>80001</v>
+        <v>10001</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="11">
-        <v>11020945133</v>
+        <v>11020948132</v>
       </c>
       <c r="L3" s="11">
-        <v>11020928166</v>
-      </c>
-      <c r="M3" s="10"/>
+        <v>11010003909</v>
+      </c>
+      <c r="M3" s="11"/>
       <c r="N3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="11">
-        <v>11020945079</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:15">
       <c r="A4" s="10">
-        <v>202347</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>200331</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="11">
-        <v>0.09</v>
+        <v>0.69</v>
       </c>
       <c r="E4" s="11">
-        <v>80002</v>
+        <v>10002</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="11">
-        <v>11020945133</v>
+        <v>11020948140</v>
       </c>
       <c r="L4" s="11">
-        <v>11020948132</v>
-      </c>
-      <c r="M4" s="10"/>
+        <v>11010003909</v>
+      </c>
+      <c r="M4" s="11"/>
       <c r="N4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="11">
-        <v>11020945079</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:15">
       <c r="A5" s="10">
-        <v>202347</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>200331</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="11">
-        <v>0.84</v>
+        <v>5.46</v>
       </c>
       <c r="E5" s="11">
-        <v>80003</v>
+        <v>10003</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="11">
-        <v>11020945133</v>
+        <v>11020948159</v>
       </c>
       <c r="L5" s="11">
-        <v>11020948140</v>
-      </c>
-      <c r="M5" s="10"/>
+        <v>11010003909</v>
+      </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="11">
-        <v>11020945079</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:15">
       <c r="A6" s="10">
-        <v>202347</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.1</v>
+        <v>200331</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2.82</v>
       </c>
       <c r="E6" s="11">
-        <v>80004</v>
+        <v>10004</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="11">
-        <v>11020945133</v>
+        <v>11020948183</v>
       </c>
       <c r="L6" s="11">
-        <v>11020948159</v>
-      </c>
-      <c r="M6" s="10"/>
+        <v>11010003909</v>
+      </c>
+      <c r="M6" s="11"/>
       <c r="N6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" s="11">
-        <v>11020945079</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:15">
       <c r="A7" s="10">
-        <v>202347</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>200331</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="11">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="E7" s="11">
-        <v>80005</v>
+        <v>10005</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="11">
-        <v>11020945133</v>
+        <v>11020948191</v>
       </c>
       <c r="L7" s="11">
-        <v>11020948183</v>
-      </c>
-      <c r="M7" s="10"/>
+        <v>11010003909</v>
+      </c>
+      <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="11">
-        <v>11020945079</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:15">
       <c r="A8" s="10">
-        <v>202347</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>34</v>
+        <v>200331</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="11">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="E8" s="11">
-        <v>80006</v>
+        <v>10006</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="11">
-        <v>11020945133</v>
+        <v>11020948175</v>
       </c>
       <c r="L8" s="11">
-        <v>11020948191</v>
-      </c>
-      <c r="M8" s="10"/>
+        <v>11010003909</v>
+      </c>
+      <c r="M8" s="11"/>
       <c r="N8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="11">
-        <v>11020945079</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:15">
       <c r="A9" s="10">
-        <v>202347</v>
-      </c>
-      <c r="B9" s="10" t="s">
+        <v>200331</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="11">
-        <v>0.05</v>
+        <v>108</v>
       </c>
       <c r="E9" s="11">
-        <v>80007</v>
+        <v>10007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="11">
-        <v>11020945133</v>
+        <v>11020948167</v>
       </c>
       <c r="L9" s="11">
-        <v>11020948167</v>
-      </c>
-      <c r="M9" s="10"/>
+        <v>11010003909</v>
+      </c>
+      <c r="M9" s="11"/>
       <c r="N9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" s="11">
-        <v>11020945079</v>
+        <v>11020928131</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>41</v>
@@ -2196,7 +2192,7 @@
         <v>9000000020</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2226,7 +2222,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>41</v>
@@ -2244,7 +2240,7 @@
         <v>9000000020</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -133,7 +133,7 @@
     <t>Settlement A/c for Buy.2</t>
   </si>
   <si>
-    <t>13 SEP 2024</t>
+    <t>11 SEP 2024</t>
   </si>
   <si>
     <t>No</t>
@@ -1660,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="42">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -151,13 +151,10 @@
     <t>Netting</t>
   </si>
   <si>
-    <t>05 SEP 2024</t>
+    <t>28 SEP 2024</t>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -801,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,15 +811,18 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -831,12 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1377,7 +1371,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1415,7 +1409,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1435,25 +1429,25 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>700000</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <v>1.1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="6">
         <v>15000000196</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <v>9100000007</v>
       </c>
     </row>
@@ -1467,25 +1461,25 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>800000</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>1.375</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="6">
         <v>15000000242</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <v>9100000007</v>
       </c>
     </row>
@@ -1499,25 +1493,25 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>3900000</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>5.59</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>15000000641</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>9100000004</v>
       </c>
     </row>
@@ -1531,25 +1525,25 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>3900000</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>1.46</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>15000000730</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>9100000007</v>
       </c>
     </row>
@@ -1563,25 +1557,25 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>3910000</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>4.91</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="6">
         <v>15000000722</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <v>9100000007</v>
       </c>
     </row>
@@ -1595,25 +1589,25 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>3920000</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>3.67</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <v>15000000994</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>9000000008</v>
       </c>
     </row>
@@ -1627,25 +1621,25 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>5430000</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>1.09</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <v>15000001591</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <v>9000000002</v>
       </c>
     </row>
@@ -1660,8 +1654,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1706,7 +1700,7 @@
       <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1721,351 +1715,351 @@
       <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:15">
-      <c r="A2" s="10">
+    <row r="2" s="10" customFormat="1" spans="1:15">
+      <c r="A2" s="4">
         <v>200331</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11">
-        <v>0.768</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="D2" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="E2" s="5">
         <v>10000</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="5">
         <v>11020928166</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="5">
         <v>11010003909</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="5">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:15">
-      <c r="A3" s="10">
+    <row r="3" s="10" customFormat="1" spans="1:15">
+      <c r="A3" s="4">
         <v>200331</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11">
-        <v>5.99</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="5">
         <v>10001</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="5">
         <v>11020948132</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="5">
         <v>11010003909</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="5">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:15">
-      <c r="A4" s="10">
+    <row r="4" s="10" customFormat="1" spans="1:15">
+      <c r="A4" s="4">
         <v>200331</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11">
-        <v>0.69</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="5">
+        <v>1.1</v>
+      </c>
+      <c r="E4" s="5">
         <v>10002</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="5">
         <v>11020948140</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="5">
         <v>11010003909</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="5">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:15">
-      <c r="A5" s="10">
+    <row r="5" s="10" customFormat="1" spans="1:15">
+      <c r="A5" s="4">
         <v>200331</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11">
-        <v>5.46</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="E5" s="5">
         <v>10003</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="5">
         <v>11020948159</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="5">
         <v>11010003909</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="5">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:15">
-      <c r="A6" s="10">
+    <row r="6" s="10" customFormat="1" spans="1:15">
+      <c r="A6" s="4">
         <v>200331</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11">
-        <v>2.82</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E6" s="5">
         <v>10004</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="5">
         <v>11020948183</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="5">
         <v>11010003909</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="5">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:15">
-      <c r="A7" s="10">
+    <row r="7" s="10" customFormat="1" spans="1:15">
+      <c r="A7" s="4">
         <v>200331</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11">
-        <v>1.15</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="E7" s="5">
         <v>10005</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="5">
         <v>11020948191</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="5">
         <v>11010003909</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10" t="s">
+      <c r="M7" s="5"/>
+      <c r="N7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="5">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:15">
-      <c r="A8" s="10">
+    <row r="8" s="10" customFormat="1" spans="1:15">
+      <c r="A8" s="4">
         <v>200331</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11">
-        <v>0.58</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="5">
         <v>10006</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="5">
         <v>11020948175</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="5">
         <v>11010003909</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10" t="s">
+      <c r="M8" s="5"/>
+      <c r="N8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="5">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:15">
-      <c r="A9" s="10">
+    <row r="9" s="10" customFormat="1" spans="1:15">
+      <c r="A9" s="4">
         <v>200331</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="11">
-        <v>108</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="5">
+        <v>0.006</v>
+      </c>
+      <c r="E9" s="5">
         <v>10007</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="5">
         <v>11020948167</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="5">
         <v>11010003909</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="5">
         <v>11020928131</v>
       </c>
     </row>
@@ -2078,13 +2072,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="4" width="22.5462962962963" customWidth="1"/>
@@ -2131,7 +2125,7 @@
       <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2143,7 +2137,7 @@
       <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2154,42 +2148,42 @@
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.7654</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="F2" s="6">
         <v>10000</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4">
-        <v>15000001095</v>
-      </c>
-      <c r="N2" s="4">
-        <v>15000000536</v>
-      </c>
-      <c r="O2" s="4">
-        <v>9000000020</v>
+      <c r="M2" s="6">
+        <v>15000000196</v>
+      </c>
+      <c r="N2" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O2" s="6">
+        <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>36</v>
@@ -2202,56 +2196,334 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.7654</v>
-      </c>
-      <c r="F3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4">
-        <v>15000001095</v>
-      </c>
-      <c r="N3" s="4">
-        <v>15000000536</v>
-      </c>
-      <c r="O3" s="4">
-        <v>9000000020</v>
+      <c r="M3" s="6">
+        <v>15000000641</v>
+      </c>
+      <c r="N3" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O3" s="6">
+        <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4">
-        <v>123</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10002</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="6">
+        <v>15000000730</v>
+      </c>
+      <c r="N4" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O4" s="6">
+        <v>9100000007</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10003</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="6">
+        <v>15000000722</v>
+      </c>
+      <c r="N5" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O5" s="6">
+        <v>9100000007</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10004</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="6">
+        <v>15000000018</v>
+      </c>
+      <c r="N6" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O6" s="6">
+        <v>9000000018</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10005</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="6">
+        <v>15000000846</v>
+      </c>
+      <c r="N7" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O7" s="6">
+        <v>9000000014</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10006</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6">
+        <v>15000001079</v>
+      </c>
+      <c r="N8" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O8" s="6">
+        <v>9000000019</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2">
+        <v>9000000004</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.006</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10007</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="6">
+        <v>15000001095</v>
+      </c>
+      <c r="N9" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O9" s="6">
+        <v>9000000020</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -151,7 +151,7 @@
     <t>Netting</t>
   </si>
   <si>
-    <t>28 SEP 2024</t>
+    <t>30 SEP 2024</t>
   </si>
   <si>
     <t>N</t>
@@ -1654,7 +1654,7 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1730,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="5">
-        <v>0.76</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="5">
         <v>10000</v>
@@ -1773,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="5">
-        <v>0.12</v>
+        <v>5.99</v>
       </c>
       <c r="E3" s="5">
         <v>10001</v>
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5">
-        <v>1.1</v>
+        <v>0.69</v>
       </c>
       <c r="E4" s="5">
         <v>10002</v>
@@ -1859,7 +1859,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="5">
-        <v>0.14</v>
+        <v>5.46</v>
       </c>
       <c r="E5" s="5">
         <v>10003</v>
@@ -1902,7 +1902,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="5">
-        <v>0.27</v>
+        <v>2.82</v>
       </c>
       <c r="E6" s="5">
         <v>10004</v>
@@ -1945,7 +1945,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="5">
-        <v>0.66</v>
+        <v>1.15</v>
       </c>
       <c r="E7" s="5">
         <v>10005</v>
@@ -1988,7 +1988,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="5">
-        <v>1.3</v>
+        <v>0.58</v>
       </c>
       <c r="E8" s="5">
         <v>10006</v>
@@ -2031,7 +2031,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="5">
-        <v>0.006</v>
+        <v>108</v>
       </c>
       <c r="E9" s="5">
         <v>10007</v>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -2149,16 +2149,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="5">
-        <v>0.76</v>
+        <v>0.768</v>
       </c>
       <c r="F2" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -2177,10 +2177,10 @@
         <v>13</v>
       </c>
       <c r="M2" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="N2" s="6">
         <v>15000000196</v>
-      </c>
-      <c r="N2" s="6">
-        <v>15000000463</v>
       </c>
       <c r="O2" s="6">
         <v>9100000007</v>
@@ -2197,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="5">
-        <v>0.12</v>
+        <v>5.99</v>
       </c>
       <c r="F3" s="6">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
@@ -2228,7 +2228,7 @@
         <v>15000000641</v>
       </c>
       <c r="N3" s="6">
-        <v>15000000463</v>
+        <v>15000000196</v>
       </c>
       <c r="O3" s="6">
         <v>9100000004</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5">
-        <v>1.1</v>
+        <v>0.69</v>
       </c>
       <c r="F4" s="6">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
@@ -2276,7 +2276,7 @@
         <v>15000000730</v>
       </c>
       <c r="N4" s="6">
-        <v>15000000463</v>
+        <v>15000000196</v>
       </c>
       <c r="O4" s="6">
         <v>9100000007</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="5">
-        <v>0.14</v>
+        <v>5.46</v>
       </c>
       <c r="F5" s="6">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
@@ -2324,7 +2324,7 @@
         <v>15000000722</v>
       </c>
       <c r="N5" s="6">
-        <v>15000000463</v>
+        <v>15000000196</v>
       </c>
       <c r="O5" s="6">
         <v>9100000007</v>
@@ -2341,16 +2341,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5">
-        <v>0.27</v>
+        <v>2.82</v>
       </c>
       <c r="F6" s="6">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
@@ -2369,10 +2369,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="6">
-        <v>15000000018</v>
+        <v>15000000994</v>
       </c>
       <c r="N6" s="6">
-        <v>15000000463</v>
+        <v>15000000196</v>
       </c>
       <c r="O6" s="6">
         <v>9000000018</v>
@@ -2389,16 +2389,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="5">
-        <v>0.66</v>
+        <v>1.15</v>
       </c>
       <c r="F7" s="6">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
@@ -2420,7 +2420,7 @@
         <v>15000000846</v>
       </c>
       <c r="N7" s="6">
-        <v>15000000463</v>
+        <v>15000000196</v>
       </c>
       <c r="O7" s="6">
         <v>9000000014</v>
@@ -2437,16 +2437,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="5">
-        <v>1.3</v>
+        <v>0.58</v>
       </c>
       <c r="F8" s="6">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
@@ -2468,7 +2468,7 @@
         <v>15000001079</v>
       </c>
       <c r="N8" s="6">
-        <v>15000000463</v>
+        <v>15000000196</v>
       </c>
       <c r="O8" s="6">
         <v>9000000019</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="5">
-        <v>0.006</v>
+        <v>108</v>
       </c>
       <c r="F9" s="6">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
@@ -2516,7 +2516,7 @@
         <v>15000001095</v>
       </c>
       <c r="N9" s="6">
-        <v>15000000463</v>
+        <v>15000000196</v>
       </c>
       <c r="O9" s="6">
         <v>9000000020</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -2074,8 +2074,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="43">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -133,7 +133,7 @@
     <t>Settlement A/c for Buy.2</t>
   </si>
   <si>
-    <t>11 SEP 2024</t>
+    <t>09 OCT 2024</t>
   </si>
   <si>
     <t>No</t>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>JPY</t>
+  </si>
+  <si>
+    <t>NOK</t>
   </si>
   <si>
     <t>Netting</t>
@@ -1652,10 +1655,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="2" s="10" customFormat="1" spans="1:15">
       <c r="A2" s="4">
-        <v>200331</v>
+        <v>202347</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1733,7 +1736,7 @@
         <v>0.768</v>
       </c>
       <c r="E2" s="5">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="11" t="s">
@@ -1749,22 +1752,22 @@
         <v>13</v>
       </c>
       <c r="K2" s="5">
-        <v>11020928166</v>
+        <v>11021162906</v>
       </c>
       <c r="L2" s="5">
-        <v>11010003909</v>
+        <v>11010005405</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="5">
-        <v>11020928131</v>
+        <v>11021162884</v>
       </c>
     </row>
     <row r="3" s="10" customFormat="1" spans="1:15">
       <c r="A3" s="4">
-        <v>200331</v>
+        <v>202347</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -1776,7 +1779,7 @@
         <v>5.99</v>
       </c>
       <c r="E3" s="5">
-        <v>10001</v>
+        <v>1000001</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="11" t="s">
@@ -1792,22 +1795,22 @@
         <v>13</v>
       </c>
       <c r="K3" s="5">
-        <v>11020948132</v>
+        <v>11021200646</v>
       </c>
       <c r="L3" s="5">
-        <v>11010003909</v>
+        <v>11010005405</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O3" s="5">
-        <v>11020928131</v>
+        <v>11021162884</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:15">
       <c r="A4" s="4">
-        <v>200331</v>
+        <v>202347</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -1819,7 +1822,7 @@
         <v>0.69</v>
       </c>
       <c r="E4" s="5">
-        <v>10002</v>
+        <v>1000002</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="11" t="s">
@@ -1835,22 +1838,22 @@
         <v>13</v>
       </c>
       <c r="K4" s="5">
-        <v>11020948140</v>
+        <v>11021200662</v>
       </c>
       <c r="L4" s="5">
-        <v>11010003909</v>
+        <v>11010005405</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O4" s="5">
-        <v>11020928131</v>
+        <v>11021162884</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:15">
       <c r="A5" s="4">
-        <v>200331</v>
+        <v>202347</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -1862,7 +1865,7 @@
         <v>5.46</v>
       </c>
       <c r="E5" s="5">
-        <v>10003</v>
+        <v>1000003</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="11" t="s">
@@ -1878,22 +1881,22 @@
         <v>13</v>
       </c>
       <c r="K5" s="5">
-        <v>11020948159</v>
+        <v>11021200638</v>
       </c>
       <c r="L5" s="5">
-        <v>11010003909</v>
+        <v>11010005405</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O5" s="5">
-        <v>11020928131</v>
+        <v>11021162884</v>
       </c>
     </row>
     <row r="6" s="10" customFormat="1" spans="1:15">
       <c r="A6" s="4">
-        <v>200331</v>
+        <v>202347</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -1905,7 +1908,7 @@
         <v>2.82</v>
       </c>
       <c r="E6" s="5">
-        <v>10004</v>
+        <v>1000004</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="11" t="s">
@@ -1921,22 +1924,22 @@
         <v>13</v>
       </c>
       <c r="K6" s="5">
-        <v>11020948183</v>
+        <v>11021210463</v>
       </c>
       <c r="L6" s="5">
-        <v>11010003909</v>
+        <v>11010005405</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O6" s="5">
-        <v>11020928131</v>
+        <v>11021162884</v>
       </c>
     </row>
     <row r="7" s="10" customFormat="1" spans="1:15">
       <c r="A7" s="4">
-        <v>200331</v>
+        <v>202347</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1948,7 +1951,7 @@
         <v>1.15</v>
       </c>
       <c r="E7" s="5">
-        <v>10005</v>
+        <v>1000005</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="11" t="s">
@@ -1964,22 +1967,22 @@
         <v>13</v>
       </c>
       <c r="K7" s="5">
-        <v>11020948191</v>
+        <v>11021209775</v>
       </c>
       <c r="L7" s="5">
-        <v>11010003909</v>
+        <v>11010005405</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O7" s="5">
-        <v>11020928131</v>
+        <v>11021162884</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:15">
       <c r="A8" s="4">
-        <v>200331</v>
+        <v>202347</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1991,7 +1994,7 @@
         <v>0.58</v>
       </c>
       <c r="E8" s="5">
-        <v>10006</v>
+        <v>1000006</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="11" t="s">
@@ -2007,22 +2010,22 @@
         <v>13</v>
       </c>
       <c r="K8" s="5">
-        <v>11020948175</v>
+        <v>11021212547</v>
       </c>
       <c r="L8" s="5">
-        <v>11010003909</v>
+        <v>11010005405</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O8" s="5">
-        <v>11020928131</v>
+        <v>11021162884</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:15">
       <c r="A9" s="4">
-        <v>200331</v>
+        <v>202347</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2034,7 +2037,7 @@
         <v>108</v>
       </c>
       <c r="E9" s="5">
-        <v>10007</v>
+        <v>1000007</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="11" t="s">
@@ -2050,17 +2053,60 @@
         <v>13</v>
       </c>
       <c r="K9" s="5">
-        <v>11020948167</v>
+        <v>11021214167</v>
       </c>
       <c r="L9" s="5">
-        <v>11010003909</v>
+        <v>11010005405</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O9" s="5">
-        <v>11020928131</v>
+        <v>11021162884</v>
+      </c>
+    </row>
+    <row r="10" s="10" customFormat="1" spans="1:15">
+      <c r="A10" s="4">
+        <v>202347</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1000008</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="5">
+        <v>11021223115</v>
+      </c>
+      <c r="L10" s="5">
+        <v>11010005405</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="5">
+        <v>11021162884</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2120,7 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2123,7 +2169,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>28</v>
@@ -2162,16 +2208,16 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>13</v>
@@ -2210,16 +2256,16 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>13</v>
@@ -2258,16 +2304,16 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>13</v>
@@ -2306,16 +2352,16 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>13</v>
@@ -2354,16 +2400,16 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>13</v>
@@ -2402,16 +2448,16 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>13</v>
@@ -2450,16 +2496,16 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>13</v>
@@ -2498,16 +2544,16 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>13</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1657,8 +1657,8 @@
   <sheetPr/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1727,16 +1727,16 @@
         <v>202347</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="5">
-        <v>0.768</v>
+        <v>0.76</v>
       </c>
       <c r="E2" s="5">
-        <v>1000000</v>
+        <v>20000</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="11" t="s">
@@ -1752,10 +1752,10 @@
         <v>13</v>
       </c>
       <c r="K2" s="5">
+        <v>11021162892</v>
+      </c>
+      <c r="L2" s="5">
         <v>11021162906</v>
-      </c>
-      <c r="L2" s="5">
-        <v>11010005405</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
@@ -1770,16 +1770,16 @@
         <v>202347</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="5">
-        <v>5.99</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="5">
-        <v>1000001</v>
+        <v>20001</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="11" t="s">
@@ -1798,7 +1798,7 @@
         <v>11021200646</v>
       </c>
       <c r="L3" s="5">
-        <v>11010005405</v>
+        <v>11021162906</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="4" t="s">
@@ -1813,16 +1813,16 @@
         <v>202347</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5">
-        <v>0.69</v>
+        <v>1.1</v>
       </c>
       <c r="E4" s="5">
-        <v>1000002</v>
+        <v>20002</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="11" t="s">
@@ -1841,7 +1841,7 @@
         <v>11021200662</v>
       </c>
       <c r="L4" s="5">
-        <v>11010005405</v>
+        <v>11021162906</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="4" t="s">
@@ -1856,16 +1856,16 @@
         <v>202347</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="5">
-        <v>5.46</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="5">
-        <v>1000003</v>
+        <v>20003</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="11" t="s">
@@ -1884,7 +1884,7 @@
         <v>11021200638</v>
       </c>
       <c r="L5" s="5">
-        <v>11010005405</v>
+        <v>11021162906</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="4" t="s">
@@ -1899,16 +1899,16 @@
         <v>202347</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5">
-        <v>2.82</v>
+        <v>0.27</v>
       </c>
       <c r="E6" s="5">
-        <v>1000004</v>
+        <v>20004</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="11" t="s">
@@ -1927,7 +1927,7 @@
         <v>11021210463</v>
       </c>
       <c r="L6" s="5">
-        <v>11010005405</v>
+        <v>11021162906</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="4" t="s">
@@ -1942,16 +1942,16 @@
         <v>202347</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5">
-        <v>1.15</v>
+        <v>0.66</v>
       </c>
       <c r="E7" s="5">
-        <v>1000005</v>
+        <v>20005</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="11" t="s">
@@ -1970,7 +1970,7 @@
         <v>11021209775</v>
       </c>
       <c r="L7" s="5">
-        <v>11010005405</v>
+        <v>11021162906</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="4" t="s">
@@ -1985,16 +1985,16 @@
         <v>202347</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="5">
-        <v>0.58</v>
+        <v>1.3</v>
       </c>
       <c r="E8" s="5">
-        <v>1000006</v>
+        <v>20006</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="11" t="s">
@@ -2013,7 +2013,7 @@
         <v>11021212547</v>
       </c>
       <c r="L8" s="5">
-        <v>11010005405</v>
+        <v>11021162906</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="4" t="s">
@@ -2028,16 +2028,16 @@
         <v>202347</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="5">
-        <v>108</v>
+        <v>0.006</v>
       </c>
       <c r="E9" s="5">
-        <v>1000007</v>
+        <v>20007</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="11" t="s">
@@ -2056,7 +2056,7 @@
         <v>11021214167</v>
       </c>
       <c r="L9" s="5">
-        <v>11010005405</v>
+        <v>11021162906</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="4" t="s">
@@ -2071,16 +2071,16 @@
         <v>202347</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="5">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="E10" s="5">
-        <v>1000008</v>
+        <v>20008</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="11" t="s">
@@ -2099,7 +2099,7 @@
         <v>11021223115</v>
       </c>
       <c r="L10" s="5">
-        <v>11010005405</v>
+        <v>11021162906</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="4" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -133,7 +133,7 @@
     <t>Settlement A/c for Buy.2</t>
   </si>
   <si>
-    <t>09 OCT 2024</t>
+    <t>02 DEC 2024</t>
   </si>
   <si>
     <t>No</t>
@@ -1655,13 +1655,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="3" width="22.5462962962963" customWidth="1"/>
@@ -1724,19 +1724,19 @@
     </row>
     <row r="2" s="10" customFormat="1" spans="1:15">
       <c r="A2" s="4">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5">
-        <v>0.76</v>
+        <v>1.15</v>
       </c>
       <c r="E2" s="5">
-        <v>20000</v>
+        <v>10005</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="11" t="s">
@@ -1752,34 +1752,34 @@
         <v>13</v>
       </c>
       <c r="K2" s="5">
-        <v>11021162892</v>
+        <v>11020948191</v>
       </c>
       <c r="L2" s="5">
-        <v>11021162906</v>
+        <v>11010003909</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="5">
-        <v>11021162884</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="3" s="10" customFormat="1" spans="1:15">
       <c r="A3" s="4">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5">
-        <v>0.12</v>
+        <v>0.58</v>
       </c>
       <c r="E3" s="5">
-        <v>20001</v>
+        <v>10006</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="11" t="s">
@@ -1795,34 +1795,34 @@
         <v>13</v>
       </c>
       <c r="K3" s="5">
-        <v>11021200646</v>
+        <v>11020948175</v>
       </c>
       <c r="L3" s="5">
-        <v>11021162906</v>
+        <v>11010003909</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O3" s="5">
-        <v>11021162884</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:15">
       <c r="A4" s="4">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5">
-        <v>1.1</v>
+        <v>5.99</v>
       </c>
       <c r="E4" s="5">
-        <v>20002</v>
+        <v>10001</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="11" t="s">
@@ -1838,34 +1838,34 @@
         <v>13</v>
       </c>
       <c r="K4" s="5">
-        <v>11021200662</v>
+        <v>11020948132</v>
       </c>
       <c r="L4" s="5">
-        <v>11021162906</v>
+        <v>11010003909</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O4" s="5">
-        <v>11021162884</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:15">
       <c r="A5" s="4">
-        <v>202347</v>
+        <v>200331</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5">
-        <v>0.14</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5">
-        <v>20003</v>
+        <v>10007</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="11" t="s">
@@ -1881,17 +1881,17 @@
         <v>13</v>
       </c>
       <c r="K5" s="5">
-        <v>11021200638</v>
+        <v>11020948167</v>
       </c>
       <c r="L5" s="5">
-        <v>11021162906</v>
+        <v>11010003909</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O5" s="5">
-        <v>11021162884</v>
+        <v>11020928131</v>
       </c>
     </row>
     <row r="6" s="10" customFormat="1" spans="1:15">
@@ -1899,16 +1899,16 @@
         <v>202347</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5">
-        <v>0.27</v>
+        <v>1.25</v>
       </c>
       <c r="E6" s="5">
-        <v>20004</v>
+        <v>20008</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="11" t="s">
@@ -1924,189 +1924,17 @@
         <v>13</v>
       </c>
       <c r="K6" s="5">
-        <v>11021210463</v>
+        <v>11020950285</v>
       </c>
       <c r="L6" s="5">
-        <v>11021162906</v>
+        <v>11010004255</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="O6" s="5">
-        <v>11021162884</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:15">
-      <c r="A7" s="4">
-        <v>202347</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="E7" s="5">
-        <v>20005</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="5">
-        <v>11021209775</v>
-      </c>
-      <c r="L7" s="5">
-        <v>11021162906</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="5">
-        <v>11021162884</v>
-      </c>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:15">
-      <c r="A8" s="4">
-        <v>202347</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>20006</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="5">
-        <v>11021212547</v>
-      </c>
-      <c r="L8" s="5">
-        <v>11021162906</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="5">
-        <v>11021162884</v>
-      </c>
-    </row>
-    <row r="9" s="10" customFormat="1" spans="1:15">
-      <c r="A9" s="4">
-        <v>202347</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.006</v>
-      </c>
-      <c r="E9" s="5">
-        <v>20007</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="5">
-        <v>11021214167</v>
-      </c>
-      <c r="L9" s="5">
-        <v>11021162906</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="5">
-        <v>11021162884</v>
-      </c>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:15">
-      <c r="A10" s="4">
-        <v>202347</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="E10" s="5">
-        <v>20008</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="5">
-        <v>11021223115</v>
-      </c>
-      <c r="L10" s="5">
-        <v>11021162906</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="5">
-        <v>11021162884</v>
+        <v>11020880570</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1658,7 +1658,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1736,7 +1736,7 @@
         <v>1.15</v>
       </c>
       <c r="E2" s="5">
-        <v>10005</v>
+        <v>910005</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="11" t="s">
@@ -1779,7 +1779,7 @@
         <v>0.58</v>
       </c>
       <c r="E3" s="5">
-        <v>10006</v>
+        <v>910006</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="11" t="s">
@@ -1822,7 +1822,7 @@
         <v>5.99</v>
       </c>
       <c r="E4" s="5">
-        <v>10001</v>
+        <v>910007</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="11" t="s">
@@ -1865,7 +1865,7 @@
         <v>108</v>
       </c>
       <c r="E5" s="5">
-        <v>10007</v>
+        <v>910008</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="11" t="s">
@@ -1908,7 +1908,7 @@
         <v>1.25</v>
       </c>
       <c r="E6" s="5">
-        <v>20008</v>
+        <v>910009</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="11" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -142,22 +142,22 @@
     <t>FOREX</t>
   </si>
   <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
+    <t>30 SEP 2024</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>GBP</t>
   </si>
   <si>
     <t>JPY</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>Netting</t>
-  </si>
-  <si>
-    <t>30 SEP 2024</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1657,8 +1657,8 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1722,21 +1722,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:15">
+    <row r="2" s="10" customFormat="1" ht="18" customHeight="1" spans="1:15">
       <c r="A2" s="4">
         <v>200331</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="E2" s="5">
-        <v>910005</v>
+        <v>20002</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="11" t="s">
@@ -1752,10 +1752,10 @@
         <v>13</v>
       </c>
       <c r="K2" s="5">
-        <v>11020948191</v>
+        <v>11020948140</v>
       </c>
       <c r="L2" s="5">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
@@ -1770,16 +1770,16 @@
         <v>200331</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5">
-        <v>0.58</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="5">
-        <v>910006</v>
+        <v>20003</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="11" t="s">
@@ -1795,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="5">
-        <v>11020948175</v>
+        <v>11020948159</v>
       </c>
       <c r="L3" s="5">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="4" t="s">
@@ -1813,16 +1813,16 @@
         <v>200331</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="5">
-        <v>5.99</v>
+        <v>0.76</v>
       </c>
       <c r="E4" s="5">
-        <v>910007</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="11" t="s">
@@ -1838,10 +1838,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="5">
-        <v>11020948132</v>
+        <v>11020928158</v>
       </c>
       <c r="L4" s="5">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="4" t="s">
@@ -1856,16 +1856,16 @@
         <v>200331</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
-        <v>108</v>
+        <v>0.27</v>
       </c>
       <c r="E5" s="5">
-        <v>910008</v>
+        <v>20004</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="11" t="s">
@@ -1881,10 +1881,10 @@
         <v>13</v>
       </c>
       <c r="K5" s="5">
-        <v>11020948167</v>
+        <v>11020948183</v>
       </c>
       <c r="L5" s="5">
-        <v>11010003909</v>
+        <v>11010003151</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="4" t="s">
@@ -1899,16 +1899,16 @@
         <v>202347</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5">
         <v>1.25</v>
       </c>
       <c r="E6" s="5">
-        <v>910009</v>
+        <v>10009</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="11" t="s">
@@ -1927,7 +1927,7 @@
         <v>11020950285</v>
       </c>
       <c r="L6" s="5">
-        <v>11010004255</v>
+        <v>11010004530</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="4" t="s">
@@ -1997,7 +1997,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>28</v>
@@ -2036,16 +2036,16 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>13</v>
@@ -2084,16 +2084,16 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>13</v>
@@ -2132,16 +2132,16 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>13</v>
@@ -2180,16 +2180,16 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>13</v>
@@ -2228,16 +2228,16 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>13</v>
@@ -2276,16 +2276,16 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>13</v>
@@ -2314,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E8" s="5">
         <v>0.58</v>
@@ -2324,16 +2324,16 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>13</v>
@@ -2362,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E9" s="5">
         <v>108</v>
@@ -2372,16 +2372,16 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>13</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="41">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -133,7 +133,7 @@
     <t>Settlement A/c for Buy.2</t>
   </si>
   <si>
-    <t>02 DEC 2024</t>
+    <t>09 DEC 2024</t>
   </si>
   <si>
     <t>No</t>
@@ -142,13 +142,7 @@
     <t>FOREX</t>
   </si>
   <si>
-    <t>NOK</t>
-  </si>
-  <si>
     <t>Netting</t>
-  </si>
-  <si>
-    <t>30 SEP 2024</t>
   </si>
   <si>
     <t>N</t>
@@ -814,26 +808,26 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1374,7 +1368,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1412,7 +1406,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1432,25 +1426,25 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>700000</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>1.1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>15000000196</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>9100000007</v>
       </c>
     </row>
@@ -1464,25 +1458,25 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>800000</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>1.375</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>15000000242</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>9100000007</v>
       </c>
     </row>
@@ -1496,25 +1490,25 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>3900000</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>5.59</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>15000000641</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>9100000004</v>
       </c>
     </row>
@@ -1528,25 +1522,25 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>3900000</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>1.46</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>15000000730</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>9100000007</v>
       </c>
     </row>
@@ -1560,25 +1554,25 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>3910000</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>4.91</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>15000000722</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>9100000007</v>
       </c>
     </row>
@@ -1592,25 +1586,25 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>3920000</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>3.67</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>15000000994</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>9000000008</v>
       </c>
     </row>
@@ -1624,25 +1618,25 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>5430000</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>1.09</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>15000001591</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>9000000002</v>
       </c>
     </row>
@@ -1657,8 +1651,8 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1703,7 +1697,7 @@
       <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1718,27 +1712,27 @@
       <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="18" customHeight="1" spans="1:15">
-      <c r="A2" s="4">
+    <row r="2" s="8" customFormat="1" spans="1:15">
+      <c r="A2" s="9">
         <v>200331</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>20002</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="E2" s="10">
+        <v>670000</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1748,40 +1742,40 @@
       <c r="I2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5">
-        <v>11020948140</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="K2" s="10">
+        <v>11020928158</v>
+      </c>
+      <c r="L2" s="10">
         <v>11010003151</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="10">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:15">
-      <c r="A3" s="4">
+    <row r="3" s="8" customFormat="1" spans="1:15">
+      <c r="A3" s="9">
         <v>200331</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.14</v>
-      </c>
-      <c r="E3" s="5">
-        <v>20003</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="10">
+        <v>660001</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
@@ -1791,40 +1785,40 @@
       <c r="I3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="5">
-        <v>11020948159</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="K3" s="10">
+        <v>11020948132</v>
+      </c>
+      <c r="L3" s="10">
         <v>11010003151</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="10">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:15">
-      <c r="A4" s="4">
+    <row r="4" s="8" customFormat="1" ht="18" customHeight="1" spans="1:15">
+      <c r="A4" s="9">
         <v>200331</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="E4" s="5">
-        <v>20000</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2660002</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
@@ -1834,40 +1828,40 @@
       <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="5">
-        <v>11020928158</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="K4" s="10">
+        <v>11020948140</v>
+      </c>
+      <c r="L4" s="10">
         <v>11010003151</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="10"/>
+      <c r="N4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="10">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:15">
-      <c r="A5" s="4">
+    <row r="5" s="8" customFormat="1" spans="1:15">
+      <c r="A5" s="9">
         <v>200331</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="E5" s="5">
-        <v>20004</v>
-      </c>
-      <c r="F5" s="5"/>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.14</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2660003</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
         <v>34</v>
       </c>
@@ -1877,40 +1871,40 @@
       <c r="I5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="5">
-        <v>11020948183</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="K5" s="10">
+        <v>11020948159</v>
+      </c>
+      <c r="L5" s="10">
         <v>11010003151</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="10">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:15">
-      <c r="A6" s="4">
-        <v>202347</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" s="8" customFormat="1" spans="1:15">
+      <c r="A6" s="9">
+        <v>200331</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10009</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2660004</v>
+      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
         <v>34</v>
       </c>
@@ -1920,21 +1914,21 @@
       <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="5">
-        <v>11020950285</v>
-      </c>
-      <c r="L6" s="5">
-        <v>11010004530</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4" t="s">
+      <c r="K6" s="10">
+        <v>11020948183</v>
+      </c>
+      <c r="L6" s="10">
+        <v>11010003151</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="5">
-        <v>11020880570</v>
+      <c r="O6" s="10">
+        <v>11020928131</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1942,7 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1997,9 +1991,9 @@
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2011,244 +2005,244 @@
       <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" customFormat="1" spans="1:16">
       <c r="A2" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5">
-        <v>0.768</v>
-      </c>
-      <c r="F2" s="6">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="E2" s="2">
+        <v>0.7654</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6">
-        <v>15000000463</v>
-      </c>
-      <c r="N2" s="6">
-        <v>15000000196</v>
-      </c>
-      <c r="O2" s="6">
+      <c r="M2" s="4">
+        <v>15000000242</v>
+      </c>
+      <c r="N2" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="O2" s="4">
         <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" customFormat="1" spans="1:16">
       <c r="A3" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5">
-        <v>5.99</v>
-      </c>
-      <c r="F3" s="6">
-        <v>20001</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="E3" s="2">
+        <v>5.9662</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>15000000641</v>
       </c>
-      <c r="N3" s="6">
-        <v>15000000196</v>
-      </c>
-      <c r="O3" s="6">
+      <c r="N3" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="O3" s="4">
         <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" customFormat="1" spans="1:16">
       <c r="A4" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="F4" s="6">
-        <v>20002</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="E4" s="2">
+        <v>0.6922</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>15000000730</v>
       </c>
-      <c r="N4" s="6">
-        <v>15000000196</v>
-      </c>
-      <c r="O4" s="6">
+      <c r="N4" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="O4" s="4">
         <v>9100000007</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" customFormat="1" spans="1:16">
       <c r="A5" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5">
-        <v>5.46</v>
-      </c>
-      <c r="F5" s="6">
-        <v>20003</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="E5" s="2">
+        <v>5.4431</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>15000000722</v>
       </c>
-      <c r="N5" s="6">
-        <v>15000000196</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="N5" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="O5" s="4">
         <v>9100000007</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" customFormat="1" spans="1:16">
       <c r="A6" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5">
-        <v>2.82</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20004</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="E6" s="2">
+        <v>2.8105</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>15000000994</v>
       </c>
-      <c r="N6" s="6">
-        <v>15000000196</v>
-      </c>
-      <c r="O6" s="6">
+      <c r="N6" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="O6" s="4">
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
@@ -2257,46 +2251,46 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5">
-        <v>1.15</v>
-      </c>
-      <c r="F7" s="6">
-        <v>20005</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="E7" s="2">
+        <v>2.8105</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>15000000846</v>
       </c>
-      <c r="N7" s="6">
-        <v>15000000196</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="N7" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="O7" s="4">
         <v>9000000014</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -2305,46 +2299,46 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.58</v>
-      </c>
-      <c r="F8" s="6">
-        <v>20006</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="E8" s="2">
+        <v>2.8105</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>15000001079</v>
       </c>
-      <c r="N8" s="6">
-        <v>15000000196</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="N8" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="O8" s="4">
         <v>9000000019</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -2353,46 +2347,46 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5">
-        <v>108</v>
-      </c>
-      <c r="F9" s="6">
-        <v>20007</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.8105</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <v>15000001095</v>
       </c>
-      <c r="N9" s="6">
-        <v>15000000196</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="N9" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="O9" s="4">
         <v>9000000020</v>
       </c>
       <c r="P9" s="2" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -64,82 +64,76 @@
     <t>SGD</t>
   </si>
   <si>
-    <t>09 SEP 2024</t>
-  </si>
-  <si>
-    <t>10 SEP 2024</t>
+    <t>09 DEC 2024</t>
   </si>
   <si>
     <t>后面是不同页面的数据</t>
   </si>
   <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Currency Bought</t>
+  </si>
+  <si>
+    <t>Currency Sold</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Buy Amount</t>
+  </si>
+  <si>
+    <t>Sell Amount</t>
+  </si>
+  <si>
+    <t>Value Date Buy</t>
+  </si>
+  <si>
+    <t>Value Date Sell</t>
+  </si>
+  <si>
+    <t>Mature at Start of Day?</t>
+  </si>
+  <si>
+    <t>inputSettlementInstructionsPage</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Sell.1</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.1</t>
+  </si>
+  <si>
+    <t>Counterparty's SSI.1</t>
+  </si>
+  <si>
+    <t>Search Content</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.2</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>HKD</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FOREX</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>CNY</t>
-  </si>
-  <si>
     <t>AED</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>Currency Bought</t>
-  </si>
-  <si>
-    <t>Currency Sold</t>
-  </si>
-  <si>
-    <t>Spot Rate</t>
-  </si>
-  <si>
-    <t>Buy Amount</t>
-  </si>
-  <si>
-    <t>Sell Amount</t>
-  </si>
-  <si>
-    <t>Value Date Buy</t>
-  </si>
-  <si>
-    <t>Value Date Sell</t>
-  </si>
-  <si>
-    <t>Mature at Start of Day?</t>
-  </si>
-  <si>
-    <t>inputSettlementInstructionsPage</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Sell.1</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.1</t>
-  </si>
-  <si>
-    <t>Counterparty's SSI.1</t>
-  </si>
-  <si>
-    <t>Search Content</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.2</t>
-  </si>
-  <si>
-    <t>09 DEC 2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>FOREX</t>
   </si>
   <si>
     <t>Netting</t>
@@ -1365,13 +1359,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
     <col min="2" max="2" width="22.5462962962963" customWidth="1"/>
@@ -1433,13 +1427,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4">
         <v>1.1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4">
         <v>15000000196</v>
@@ -1456,28 +1450,28 @@
         <v>9000000004</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4">
-        <v>800000</v>
+        <v>3900000</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.59</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
-        <v>1.375</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="4">
-        <v>15000000242</v>
+        <v>15000000641</v>
       </c>
       <c r="J3" s="4">
-        <v>9100000007</v>
+        <v>9100000004</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1488,28 +1482,28 @@
         <v>9000000004</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4">
-        <v>3900000</v>
+        <v>3910000</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4.91</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4">
-        <v>5.59</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" s="4">
-        <v>15000000641</v>
+        <v>15000000722</v>
       </c>
       <c r="J4" s="4">
-        <v>9100000004</v>
+        <v>9100000007</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1517,126 +1511,30 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>9000000004</v>
+        <v>9100000005</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
-        <v>3900000</v>
+        <v>5430000</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="4">
-        <v>15000000730</v>
+        <v>15000001591</v>
       </c>
       <c r="J5" s="4">
-        <v>9100000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9000000004</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3910000</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4">
-        <v>4.91</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4">
-        <v>15000000722</v>
-      </c>
-      <c r="J6" s="4">
-        <v>9100000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9000000004</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3920000</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3.67</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4">
-        <v>15000000994</v>
-      </c>
-      <c r="J7" s="4">
-        <v>9000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>9100000005</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5430000</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1.09</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4">
-        <v>15000001591</v>
-      </c>
-      <c r="J8" s="4">
         <v>9000000002</v>
       </c>
     </row>
@@ -1651,7 +1549,7 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1674,46 +1572,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
@@ -1721,7 +1619,7 @@
         <v>200331</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>10</v>
@@ -1734,16 +1632,16 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="10">
         <v>11020928158</v>
@@ -1753,7 +1651,7 @@
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O2" s="10">
         <v>11020928131</v>
@@ -1764,10 +1662,10 @@
         <v>200331</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10">
         <v>0.12</v>
@@ -1777,16 +1675,16 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="10">
         <v>11020948132</v>
@@ -1796,7 +1694,7 @@
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O3" s="10">
         <v>11020928131</v>
@@ -1807,10 +1705,10 @@
         <v>200331</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D4" s="10">
         <v>1.1</v>
@@ -1820,16 +1718,16 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="10">
         <v>11020948140</v>
@@ -1839,7 +1737,7 @@
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O4" s="10">
         <v>11020928131</v>
@@ -1850,10 +1748,10 @@
         <v>200331</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="10">
         <v>0.14</v>
@@ -1863,16 +1761,16 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="10">
         <v>11020948159</v>
@@ -1882,7 +1780,7 @@
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O5" s="10">
         <v>11020928131</v>
@@ -1893,10 +1791,10 @@
         <v>200331</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D6" s="10">
         <v>0.27</v>
@@ -1906,16 +1804,16 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="10">
         <v>11020948183</v>
@@ -1925,7 +1823,7 @@
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O6" s="10">
         <v>11020928131</v>
@@ -1967,46 +1865,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:16">
@@ -2020,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
@@ -2030,19 +1928,19 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="4">
         <v>15000000242</v>
@@ -2054,7 +1952,7 @@
         <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:16">
@@ -2068,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>5.9662</v>
@@ -2078,19 +1976,19 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="4">
         <v>15000000641</v>
@@ -2102,7 +2000,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:16">
@@ -2116,7 +2014,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2">
         <v>0.6922</v>
@@ -2126,19 +2024,19 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="4">
         <v>15000000730</v>
@@ -2150,7 +2048,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:16">
@@ -2164,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>5.4431</v>
@@ -2174,19 +2072,19 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="4">
         <v>15000000722</v>
@@ -2198,7 +2096,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:16">
@@ -2212,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>2.8105</v>
@@ -2222,19 +2120,19 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="4">
         <v>15000000994</v>
@@ -2246,7 +2144,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2260,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>2.8105</v>
@@ -2270,19 +2168,19 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="4">
         <v>15000000846</v>
@@ -2294,7 +2192,7 @@
         <v>9000000014</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2308,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2">
         <v>2.8105</v>
@@ -2318,19 +2216,19 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="4">
         <v>15000001079</v>
@@ -2342,7 +2240,7 @@
         <v>9000000019</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2356,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2">
         <v>2.8105</v>
@@ -2366,19 +2264,19 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="4">
         <v>15000001095</v>
@@ -2390,7 +2288,7 @@
         <v>9000000020</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="39">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -312,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +328,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +677,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,16 +701,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -707,89 +719,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,6 +829,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -824,6 +842,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,7 +1397,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1547,13 +1583,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="3" width="22.5462962962963" customWidth="1"/>
@@ -1615,217 +1651,303 @@
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
-      <c r="A2" s="9">
+      <c r="A2" s="11">
         <v>200331</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>0.76</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>670000</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="12">
         <v>11020928158</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="12">
         <v>11010003151</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="12">
         <v>11020928131</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:15">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>200331</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <v>0.12</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="12">
         <v>660001</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="12">
         <v>11020948132</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="12">
         <v>11010003151</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="12">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="18" customHeight="1" spans="1:15">
-      <c r="A4" s="9">
+    <row r="4" s="9" customFormat="1" spans="1:15">
+      <c r="A4" s="14">
         <v>200331</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="15">
+        <v>0.768</v>
+      </c>
+      <c r="E4" s="15">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="15">
+        <v>11020928166</v>
+      </c>
+      <c r="L4" s="15">
+        <v>11010003909</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="15">
+        <v>11020928131</v>
+      </c>
+    </row>
+    <row r="5" s="10" customFormat="1" spans="1:15">
+      <c r="A5" s="17">
+        <v>200331</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="18">
+        <v>5.99</v>
+      </c>
+      <c r="E5" s="18">
+        <v>10001</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="18">
+        <v>11020948132</v>
+      </c>
+      <c r="L5" s="18">
+        <v>11010003909</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="18">
+        <v>11020928131</v>
+      </c>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="1:15">
+      <c r="A6" s="17">
+        <v>200331</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10">
-        <v>1.1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2660002</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="D6" s="18">
+        <v>0.69</v>
+      </c>
+      <c r="E6" s="18">
+        <v>10002</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K6" s="18">
         <v>11020948140</v>
       </c>
-      <c r="L4" s="10">
-        <v>11010003151</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9" t="s">
+      <c r="L6" s="18">
+        <v>11010003909</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O6" s="18">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:15">
-      <c r="A5" s="9">
+    <row r="7" s="10" customFormat="1" spans="1:15">
+      <c r="A7" s="17">
         <v>200331</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10">
-        <v>0.14</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2660003</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="D7" s="18">
+        <v>5.46</v>
+      </c>
+      <c r="E7" s="18">
+        <v>10003</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K7" s="18">
         <v>11020948159</v>
       </c>
-      <c r="L5" s="10">
-        <v>11010003151</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="9" t="s">
+      <c r="L7" s="18">
+        <v>11010003909</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O7" s="18">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:15">
-      <c r="A6" s="9">
+    <row r="8" s="10" customFormat="1" spans="1:15">
+      <c r="A8" s="17">
         <v>200331</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2660004</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="D8" s="18">
+        <v>2.82</v>
+      </c>
+      <c r="E8" s="18">
+        <v>10004</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K8" s="18">
         <v>11020948183</v>
       </c>
-      <c r="L6" s="10">
-        <v>11010003151</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="9" t="s">
+      <c r="L8" s="18">
+        <v>11010003909</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O8" s="18">
         <v>11020928131</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -130,16 +130,22 @@
     <t>FOREX</t>
   </si>
   <si>
+    <t>10 DEC 2024</t>
+  </si>
+  <si>
     <t>EUR</t>
   </si>
   <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>AED</t>
-  </si>
-  <si>
-    <t>Netting</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>GBP</t>
@@ -312,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +334,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +677,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,16 +701,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -719,89 +719,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -851,15 +848,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,7 +1574,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1651,304 +1639,304 @@
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>200331</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>0.76</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>670000</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>11020928158</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <v>11010003151</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="11">
         <v>11020928131</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:15">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>200331</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>0.12</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>660001</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>11020948132</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>11010003151</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="11">
         <v>11020928131</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:15">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>200331</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0.768</v>
       </c>
-      <c r="E4" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="16" t="s">
+      <c r="E4" s="14">
+        <v>3210000</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>11020928166</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>11010003909</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="14">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:15">
-      <c r="A5" s="17">
+    <row r="5" s="8" customFormat="1" spans="1:15">
+      <c r="A5" s="10">
         <v>200331</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18">
-        <v>5.99</v>
-      </c>
-      <c r="E5" s="18">
-        <v>10001</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11">
+        <v>7.79</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2330001</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="18">
-        <v>11020948132</v>
-      </c>
-      <c r="L5" s="18">
-        <v>11010003909</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="11">
+        <v>11020928166</v>
+      </c>
+      <c r="L5" s="11">
+        <v>11020938803</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:15">
-      <c r="A6" s="17">
+    <row r="6" s="8" customFormat="1" spans="1:15">
+      <c r="A6" s="10">
         <v>200331</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2340001</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="18">
-        <v>0.69</v>
-      </c>
-      <c r="E6" s="18">
-        <v>10002</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="18">
-        <v>11020948140</v>
-      </c>
-      <c r="L6" s="18">
-        <v>11010003909</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="11">
+        <v>11020928166</v>
+      </c>
+      <c r="L6" s="11">
+        <v>11020938781</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:15">
-      <c r="A7" s="17">
+    <row r="7" s="8" customFormat="1" spans="1:15">
+      <c r="A7" s="10">
         <v>200331</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18">
-        <v>5.46</v>
-      </c>
-      <c r="E7" s="18">
-        <v>10003</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2350001</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="18">
-        <v>11020948159</v>
-      </c>
-      <c r="L7" s="18">
-        <v>11010003909</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="s">
+      <c r="K7" s="11">
+        <v>11020928166</v>
+      </c>
+      <c r="L7" s="11">
+        <v>11020938811</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" spans="1:15">
-      <c r="A8" s="17">
-        <v>200331</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="18">
+    <row r="8" s="9" customFormat="1" spans="1:15">
+      <c r="A8" s="13">
+        <v>203686</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14">
         <v>2.82</v>
       </c>
-      <c r="E8" s="18">
-        <v>10004</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="E8" s="14">
+        <v>2310004</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="18">
-        <v>11020948183</v>
-      </c>
-      <c r="L8" s="18">
-        <v>11010003909</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="17" t="s">
+      <c r="K8" s="11">
+        <v>11020928166</v>
+      </c>
+      <c r="L8" s="14">
+        <v>11020952105</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="18">
-        <v>11020928131</v>
+      <c r="O8" s="14">
+        <v>11020944242</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1999,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>24</v>
@@ -2059,7 +2047,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
@@ -2107,7 +2095,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>12</v>
@@ -2136,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2">
         <v>0.6922</v>
@@ -2155,7 +2143,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>12</v>
@@ -2203,7 +2191,7 @@
         <v>31</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>12</v>
@@ -2232,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
         <v>2.8105</v>
@@ -2251,7 +2239,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
@@ -2299,7 +2287,7 @@
         <v>31</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>12</v>
@@ -2328,7 +2316,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2">
         <v>2.8105</v>
@@ -2347,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>12</v>
@@ -2376,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>2.8105</v>
@@ -2395,7 +2383,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>12</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="41">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -124,34 +124,34 @@
     <t>USD</t>
   </si>
   <si>
+    <t>10 DEC 2024</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>FOREX</t>
   </si>
   <si>
-    <t>10 DEC 2024</t>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>Netting</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>AED</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>JPY</t>
   </si>
 </sst>
 </file>
@@ -1571,13 +1571,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="3" width="22.5462962962963" customWidth="1"/>
@@ -1656,13 +1656,13 @@
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="11">
         <v>11020928131</v>
@@ -1699,13 +1699,13 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>12</v>
@@ -1718,80 +1718,80 @@
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="11">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:15">
-      <c r="A4" s="13">
-        <v>200331</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="13" t="s">
+    <row r="4" s="8" customFormat="1" spans="1:15">
+      <c r="A4" s="10">
+        <v>204301</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="14">
-        <v>0.768</v>
-      </c>
-      <c r="E4" s="14">
-        <v>3210000</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>70001</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="11">
+        <v>11020928166</v>
+      </c>
+      <c r="L4" s="11">
+        <v>11020948922</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="14">
-        <v>11020928166</v>
-      </c>
-      <c r="L4" s="14">
-        <v>11010003909</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="O4" s="11">
         <v>11020928131</v>
       </c>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:15">
       <c r="A5" s="10">
-        <v>200331</v>
+        <v>200510</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="11">
-        <v>7.79</v>
+        <v>0.76</v>
       </c>
       <c r="E5" s="11">
-        <v>2330001</v>
+        <v>80001</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>12</v>
@@ -1800,11 +1800,11 @@
         <v>11020928166</v>
       </c>
       <c r="L5" s="11">
-        <v>11020938803</v>
+        <v>11020944218</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="11">
         <v>11020928131</v>
@@ -1812,29 +1812,29 @@
     </row>
     <row r="6" s="8" customFormat="1" spans="1:15">
       <c r="A6" s="10">
-        <v>200331</v>
+        <v>203686</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="11">
-        <v>0.3</v>
+        <v>143.1</v>
       </c>
       <c r="E6" s="11">
-        <v>2340001</v>
+        <v>90001</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>12</v>
@@ -1843,99 +1843,56 @@
         <v>11020928166</v>
       </c>
       <c r="L6" s="11">
-        <v>11020938781</v>
+        <v>11020952091</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="11">
+        <v>11020944242</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:15">
+      <c r="A7" s="13">
+        <v>203686</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2.82</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2310004</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="11">
-        <v>11020928131</v>
-      </c>
-    </row>
-    <row r="7" s="8" customFormat="1" spans="1:15">
-      <c r="A7" s="10">
-        <v>200331</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2350001</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="11">
         <v>11020928166</v>
       </c>
-      <c r="L7" s="11">
-        <v>11020938811</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="11">
-        <v>11020928131</v>
-      </c>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="1:15">
-      <c r="A8" s="13">
-        <v>203686</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2.82</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2310004</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15" t="s">
+      <c r="L7" s="14">
+        <v>11020952105</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="11">
-        <v>11020928166</v>
-      </c>
-      <c r="L8" s="14">
-        <v>11020952105</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="14">
+      <c r="O7" s="14">
         <v>11020944242</v>
       </c>
     </row>
@@ -1999,7 +1956,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>24</v>
@@ -2044,10 +2001,10 @@
         <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
@@ -2062,7 +2019,7 @@
         <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:16">
@@ -2092,10 +2049,10 @@
         <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>12</v>
@@ -2110,7 +2067,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:16">
@@ -2124,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2">
         <v>0.6922</v>
@@ -2140,10 +2097,10 @@
         <v>11</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>12</v>
@@ -2158,7 +2115,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:16">
@@ -2188,10 +2145,10 @@
         <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>12</v>
@@ -2206,7 +2163,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:16">
@@ -2220,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <v>2.8105</v>
@@ -2236,10 +2193,10 @@
         <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
@@ -2254,7 +2211,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2284,10 +2241,10 @@
         <v>11</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>12</v>
@@ -2302,7 +2259,7 @@
         <v>9000000014</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2316,7 +2273,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2">
         <v>2.8105</v>
@@ -2332,10 +2289,10 @@
         <v>11</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>12</v>
@@ -2350,7 +2307,7 @@
         <v>9000000019</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2364,7 +2321,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2">
         <v>2.8105</v>
@@ -2380,10 +2337,10 @@
         <v>11</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>12</v>
@@ -2398,7 +2355,7 @@
         <v>9000000020</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -124,7 +124,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>10 DEC 2024</t>
+    <t>12 DEC 2024</t>
   </si>
   <si>
     <t>No</t>
@@ -133,25 +133,22 @@
     <t>FOREX</t>
   </si>
   <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>GBP</t>
   </si>
   <si>
     <t>JPY</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>Netting</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>AED</t>
   </si>
 </sst>
 </file>
@@ -318,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,12 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +668,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,16 +692,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -719,89 +710,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,9 +820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -839,15 +827,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,13 +1550,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="3" width="22.5462962962963" customWidth="1"/>
@@ -1639,261 +1618,218 @@
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>200331</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="E2" s="11">
-        <v>670000</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="D2" s="10">
+        <v>0.768</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="11">
-        <v>11020928158</v>
-      </c>
-      <c r="L2" s="11">
-        <v>11010003151</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="10" t="s">
+      <c r="K2" s="10">
+        <v>11020928166</v>
+      </c>
+      <c r="L2" s="10">
+        <v>11010003909</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="10">
         <v>11020928131</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:15">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>200331</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11">
-        <v>0.12</v>
-      </c>
-      <c r="E3" s="11">
-        <v>660001</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="D3" s="10">
+        <v>5.99</v>
+      </c>
+      <c r="E3" s="10">
+        <v>10001</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>11020948132</v>
       </c>
-      <c r="L3" s="11">
-        <v>11010003151</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10" t="s">
+      <c r="L3" s="10">
+        <v>11010003909</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>11020928131</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:15">
-      <c r="A4" s="10">
-        <v>204301</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="11">
-        <v>70001</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="A4" s="9">
+        <v>200331</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10002</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="11">
-        <v>11020928166</v>
-      </c>
-      <c r="L4" s="11">
-        <v>11020948922</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10" t="s">
+      <c r="K4" s="10">
+        <v>11020948140</v>
+      </c>
+      <c r="L4" s="10">
+        <v>11010003909</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>11020928131</v>
       </c>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:15">
-      <c r="A5" s="10">
-        <v>200510</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.76</v>
-      </c>
-      <c r="E5" s="11">
-        <v>80001</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="A5" s="9">
+        <v>200331</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5.46</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10003</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="11">
-        <v>11020928166</v>
-      </c>
-      <c r="L5" s="11">
-        <v>11020944218</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10" t="s">
+      <c r="K5" s="10">
+        <v>11020948159</v>
+      </c>
+      <c r="L5" s="10">
+        <v>11010003909</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>11020928131</v>
       </c>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:15">
-      <c r="A6" s="10">
-        <v>203686</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9">
+        <v>200331</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="11">
-        <v>143.1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>90001</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="D6" s="10">
+        <v>2.82</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10004</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="11">
-        <v>11020928166</v>
-      </c>
-      <c r="L6" s="11">
-        <v>11020952091</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10" t="s">
+      <c r="K6" s="10">
+        <v>11020948183</v>
+      </c>
+      <c r="L6" s="10">
+        <v>11010003909</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="11">
-        <v>11020944242</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="1:15">
-      <c r="A7" s="13">
-        <v>203686</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2.82</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2310004</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="11">
-        <v>11020928166</v>
-      </c>
-      <c r="L7" s="14">
-        <v>11020952105</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="14">
-        <v>11020944242</v>
+      <c r="O6" s="10">
+        <v>11020928131</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +1892,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>24</v>
@@ -2004,7 +1940,7 @@
         <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
@@ -2052,7 +1988,7 @@
         <v>32</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>12</v>
@@ -2081,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2">
         <v>0.6922</v>
@@ -2100,7 +2036,7 @@
         <v>32</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>12</v>
@@ -2148,7 +2084,7 @@
         <v>32</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>12</v>
@@ -2177,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>2.8105</v>
@@ -2196,7 +2132,7 @@
         <v>32</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
@@ -2244,7 +2180,7 @@
         <v>32</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>12</v>
@@ -2273,7 +2209,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2">
         <v>2.8105</v>
@@ -2292,7 +2228,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>12</v>
@@ -2321,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2">
         <v>2.8105</v>
@@ -2340,7 +2276,7 @@
         <v>32</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>12</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -792,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,16 +817,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,13 +1559,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="3" width="22.5462962962963" customWidth="1"/>
@@ -1618,217 +1627,251 @@
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
-      <c r="A2" s="9">
-        <v>200331</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.768</v>
-      </c>
-      <c r="E2" s="10">
-        <v>10000</v>
-      </c>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="10">
-        <v>11020928166</v>
-      </c>
-      <c r="L2" s="10">
-        <v>11010003909</v>
-      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="10">
-        <v>11020928131</v>
-      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:15">
-      <c r="A3" s="9">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" s="9" customFormat="1" spans="1:15">
+      <c r="A4" s="11">
         <v>200331</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.768</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10001</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="12">
+        <v>11020928166</v>
+      </c>
+      <c r="L4" s="12">
+        <v>11010003909</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="12">
+        <v>11020928131</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:15">
+      <c r="A5" s="11">
+        <v>200331</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D5" s="12">
         <v>5.99</v>
       </c>
-      <c r="E3" s="10">
-        <v>10001</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="E5" s="12">
+        <v>10002</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K5" s="12">
         <v>11020948132</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L5" s="12">
         <v>11010003909</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O5" s="12">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:15">
-      <c r="A4" s="9">
+    <row r="6" s="9" customFormat="1" spans="1:15">
+      <c r="A6" s="11">
         <v>200331</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D6" s="12">
         <v>0.69</v>
       </c>
-      <c r="E4" s="10">
-        <v>10002</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="s">
+      <c r="E6" s="12">
+        <v>10003</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K6" s="12">
         <v>11020948140</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L6" s="12">
         <v>11010003909</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O6" s="12">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:15">
-      <c r="A5" s="9">
+    <row r="7" s="9" customFormat="1" spans="1:15">
+      <c r="A7" s="11">
         <v>200331</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D7" s="12">
         <v>5.46</v>
       </c>
-      <c r="E5" s="10">
-        <v>10003</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="E7" s="12">
+        <v>10004</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K7" s="12">
         <v>11020948159</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L7" s="12">
         <v>11010003909</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="9" t="s">
+      <c r="M7" s="12"/>
+      <c r="N7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O7" s="12">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:15">
-      <c r="A6" s="9">
+    <row r="8" s="9" customFormat="1" spans="1:15">
+      <c r="A8" s="11">
         <v>200331</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D8" s="12">
         <v>2.82</v>
       </c>
-      <c r="E6" s="10">
-        <v>10004</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="E8" s="12">
+        <v>10005</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K8" s="12">
         <v>11020948183</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L8" s="12">
         <v>11010003909</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="9" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O8" s="12">
         <v>11020928131</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -64,82 +64,88 @@
     <t>SGD</t>
   </si>
   <si>
+    <t>16 DEC 2024</t>
+  </si>
+  <si>
+    <t>17 DEC 2024</t>
+  </si>
+  <si>
+    <t>后面是不同页面的数据</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Currency Bought</t>
+  </si>
+  <si>
+    <t>Currency Sold</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Buy Amount</t>
+  </si>
+  <si>
+    <t>Sell Amount</t>
+  </si>
+  <si>
+    <t>Value Date Buy</t>
+  </si>
+  <si>
+    <t>Value Date Sell</t>
+  </si>
+  <si>
+    <t>Mature at Start of Day?</t>
+  </si>
+  <si>
+    <t>inputSettlementInstructionsPage</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Sell.1</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.1</t>
+  </si>
+  <si>
+    <t>Counterparty's SSI.1</t>
+  </si>
+  <si>
+    <t>Search Content</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.2</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>12 DEC 2024</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FOREX</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
     <t>09 DEC 2024</t>
-  </si>
-  <si>
-    <t>后面是不同页面的数据</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>Currency Bought</t>
-  </si>
-  <si>
-    <t>Currency Sold</t>
-  </si>
-  <si>
-    <t>Spot Rate</t>
-  </si>
-  <si>
-    <t>Buy Amount</t>
-  </si>
-  <si>
-    <t>Sell Amount</t>
-  </si>
-  <si>
-    <t>Value Date Buy</t>
-  </si>
-  <si>
-    <t>Value Date Sell</t>
-  </si>
-  <si>
-    <t>Mature at Start of Day?</t>
-  </si>
-  <si>
-    <t>inputSettlementInstructionsPage</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Sell.1</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.1</t>
-  </si>
-  <si>
-    <t>Counterparty's SSI.1</t>
-  </si>
-  <si>
-    <t>Search Content</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.2</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>12 DEC 2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>FOREX</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>Netting</t>
   </si>
   <si>
     <t>N</t>
@@ -792,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,16 +832,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1373,8 +1373,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1439,13 +1439,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4">
         <v>1.1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4">
         <v>15000000196</v>
@@ -1462,7 +1462,7 @@
         <v>9000000004</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
         <v>3900000</v>
@@ -1471,13 +1471,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4">
         <v>5.59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4">
         <v>15000000641</v>
@@ -1494,7 +1494,7 @@
         <v>9000000004</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <v>3910000</v>
@@ -1503,13 +1503,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4">
         <v>4.91</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="4">
         <v>15000000722</v>
@@ -1526,7 +1526,7 @@
         <v>9100000005</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>5430000</v>
@@ -1535,13 +1535,13 @@
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4">
         <v>1.09</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4">
         <v>15000001591</v>
@@ -1561,7 +1561,7 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1584,46 +1584,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
@@ -1641,7 +1641,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="14"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:15">
       <c r="A3" s="10"/>
@@ -1658,220 +1658,220 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="14"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:15">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>200331</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11">
         <v>0.768</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>10001</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="11">
         <v>11020928166</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>11010003909</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="12">
+      <c r="M4" s="11"/>
+      <c r="N4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="11">
         <v>11020928131</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:15">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>200331</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5.99</v>
+      </c>
+      <c r="E5" s="11">
+        <v>10002</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12">
-        <v>5.99</v>
-      </c>
-      <c r="E5" s="12">
-        <v>10002</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>11020948132</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>11010003909</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="12">
+      <c r="M5" s="11"/>
+      <c r="N5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="11">
         <v>11020928131</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:15">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>200331</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="E6" s="11">
+        <v>10003</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="11">
+        <v>11020948140</v>
+      </c>
+      <c r="L6" s="11">
+        <v>11010003909</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="12">
-        <v>0.69</v>
-      </c>
-      <c r="E6" s="12">
-        <v>10003</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="12">
-        <v>11020948140</v>
-      </c>
-      <c r="L6" s="12">
-        <v>11010003909</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>11020928131</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:15">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>200331</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11">
         <v>5.46</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>10004</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="H7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="11">
         <v>11020948159</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>11010003909</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="12">
+      <c r="M7" s="11"/>
+      <c r="N7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="11">
         <v>11020928131</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:15">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>200331</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11">
         <v>2.82</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>10005</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="H8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="11">
         <v>11020948183</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>11010003909</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="12">
+      <c r="M8" s="11"/>
+      <c r="N8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="11">
         <v>11020928131</v>
       </c>
     </row>
@@ -1911,46 +1911,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:16">
@@ -1964,7 +1964,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
@@ -1974,19 +1974,19 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="4">
         <v>15000000242</v>
@@ -1998,7 +1998,7 @@
         <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:16">
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>5.9662</v>
@@ -2022,19 +2022,19 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="4">
         <v>15000000641</v>
@@ -2046,7 +2046,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:16">
@@ -2060,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2">
         <v>0.6922</v>
@@ -2070,19 +2070,19 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" s="4">
         <v>15000000730</v>
@@ -2094,7 +2094,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:16">
@@ -2108,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>5.4431</v>
@@ -2118,19 +2118,19 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" s="4">
         <v>15000000722</v>
@@ -2142,7 +2142,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:16">
@@ -2156,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>2.8105</v>
@@ -2166,19 +2166,19 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" s="4">
         <v>15000000994</v>
@@ -2190,7 +2190,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2204,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>2.8105</v>
@@ -2214,19 +2214,19 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" s="4">
         <v>15000000846</v>
@@ -2238,7 +2238,7 @@
         <v>9000000014</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
         <v>2.8105</v>
@@ -2262,19 +2262,19 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" s="4">
         <v>15000001079</v>
@@ -2286,7 +2286,7 @@
         <v>9000000019</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2300,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2">
         <v>2.8105</v>
@@ -2310,19 +2310,19 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" s="4">
         <v>15000001095</v>
@@ -2334,7 +2334,7 @@
         <v>9000000020</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="42">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -124,6 +124,9 @@
     <t>Settlement A/c for Buy.2</t>
   </si>
   <si>
+    <t>FOREX</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>FOREX</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>Netting</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>09 DEC 2024</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>GBP</t>
@@ -1373,7 +1373,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1561,8 +1561,8 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1640,7 +1640,9 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="N2" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="O2" s="11"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:15">
@@ -1657,7 +1659,9 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="O3" s="11"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:15">
@@ -1668,7 +1672,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11">
         <v>0.768</v>
@@ -1678,13 +1682,13 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>13</v>
@@ -1697,7 +1701,7 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O4" s="11">
         <v>11020928131</v>
@@ -1721,13 +1725,13 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>13</v>
@@ -1740,7 +1744,7 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O5" s="11">
         <v>11020928131</v>
@@ -1764,13 +1768,13 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>13</v>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O6" s="11">
         <v>11020928131</v>
@@ -1807,13 +1811,13 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>13</v>
@@ -1826,7 +1830,7 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O7" s="11">
         <v>11020928131</v>
@@ -1850,13 +1854,13 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>13</v>
@@ -1869,7 +1873,7 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O8" s="11">
         <v>11020928131</v>
@@ -1886,8 +1890,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1964,26 +1968,26 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
       </c>
       <c r="F2" s="4">
-        <v>10000</v>
+        <v>670000</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>13</v>
@@ -1998,7 +2002,7 @@
         <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:16">
@@ -2018,20 +2022,20 @@
         <v>5.9662</v>
       </c>
       <c r="F3" s="4">
-        <v>10000</v>
+        <v>2670001</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>13</v>
@@ -2046,7 +2050,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:16">
@@ -2066,20 +2070,20 @@
         <v>0.6922</v>
       </c>
       <c r="F4" s="4">
-        <v>10000</v>
+        <v>2670002</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>13</v>
@@ -2094,7 +2098,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:16">
@@ -2114,20 +2118,20 @@
         <v>5.4431</v>
       </c>
       <c r="F5" s="4">
-        <v>10000</v>
+        <v>2670003</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
@@ -2142,7 +2146,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:16">
@@ -2162,20 +2166,20 @@
         <v>2.8105</v>
       </c>
       <c r="F6" s="4">
-        <v>1001</v>
+        <v>2670004</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>13</v>
@@ -2190,7 +2194,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2214,16 +2218,16 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>13</v>
@@ -2238,7 +2242,7 @@
         <v>9000000014</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2262,16 +2266,16 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>13</v>
@@ -2286,7 +2290,7 @@
         <v>9000000019</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2310,16 +2314,16 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>13</v>
@@ -2334,7 +2338,7 @@
         <v>9000000020</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -146,15 +146,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>09 DEC 2024</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>JPY</t>
   </si>
 </sst>
 </file>
@@ -1888,13 +1879,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="4" width="22.5462962962963" customWidth="1"/>
@@ -1965,16 +1956,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
       </c>
       <c r="F2" s="4">
-        <v>670000</v>
+        <v>70000</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
@@ -1993,13 +1984,13 @@
         <v>13</v>
       </c>
       <c r="M2" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="N2" s="4">
         <v>15000000242</v>
       </c>
-      <c r="N2" s="4">
-        <v>15000000153</v>
-      </c>
       <c r="O2" s="4">
-        <v>9100000007</v>
+        <v>9100000004</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>31</v>
@@ -2013,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>5.9662</v>
+        <v>0.12</v>
       </c>
       <c r="F3" s="4">
-        <v>2670001</v>
+        <v>70001</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
@@ -2044,7 +2035,7 @@
         <v>15000000641</v>
       </c>
       <c r="N3" s="4">
-        <v>15000000153</v>
+        <v>15000000242</v>
       </c>
       <c r="O3" s="4">
         <v>9100000004</v>
@@ -2061,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="2">
-        <v>0.6922</v>
+        <v>1.1</v>
       </c>
       <c r="F4" s="4">
-        <v>2670002</v>
+        <v>70002</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
@@ -2092,7 +2083,7 @@
         <v>15000000730</v>
       </c>
       <c r="N4" s="4">
-        <v>15000000153</v>
+        <v>15000000242</v>
       </c>
       <c r="O4" s="4">
         <v>9100000007</v>
@@ -2109,16 +2100,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>5.4431</v>
+        <v>0.14</v>
       </c>
       <c r="F5" s="4">
-        <v>2670003</v>
+        <v>70003</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
@@ -2140,7 +2131,7 @@
         <v>15000000722</v>
       </c>
       <c r="N5" s="4">
-        <v>15000000153</v>
+        <v>15000000242</v>
       </c>
       <c r="O5" s="4">
         <v>9100000007</v>
@@ -2157,16 +2148,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2">
-        <v>2.8105</v>
+        <v>0.27</v>
       </c>
       <c r="F6" s="4">
-        <v>2670004</v>
+        <v>70004</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
@@ -2188,156 +2179,12 @@
         <v>15000000994</v>
       </c>
       <c r="N6" s="4">
-        <v>15000000153</v>
+        <v>15000000242</v>
       </c>
       <c r="O6" s="4">
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2">
-        <v>9000000001</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.8105</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="4">
-        <v>15000000846</v>
-      </c>
-      <c r="N7" s="4">
-        <v>15000000153</v>
-      </c>
-      <c r="O7" s="4">
-        <v>9000000014</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="2">
-        <v>9000000001</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.8105</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="4">
-        <v>15000001079</v>
-      </c>
-      <c r="N8" s="4">
-        <v>15000000153</v>
-      </c>
-      <c r="O8" s="4">
-        <v>9000000019</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2">
-        <v>9000000001</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.8105</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="4">
-        <v>15000001095</v>
-      </c>
-      <c r="N9" s="4">
-        <v>15000000153</v>
-      </c>
-      <c r="O9" s="4">
-        <v>9000000020</v>
-      </c>
-      <c r="P9" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -61,85 +61,79 @@
     <t>Counterparty Corres Bank.1</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>16 DEC 2024</t>
+  </si>
+  <si>
+    <t>后面是不同页面的数据</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>Currency Bought</t>
+  </si>
+  <si>
+    <t>Currency Sold</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Buy Amount</t>
+  </si>
+  <si>
+    <t>Sell Amount</t>
+  </si>
+  <si>
+    <t>Value Date Buy</t>
+  </si>
+  <si>
+    <t>Value Date Sell</t>
+  </si>
+  <si>
+    <t>Mature at Start of Day?</t>
+  </si>
+  <si>
+    <t>inputSettlementInstructionsPage</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Sell.1</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.1</t>
+  </si>
+  <si>
+    <t>Counterparty's SSI.1</t>
+  </si>
+  <si>
+    <t>Search Content</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.2</t>
+  </si>
+  <si>
+    <t>FOREX</t>
+  </si>
+  <si>
     <t>SGD</t>
   </si>
   <si>
-    <t>16 DEC 2024</t>
-  </si>
-  <si>
-    <t>17 DEC 2024</t>
-  </si>
-  <si>
-    <t>后面是不同页面的数据</t>
+    <t>12 DEC 2024</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>HKD</t>
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>Currency Bought</t>
-  </si>
-  <si>
-    <t>Currency Sold</t>
-  </si>
-  <si>
-    <t>Spot Rate</t>
-  </si>
-  <si>
-    <t>Buy Amount</t>
-  </si>
-  <si>
-    <t>Sell Amount</t>
-  </si>
-  <si>
-    <t>Value Date Buy</t>
-  </si>
-  <si>
-    <t>Value Date Sell</t>
-  </si>
-  <si>
-    <t>Mature at Start of Day?</t>
-  </si>
-  <si>
-    <t>inputSettlementInstructionsPage</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Sell.1</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.1</t>
-  </si>
-  <si>
-    <t>Counterparty's SSI.1</t>
-  </si>
-  <si>
-    <t>Search Content</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.2</t>
-  </si>
-  <si>
-    <t>FOREX</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>12 DEC 2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>AED</t>
   </si>
   <si>
     <t>Netting</t>
@@ -1362,13 +1356,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
     <col min="2" max="2" width="22.5462962962963" customWidth="1"/>
@@ -1424,22 +1418,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.375</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4">
-        <v>1.1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="4">
-        <v>15000000196</v>
+        <v>15000000242</v>
       </c>
       <c r="J2" s="4">
         <v>9100000007</v>
@@ -1453,28 +1447,28 @@
         <v>9000000004</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4">
-        <v>3900000</v>
+        <v>900000</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
-        <v>5.59</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="4">
-        <v>15000000641</v>
+        <v>15000000730</v>
       </c>
       <c r="J3" s="4">
-        <v>9100000004</v>
+        <v>9100000007</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1485,60 +1479,28 @@
         <v>9000000004</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4">
-        <v>3910000</v>
+        <v>920000</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4">
-        <v>4.91</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" s="4">
-        <v>15000000722</v>
+        <v>15000000994</v>
       </c>
       <c r="J4" s="4">
-        <v>9100000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9100000005</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5430000</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.09</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4">
-        <v>15000001591</v>
-      </c>
-      <c r="J5" s="4">
-        <v>9000000002</v>
+        <v>9000000008</v>
       </c>
     </row>
   </sheetData>
@@ -1575,46 +1537,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
@@ -1632,7 +1594,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2" s="11"/>
     </row>
@@ -1651,7 +1613,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3" s="11"/>
     </row>
@@ -1660,10 +1622,10 @@
         <v>200331</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="11">
         <v>0.768</v>
@@ -1673,16 +1635,16 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="11">
         <v>11020928166</v>
@@ -1692,7 +1654,7 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O4" s="11">
         <v>11020928131</v>
@@ -1703,10 +1665,10 @@
         <v>200331</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11">
         <v>5.99</v>
@@ -1716,16 +1678,16 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="11">
         <v>11020948132</v>
@@ -1735,7 +1697,7 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O5" s="11">
         <v>11020928131</v>
@@ -1746,10 +1708,10 @@
         <v>200331</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D6" s="11">
         <v>0.69</v>
@@ -1759,16 +1721,16 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="11">
         <v>11020948140</v>
@@ -1778,7 +1740,7 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O6" s="11">
         <v>11020928131</v>
@@ -1789,10 +1751,10 @@
         <v>200331</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11">
         <v>5.46</v>
@@ -1802,16 +1764,16 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="11">
         <v>11020948159</v>
@@ -1821,7 +1783,7 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O7" s="11">
         <v>11020928131</v>
@@ -1832,10 +1794,10 @@
         <v>200331</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D8" s="11">
         <v>2.82</v>
@@ -1845,16 +1807,16 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="11">
         <v>11020948183</v>
@@ -1864,7 +1826,7 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O8" s="11">
         <v>11020928131</v>
@@ -1881,7 +1843,7 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1906,46 +1868,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:16">
@@ -1956,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
@@ -1975,13 +1937,13 @@
         <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="4">
         <v>15000000153</v>
@@ -1993,7 +1955,7 @@
         <v>9100000004</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:16">
@@ -2004,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>0.12</v>
@@ -2023,13 +1985,13 @@
         <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="4">
         <v>15000000641</v>
@@ -2041,7 +2003,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:16">
@@ -2052,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>1.1</v>
@@ -2071,13 +2033,13 @@
         <v>11</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="4">
         <v>15000000730</v>
@@ -2089,7 +2051,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:16">
@@ -2100,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2">
         <v>0.14</v>
@@ -2119,13 +2081,13 @@
         <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="4">
         <v>15000000722</v>
@@ -2137,7 +2099,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:16">
@@ -2148,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>0.27</v>
@@ -2167,13 +2129,13 @@
         <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="4">
         <v>15000000994</v>
@@ -2185,7 +2147,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Netting</t>
+  </si>
+  <si>
+    <t>17 DEC 2024</t>
   </si>
   <si>
     <t>N</t>
@@ -1358,7 +1361,7 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1843,8 +1846,8 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1918,41 +1921,41 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
       </c>
       <c r="F2" s="4">
-        <v>70000</v>
+        <v>970000</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="4">
+        <v>15000000242</v>
+      </c>
+      <c r="N2" s="4">
         <v>15000000153</v>
       </c>
-      <c r="N2" s="4">
-        <v>15000000242</v>
-      </c>
       <c r="O2" s="4">
-        <v>9100000004</v>
+        <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>29</v>
@@ -1966,29 +1969,29 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2">
-        <v>0.12</v>
+        <v>5.9662</v>
       </c>
       <c r="F3" s="4">
-        <v>70001</v>
+        <v>970001</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>12</v>
@@ -1997,7 +2000,7 @@
         <v>15000000641</v>
       </c>
       <c r="N3" s="4">
-        <v>15000000242</v>
+        <v>15000000153</v>
       </c>
       <c r="O3" s="4">
         <v>9100000004</v>
@@ -2014,29 +2017,29 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2">
-        <v>1.1</v>
+        <v>0.6922</v>
       </c>
       <c r="F4" s="4">
-        <v>70002</v>
+        <v>970002</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>12</v>
@@ -2045,7 +2048,7 @@
         <v>15000000730</v>
       </c>
       <c r="N4" s="4">
-        <v>15000000242</v>
+        <v>15000000153</v>
       </c>
       <c r="O4" s="4">
         <v>9100000007</v>
@@ -2062,29 +2065,29 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>0.14</v>
+        <v>5.4431</v>
       </c>
       <c r="F5" s="4">
-        <v>70003</v>
+        <v>970003</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>12</v>
@@ -2093,7 +2096,7 @@
         <v>15000000722</v>
       </c>
       <c r="N5" s="4">
-        <v>15000000242</v>
+        <v>15000000153</v>
       </c>
       <c r="O5" s="4">
         <v>9100000007</v>
@@ -2110,29 +2113,29 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>0.27</v>
+        <v>2.8105</v>
       </c>
       <c r="F6" s="4">
-        <v>70004</v>
+        <v>970004</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
@@ -2141,7 +2144,7 @@
         <v>15000000994</v>
       </c>
       <c r="N6" s="4">
-        <v>15000000242</v>
+        <v>15000000153</v>
       </c>
       <c r="O6" s="4">
         <v>9000000018</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="38">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -61,13 +61,76 @@
     <t>Counterparty Corres Bank.1</t>
   </si>
   <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>17 DEC 2024</t>
+  </si>
+  <si>
+    <t>后面是不同页面的数据</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Currency Bought</t>
+  </si>
+  <si>
+    <t>Currency Sold</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Buy Amount</t>
+  </si>
+  <si>
+    <t>Sell Amount</t>
+  </si>
+  <si>
+    <t>Value Date Buy</t>
+  </si>
+  <si>
+    <t>Value Date Sell</t>
+  </si>
+  <si>
+    <t>Mature at Start of Day?</t>
+  </si>
+  <si>
+    <t>inputSettlementInstructionsPage</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Sell.1</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.1</t>
+  </si>
+  <si>
+    <t>Counterparty's SSI.1</t>
+  </si>
+  <si>
+    <t>Search Content</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.2</t>
+  </si>
+  <si>
+    <t>FOREX</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>16 DEC 2024</t>
-  </si>
-  <si>
-    <t>后面是不同页面的数据</t>
+    <t>12 DEC 2024</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>EUR</t>
@@ -76,70 +139,7 @@
     <t>AED</t>
   </si>
   <si>
-    <t>Currency Bought</t>
-  </si>
-  <si>
-    <t>Currency Sold</t>
-  </si>
-  <si>
-    <t>Spot Rate</t>
-  </si>
-  <si>
-    <t>Buy Amount</t>
-  </si>
-  <si>
-    <t>Sell Amount</t>
-  </si>
-  <si>
-    <t>Value Date Buy</t>
-  </si>
-  <si>
-    <t>Value Date Sell</t>
-  </si>
-  <si>
-    <t>Mature at Start of Day?</t>
-  </si>
-  <si>
-    <t>inputSettlementInstructionsPage</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Sell.1</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.1</t>
-  </si>
-  <si>
-    <t>Counterparty's SSI.1</t>
-  </si>
-  <si>
-    <t>Search Content</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.2</t>
-  </si>
-  <si>
-    <t>FOREX</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>12 DEC 2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
     <t>Netting</t>
-  </si>
-  <si>
-    <t>17 DEC 2024</t>
   </si>
   <si>
     <t>N</t>
@@ -1359,13 +1359,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
     <col min="2" max="2" width="22.5462962962963" customWidth="1"/>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>800000</v>
+        <v>700000</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -1430,13 +1430,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="4">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="4">
-        <v>15000000242</v>
+        <v>15000000196</v>
       </c>
       <c r="J2" s="4">
         <v>9100000007</v>
@@ -1447,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="4">
-        <v>900000</v>
+        <v>3900000</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -1462,13 +1462,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="4">
-        <v>1.46</v>
+        <v>5.59</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="4">
-        <v>15000000730</v>
+        <v>15000000641</v>
       </c>
       <c r="J3" s="4">
         <v>9100000007</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>9000000004</v>
+        <v>9000000001</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4">
-        <v>920000</v>
+        <v>3910000</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
@@ -1494,16 +1494,48 @@
         <v>11</v>
       </c>
       <c r="G4" s="4">
-        <v>3.67</v>
+        <v>4.91</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="4">
-        <v>15000000994</v>
+        <v>15000000722</v>
       </c>
       <c r="J4" s="4">
-        <v>9000000008</v>
+        <v>9100000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9000000001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5430000</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4">
+        <v>15000001591</v>
+      </c>
+      <c r="J5" s="4">
+        <v>9000000014</v>
       </c>
     </row>
   </sheetData>
@@ -1540,46 +1572,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
@@ -1597,7 +1629,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="11"/>
     </row>
@@ -1616,7 +1648,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="11"/>
     </row>
@@ -1625,10 +1657,10 @@
         <v>200331</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D4" s="11">
         <v>0.768</v>
@@ -1638,13 +1670,13 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>12</v>
@@ -1657,7 +1689,7 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="11">
         <v>11020928131</v>
@@ -1668,10 +1700,10 @@
         <v>200331</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D5" s="11">
         <v>5.99</v>
@@ -1681,13 +1713,13 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>12</v>
@@ -1700,7 +1732,7 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="11">
         <v>11020928131</v>
@@ -1711,10 +1743,10 @@
         <v>200331</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11">
         <v>0.69</v>
@@ -1724,13 +1756,13 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>12</v>
@@ -1743,7 +1775,7 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="11">
         <v>11020928131</v>
@@ -1754,10 +1786,10 @@
         <v>200331</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D7" s="11">
         <v>5.46</v>
@@ -1767,13 +1799,13 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>12</v>
@@ -1786,7 +1818,7 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="11">
         <v>11020928131</v>
@@ -1797,10 +1829,10 @@
         <v>200331</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D8" s="11">
         <v>2.82</v>
@@ -1810,13 +1842,13 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>12</v>
@@ -1829,7 +1861,7 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="11">
         <v>11020928131</v>
@@ -1846,7 +1878,7 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1871,46 +1903,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:16">
@@ -1921,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
@@ -1934,13 +1966,13 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>37</v>
@@ -1958,7 +1990,7 @@
         <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:16">
@@ -1969,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>5.9662</v>
@@ -1982,13 +2014,13 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>37</v>
@@ -2006,7 +2038,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:16">
@@ -2017,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2">
         <v>0.6922</v>
@@ -2030,13 +2062,13 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>37</v>
@@ -2054,7 +2086,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:16">
@@ -2065,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>5.4431</v>
@@ -2078,13 +2110,13 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>37</v>
@@ -2102,7 +2134,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:16">
@@ -2113,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>2.8105</v>
@@ -2126,13 +2158,13 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>37</v>
@@ -2150,7 +2182,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>17 DEC 2024</t>
+  </si>
+  <si>
+    <t>18 DEC 2024</t>
   </si>
   <si>
     <t>后面是不同页面的数据</t>
@@ -1362,7 +1365,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1427,13 +1430,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4">
         <v>1.1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4">
         <v>15000000196</v>
@@ -1450,7 +1453,7 @@
         <v>9000000001</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
         <v>3900000</v>
@@ -1459,13 +1462,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4">
         <v>5.59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4">
         <v>15000000641</v>
@@ -1482,7 +1485,7 @@
         <v>9000000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <v>3910000</v>
@@ -1491,13 +1494,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4">
         <v>4.91</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="4">
         <v>15000000722</v>
@@ -1514,7 +1517,7 @@
         <v>9000000001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>5430000</v>
@@ -1523,13 +1526,13 @@
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4">
         <v>1.09</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4">
         <v>15000001591</v>
@@ -1572,46 +1575,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
@@ -1629,7 +1632,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="11"/>
     </row>
@@ -1648,7 +1651,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="11"/>
     </row>
@@ -1660,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11">
         <v>0.768</v>
@@ -1670,16 +1673,16 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="11">
         <v>11020928166</v>
@@ -1689,7 +1692,7 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="11">
         <v>11020928131</v>
@@ -1703,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="11">
         <v>5.99</v>
@@ -1713,16 +1716,16 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="11">
         <v>11020948132</v>
@@ -1732,7 +1735,7 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" s="11">
         <v>11020928131</v>
@@ -1746,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="11">
         <v>0.69</v>
@@ -1756,16 +1759,16 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="11">
         <v>11020948140</v>
@@ -1775,7 +1778,7 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" s="11">
         <v>11020928131</v>
@@ -1789,7 +1792,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="11">
         <v>5.46</v>
@@ -1799,16 +1802,16 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="11">
         <v>11020948159</v>
@@ -1818,7 +1821,7 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" s="11">
         <v>11020928131</v>
@@ -1832,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="11">
         <v>2.82</v>
@@ -1842,16 +1845,16 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="11">
         <v>11020948183</v>
@@ -1861,7 +1864,7 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O8" s="11">
         <v>11020928131</v>
@@ -1903,46 +1906,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:16">
@@ -1956,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
@@ -1972,13 +1975,13 @@
         <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="4">
         <v>15000000242</v>
@@ -1990,7 +1993,7 @@
         <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:16">
@@ -2004,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>5.9662</v>
@@ -2020,13 +2023,13 @@
         <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="4">
         <v>15000000641</v>
@@ -2038,7 +2041,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:16">
@@ -2052,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2">
         <v>0.6922</v>
@@ -2068,13 +2071,13 @@
         <v>11</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" s="4">
         <v>15000000730</v>
@@ -2086,7 +2089,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:16">
@@ -2100,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>5.4431</v>
@@ -2116,13 +2119,13 @@
         <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" s="4">
         <v>15000000722</v>
@@ -2134,7 +2137,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:16">
@@ -2148,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>2.8105</v>
@@ -2164,13 +2167,13 @@
         <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" s="4">
         <v>15000000994</v>
@@ -2182,7 +2185,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -61,85 +61,82 @@
     <t>Counterparty Corres Bank.1</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>17 DEC 2024</t>
+  </si>
+  <si>
+    <t>18 DEC 2024</t>
+  </si>
+  <si>
+    <t>后面是不同页面的数据</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>Currency Bought</t>
+  </si>
+  <si>
+    <t>Currency Sold</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Buy Amount</t>
+  </si>
+  <si>
+    <t>Sell Amount</t>
+  </si>
+  <si>
+    <t>Value Date Buy</t>
+  </si>
+  <si>
+    <t>Value Date Sell</t>
+  </si>
+  <si>
+    <t>Mature at Start of Day?</t>
+  </si>
+  <si>
+    <t>inputSettlementInstructionsPage</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Sell.1</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.1</t>
+  </si>
+  <si>
+    <t>Counterparty's SSI.1</t>
+  </si>
+  <si>
+    <t>Search Content</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.2</t>
+  </si>
+  <si>
+    <t>FOREX</t>
+  </si>
+  <si>
     <t>SGD</t>
   </si>
   <si>
-    <t>17 DEC 2024</t>
-  </si>
-  <si>
-    <t>18 DEC 2024</t>
-  </si>
-  <si>
-    <t>后面是不同页面的数据</t>
+    <t>12 DEC 2024</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>HKD</t>
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>Currency Bought</t>
-  </si>
-  <si>
-    <t>Currency Sold</t>
-  </si>
-  <si>
-    <t>Spot Rate</t>
-  </si>
-  <si>
-    <t>Buy Amount</t>
-  </si>
-  <si>
-    <t>Sell Amount</t>
-  </si>
-  <si>
-    <t>Value Date Buy</t>
-  </si>
-  <si>
-    <t>Value Date Sell</t>
-  </si>
-  <si>
-    <t>Mature at Start of Day?</t>
-  </si>
-  <si>
-    <t>inputSettlementInstructionsPage</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Sell.1</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.1</t>
-  </si>
-  <si>
-    <t>Counterparty's SSI.1</t>
-  </si>
-  <si>
-    <t>Search Content</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.2</t>
-  </si>
-  <si>
-    <t>FOREX</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>12 DEC 2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>AED</t>
   </si>
   <si>
     <t>Netting</t>
@@ -1362,13 +1359,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
     <col min="2" max="2" width="22.5462962962963" customWidth="1"/>
@@ -1413,18 +1410,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="13" customHeight="1" spans="1:10">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>9000000001</v>
+        <v>9000000004</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>700000</v>
+        <v>80000</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -1433,13 +1430,13 @@
         <v>12</v>
       </c>
       <c r="G2" s="4">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="4">
-        <v>15000000196</v>
+        <v>15000000242</v>
       </c>
       <c r="J2" s="4">
         <v>9100000007</v>
@@ -1450,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>9000000001</v>
+        <v>9000000004</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4">
-        <v>3900000</v>
+        <v>80001</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -1465,13 +1462,13 @@
         <v>12</v>
       </c>
       <c r="G3" s="4">
-        <v>5.59</v>
+        <v>1.46</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="4">
-        <v>15000000641</v>
+        <v>15000000730</v>
       </c>
       <c r="J3" s="4">
         <v>9100000007</v>
@@ -1482,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>9000000001</v>
+        <v>9000000004</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4">
-        <v>3910000</v>
+        <v>80002</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
@@ -1497,48 +1494,16 @@
         <v>12</v>
       </c>
       <c r="G4" s="4">
-        <v>4.91</v>
+        <v>3.67</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="4">
-        <v>15000000722</v>
+        <v>15000000994</v>
       </c>
       <c r="J4" s="4">
-        <v>9100000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9000000001</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5430000</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.09</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4">
-        <v>15000001591</v>
-      </c>
-      <c r="J5" s="4">
-        <v>9000000014</v>
+        <v>9000000008</v>
       </c>
     </row>
   </sheetData>
@@ -1575,46 +1540,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:15">
@@ -1632,7 +1597,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="11"/>
     </row>
@@ -1651,7 +1616,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="11"/>
     </row>
@@ -1660,10 +1625,10 @@
         <v>200331</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="11">
         <v>0.768</v>
@@ -1673,13 +1638,13 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>13</v>
@@ -1692,7 +1657,7 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="11">
         <v>11020928131</v>
@@ -1703,10 +1668,10 @@
         <v>200331</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11">
         <v>5.99</v>
@@ -1716,13 +1681,13 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>13</v>
@@ -1735,7 +1700,7 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" s="11">
         <v>11020928131</v>
@@ -1746,10 +1711,10 @@
         <v>200331</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D6" s="11">
         <v>0.69</v>
@@ -1759,13 +1724,13 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>13</v>
@@ -1778,7 +1743,7 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6" s="11">
         <v>11020928131</v>
@@ -1789,10 +1754,10 @@
         <v>200331</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7" s="11">
         <v>5.46</v>
@@ -1802,13 +1767,13 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>13</v>
@@ -1821,7 +1786,7 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="11">
         <v>11020928131</v>
@@ -1832,10 +1797,10 @@
         <v>200331</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D8" s="11">
         <v>2.82</v>
@@ -1845,13 +1810,13 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>13</v>
@@ -1864,7 +1829,7 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O8" s="11">
         <v>11020928131</v>
@@ -1906,46 +1871,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:16">
@@ -1956,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
@@ -1975,10 +1940,10 @@
         <v>11</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>13</v>
@@ -1993,7 +1958,7 @@
         <v>9100000007</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:16">
@@ -2004,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>5.9662</v>
@@ -2023,10 +1988,10 @@
         <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>13</v>
@@ -2041,7 +2006,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:16">
@@ -2052,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>0.6922</v>
@@ -2071,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>13</v>
@@ -2089,7 +2054,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:16">
@@ -2100,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2">
         <v>5.4431</v>
@@ -2119,10 +2084,10 @@
         <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
@@ -2137,7 +2102,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:16">
@@ -2148,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>2.8105</v>
@@ -2167,10 +2132,10 @@
         <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>13</v>
@@ -2185,7 +2150,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -1361,7 +1361,7 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1846,8 +1846,8 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1921,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>0.7654</v>
       </c>
       <c r="F2" s="4">
-        <v>970000</v>
+        <v>70000</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
@@ -1949,13 +1949,13 @@
         <v>13</v>
       </c>
       <c r="M2" s="4">
+        <v>15000000153</v>
+      </c>
+      <c r="N2" s="4">
         <v>15000000242</v>
       </c>
-      <c r="N2" s="4">
-        <v>15000000153</v>
-      </c>
       <c r="O2" s="4">
-        <v>9100000007</v>
+        <v>9100000004</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>30</v>
@@ -1969,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="2">
-        <v>5.9662</v>
+        <v>0.12</v>
       </c>
       <c r="F3" s="4">
-        <v>970001</v>
+        <v>70001</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
@@ -2000,7 +2000,7 @@
         <v>15000000641</v>
       </c>
       <c r="N3" s="4">
-        <v>15000000153</v>
+        <v>15000000242</v>
       </c>
       <c r="O3" s="4">
         <v>9100000004</v>
@@ -2017,16 +2017,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>0.6922</v>
+        <v>1.1</v>
       </c>
       <c r="F4" s="4">
-        <v>970002</v>
+        <v>70002</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
@@ -2048,7 +2048,7 @@
         <v>15000000730</v>
       </c>
       <c r="N4" s="4">
-        <v>15000000153</v>
+        <v>15000000242</v>
       </c>
       <c r="O4" s="4">
         <v>9100000007</v>
@@ -2065,16 +2065,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="2">
-        <v>5.4431</v>
+        <v>0.14</v>
       </c>
       <c r="F5" s="4">
-        <v>970003</v>
+        <v>70003</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
@@ -2096,7 +2096,7 @@
         <v>15000000722</v>
       </c>
       <c r="N5" s="4">
-        <v>15000000153</v>
+        <v>15000000242</v>
       </c>
       <c r="O5" s="4">
         <v>9100000007</v>
@@ -2113,16 +2113,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>2.8105</v>
+        <v>0.27</v>
       </c>
       <c r="F6" s="4">
-        <v>970004</v>
+        <v>70004</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
@@ -2144,10 +2144,10 @@
         <v>15000000994</v>
       </c>
       <c r="N6" s="4">
-        <v>15000000153</v>
+        <v>15000000242</v>
       </c>
       <c r="O6" s="4">
-        <v>9000000018</v>
+        <v>9100000018</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>30</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Netting</t>
+  </si>
+  <si>
+    <t>28 DEC 2024</t>
   </si>
   <si>
     <t>N</t>
@@ -309,12 +312,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -662,7 +671,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,16 +695,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -704,126 +713,141 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,130 +1403,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:10">
-      <c r="A2" s="3">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
         <v>9000000004</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="16">
         <v>80000</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="16">
         <v>1.375</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="16">
         <v>15000000242</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="16">
         <v>9100000007</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3">
+      <c r="A3" s="14">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="15">
         <v>9000000004</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="16">
         <v>80001</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="16">
         <v>1.46</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="16">
         <v>15000000730</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="16">
         <v>9100000007</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3">
+      <c r="A4" s="14">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="15">
         <v>9000000004</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="16">
         <v>80002</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="16">
         <v>3.67</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="16">
         <v>15000000994</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="16">
         <v>9000000008</v>
       </c>
     </row>
@@ -1536,302 +1560,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="12"/>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="12"/>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:15">
-      <c r="A4" s="10">
+    <row r="4" s="10" customFormat="1" spans="1:15">
+      <c r="A4" s="11">
         <v>200331</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>0.768</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <v>10001</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="12">
         <v>11020928166</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="12">
         <v>11010003909</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="12">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:15">
-      <c r="A5" s="10">
+    <row r="5" s="10" customFormat="1" spans="1:15">
+      <c r="A5" s="11">
         <v>200331</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>5.99</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>10002</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>11020948132</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>11010003909</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:15">
-      <c r="A6" s="10">
+    <row r="6" s="10" customFormat="1" spans="1:15">
+      <c r="A6" s="11">
         <v>200331</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>0.69</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>10003</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="12">
         <v>11020948140</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="12">
         <v>11010003909</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="12">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:15">
-      <c r="A7" s="10">
+    <row r="7" s="10" customFormat="1" spans="1:15">
+      <c r="A7" s="11">
         <v>200331</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>5.46</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>10004</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="12">
         <v>11020948159</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="12">
         <v>11010003909</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10" t="s">
+      <c r="M7" s="12"/>
+      <c r="N7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="12">
         <v>11020928131</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:15">
-      <c r="A8" s="10">
+    <row r="8" s="10" customFormat="1" spans="1:15">
+      <c r="A8" s="11">
         <v>200331</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>2.82</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>10005</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="12">
         <v>11020948183</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="12">
         <v>11010003909</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="12">
         <v>11020928131</v>
       </c>
     </row>
@@ -1847,7 +1871,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1864,292 +1888,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:16">
-      <c r="A2" s="2">
-        <v>9000000001</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" s="1" customFormat="1" spans="1:16">
+      <c r="A2" s="3">
+        <v>9000000004</v>
+      </c>
+      <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5">
+        <v>0.768</v>
+      </c>
+      <c r="F2" s="5">
+        <v>720000</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="5">
+        <v>15000000463</v>
+      </c>
+      <c r="N2" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O2" s="5">
+        <v>9100000007</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:16">
+      <c r="A3" s="3">
+        <v>9000000004</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.7654</v>
-      </c>
-      <c r="F2" s="4">
-        <v>70000</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="F3" s="5">
+        <v>720001</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="5">
+        <v>15000000641</v>
+      </c>
+      <c r="N3" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O3" s="5">
+        <v>9100000004</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="A4" s="3">
+        <v>9000000004</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="F4" s="5">
+        <v>720002</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="I4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4">
-        <v>15000000153</v>
-      </c>
-      <c r="N2" s="4">
-        <v>15000000242</v>
-      </c>
-      <c r="O2" s="4">
-        <v>9100000004</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="M4" s="5">
+        <v>15000000730</v>
+      </c>
+      <c r="N4" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O4" s="5">
+        <v>9100000007</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:16">
-      <c r="A3" s="2">
-        <v>9000000001</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="3">
+        <v>9000000004</v>
+      </c>
+      <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="F3" s="4">
-        <v>70001</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5.46</v>
+      </c>
+      <c r="F5" s="5">
+        <v>720003</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5">
+        <v>15000000722</v>
+      </c>
+      <c r="N5" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O5" s="5">
+        <v>9100000007</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
+      <c r="A6" s="3">
+        <v>9000000004</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="F6" s="5">
+        <v>720004</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="I6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4">
-        <v>15000000641</v>
-      </c>
-      <c r="N3" s="4">
-        <v>15000000242</v>
-      </c>
-      <c r="O3" s="4">
-        <v>9100000004</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:16">
-      <c r="A4" s="2">
-        <v>9000000001</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>70002</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="4">
-        <v>15000000730</v>
-      </c>
-      <c r="N4" s="4">
-        <v>15000000242</v>
-      </c>
-      <c r="O4" s="4">
-        <v>9100000007</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:16">
-      <c r="A5" s="2">
-        <v>9000000001</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.14</v>
-      </c>
-      <c r="F5" s="4">
-        <v>70003</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="4">
-        <v>15000000722</v>
-      </c>
-      <c r="N5" s="4">
-        <v>15000000242</v>
-      </c>
-      <c r="O5" s="4">
-        <v>9100000007</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:16">
-      <c r="A6" s="2">
-        <v>9000000001</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="F6" s="4">
-        <v>70004</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="M6" s="5">
         <v>15000000994</v>
       </c>
-      <c r="N6" s="4">
-        <v>15000000242</v>
-      </c>
-      <c r="O6" s="4">
-        <v>9100000018</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="N6" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O6" s="5">
+        <v>9000000018</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -121,31 +121,43 @@
     <t>Settlement A/c for Buy.2</t>
   </si>
   <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>30 DEC 2024</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>FOREX</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>12 DEC 2024</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
+    <t>28 DEC 2024</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>HKD</t>
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>Netting</t>
-  </si>
-  <si>
-    <t>28 DEC 2024</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -832,10 +844,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1539,13 +1551,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="3" width="22.5462962962963" customWidth="1"/>
@@ -1607,256 +1619,218 @@
       </c>
     </row>
     <row r="2" s="9" customFormat="1" spans="1:15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="11">
+        <v>202347</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.87</v>
+      </c>
+      <c r="E2" s="11">
+        <v>670000</v>
+      </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="G2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="11">
+        <v>11021209775</v>
+      </c>
+      <c r="L2" s="11">
+        <v>11010004336</v>
+      </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="O2" s="13">
+        <v>11021162884</v>
+      </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="11">
+        <v>202347</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="E3" s="11">
+        <v>670001</v>
+      </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="G3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="11">
+        <v>11021212547</v>
+      </c>
+      <c r="L3" s="11">
+        <v>11010004336</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="O3" s="13">
+        <v>11021162884</v>
+      </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:15">
       <c r="A4" s="11">
-        <v>200331</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>31</v>
+        <v>202347</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12">
-        <v>0.768</v>
-      </c>
-      <c r="E4" s="12">
-        <v>10001</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="D4" s="13">
+        <v>1.768</v>
+      </c>
+      <c r="E4" s="11">
+        <v>670002</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="12">
-        <v>11020928166</v>
-      </c>
-      <c r="L4" s="12">
-        <v>11010003909</v>
-      </c>
-      <c r="M4" s="12"/>
+      <c r="K4" s="13">
+        <v>11021162906</v>
+      </c>
+      <c r="L4" s="11">
+        <v>11010004336</v>
+      </c>
+      <c r="M4" s="13"/>
       <c r="N4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="12">
-        <v>11020928131</v>
+        <v>34</v>
+      </c>
+      <c r="O4" s="13">
+        <v>11021162884</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:15">
       <c r="A5" s="11">
-        <v>200331</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>31</v>
+        <v>202347</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5.99</v>
+      </c>
+      <c r="E5" s="11">
+        <v>670003</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="13">
+        <v>11021214167</v>
+      </c>
+      <c r="L5" s="11">
+        <v>11010004336</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="12">
-        <v>5.99</v>
-      </c>
-      <c r="E5" s="12">
-        <v>10002</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="12">
-        <v>11020948132</v>
-      </c>
-      <c r="L5" s="12">
-        <v>11010003909</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="12">
-        <v>11020928131</v>
+      <c r="O5" s="13">
+        <v>11021162884</v>
       </c>
     </row>
     <row r="6" s="10" customFormat="1" spans="1:15">
       <c r="A6" s="11">
-        <v>200331</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>31</v>
+        <v>202347</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12">
+        <v>37</v>
+      </c>
+      <c r="D6" s="13">
         <v>0.69</v>
       </c>
-      <c r="E6" s="12">
-        <v>10003</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
+      <c r="E6" s="11">
+        <v>670004</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="12">
-        <v>11020948140</v>
-      </c>
-      <c r="L6" s="12">
-        <v>11010003909</v>
-      </c>
-      <c r="M6" s="12"/>
+      <c r="K6" s="13">
+        <v>11021223115</v>
+      </c>
+      <c r="L6" s="11">
+        <v>11010004336</v>
+      </c>
+      <c r="M6" s="13"/>
       <c r="N6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="12">
-        <v>11020928131</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:15">
-      <c r="A7" s="11">
-        <v>200331</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="12">
-        <v>5.46</v>
-      </c>
-      <c r="E7" s="12">
-        <v>10004</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="12">
-        <v>11020948159</v>
-      </c>
-      <c r="L7" s="12">
-        <v>11010003909</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="12">
-        <v>11020928131</v>
-      </c>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:15">
-      <c r="A8" s="11">
-        <v>200331</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2.82</v>
-      </c>
-      <c r="E8" s="12">
-        <v>10005</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="12">
-        <v>11020948183</v>
-      </c>
-      <c r="L8" s="12">
-        <v>11010003909</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="12">
-        <v>11020928131</v>
+        <v>34</v>
+      </c>
+      <c r="O6" s="13">
+        <v>11021162884</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +1844,7 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -1919,7 +1893,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>24</v>
@@ -1945,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1958,16 +1932,16 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
@@ -1982,7 +1956,7 @@
         <v>9100000007</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:16">
@@ -1993,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5">
         <v>5.99</v>
@@ -2006,16 +1980,16 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>13</v>
@@ -2030,7 +2004,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:16">
@@ -2041,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -2054,16 +2028,16 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>13</v>
@@ -2078,7 +2052,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:16">
@@ -2089,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5">
         <v>5.46</v>
@@ -2102,16 +2076,16 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -2126,7 +2100,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:16">
@@ -2137,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -2150,16 +2124,16 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>13</v>
@@ -2174,7 +2148,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -61,103 +61,100 @@
     <t>Counterparty Corres Bank.1</t>
   </si>
   <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30 DEC 2024</t>
+  </si>
+  <si>
+    <t>31 DEC 2024</t>
+  </si>
+  <si>
+    <t>后面是不同页面的数据</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Currency Bought</t>
+  </si>
+  <si>
+    <t>Currency Sold</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Buy Amount</t>
+  </si>
+  <si>
+    <t>Sell Amount</t>
+  </si>
+  <si>
+    <t>Value Date Buy</t>
+  </si>
+  <si>
+    <t>Value Date Sell</t>
+  </si>
+  <si>
+    <t>Mature at Start of Day?</t>
+  </si>
+  <si>
+    <t>inputSettlementInstructionsPage</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Sell.1</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.1</t>
+  </si>
+  <si>
+    <t>Counterparty's SSI.1</t>
+  </si>
+  <si>
+    <t>Search Content</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FOREX</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>17 DEC 2024</t>
-  </si>
-  <si>
-    <t>18 DEC 2024</t>
-  </si>
-  <si>
-    <t>后面是不同页面的数据</t>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
+    <t>28 DEC 2024</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
     <t>AED</t>
-  </si>
-  <si>
-    <t>Currency Bought</t>
-  </si>
-  <si>
-    <t>Currency Sold</t>
-  </si>
-  <si>
-    <t>Spot Rate</t>
-  </si>
-  <si>
-    <t>Buy Amount</t>
-  </si>
-  <si>
-    <t>Sell Amount</t>
-  </si>
-  <si>
-    <t>Value Date Buy</t>
-  </si>
-  <si>
-    <t>Value Date Sell</t>
-  </si>
-  <si>
-    <t>Mature at Start of Day?</t>
-  </si>
-  <si>
-    <t>inputSettlementInstructionsPage</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Sell.1</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.1</t>
-  </si>
-  <si>
-    <t>Counterparty's SSI.1</t>
-  </si>
-  <si>
-    <t>Search Content</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.2</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>30 DEC 2024</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>FOREX</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>Netting</t>
-  </si>
-  <si>
-    <t>28 DEC 2024</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>CNY</t>
   </si>
 </sst>
 </file>
@@ -1395,13 +1392,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
     <col min="2" max="2" width="22.5462962962963" customWidth="1"/>
@@ -1446,7 +1443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="13" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -1457,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="16">
-        <v>80000</v>
+        <v>700000</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>11</v>
@@ -1466,7 +1463,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="16">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>13</v>
@@ -1489,7 +1486,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="16">
-        <v>80001</v>
+        <v>3900000</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>11</v>
@@ -1498,16 +1495,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="16">
-        <v>1.46</v>
+        <v>5.59</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="16">
-        <v>15000000730</v>
+        <v>15000001486</v>
       </c>
       <c r="J3" s="16">
-        <v>9100000007</v>
+        <v>9100000004</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1521,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="16">
-        <v>80002</v>
+        <v>3910000</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>11</v>
@@ -1530,18 +1527,53 @@
         <v>12</v>
       </c>
       <c r="G4" s="16">
-        <v>3.67</v>
+        <v>4.91</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="16">
-        <v>15000000994</v>
+        <v>15000001575</v>
       </c>
       <c r="J4" s="16">
-        <v>9000000008</v>
+        <v>9100000007</v>
       </c>
     </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15">
+        <v>9000000017</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="16">
+        <v>5430000</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1.09</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="16">
+        <v>15000001591</v>
+      </c>
+      <c r="J5" s="16">
+        <v>9100000014</v>
+      </c>
+    </row>
+    <row r="6" ht="127" customHeight="1"/>
+    <row r="25" ht="4" customHeight="1"/>
+    <row r="26" hidden="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1553,7 +1585,7 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -1576,46 +1608,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" s="9" customFormat="1" spans="1:15">
@@ -1623,10 +1655,10 @@
         <v>202347</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D2" s="11">
         <v>1.87</v>
@@ -1636,13 +1668,13 @@
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>13</v>
@@ -1655,7 +1687,7 @@
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O2" s="13">
         <v>11021162884</v>
@@ -1666,10 +1698,10 @@
         <v>202347</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="11">
         <v>2.11</v>
@@ -1679,13 +1711,13 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>13</v>
@@ -1698,7 +1730,7 @@
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" s="13">
         <v>11021162884</v>
@@ -1709,10 +1741,10 @@
         <v>202347</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D4" s="13">
         <v>1.768</v>
@@ -1722,13 +1754,13 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>13</v>
@@ -1741,7 +1773,7 @@
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" s="13">
         <v>11021162884</v>
@@ -1752,10 +1784,10 @@
         <v>202347</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="13">
         <v>5.99</v>
@@ -1765,13 +1797,13 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>13</v>
@@ -1784,7 +1816,7 @@
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O5" s="13">
         <v>11021162884</v>
@@ -1795,10 +1827,10 @@
         <v>202347</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="13">
         <v>0.69</v>
@@ -1808,13 +1840,13 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>13</v>
@@ -1827,7 +1859,7 @@
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O6" s="13">
         <v>11021162884</v>
@@ -1869,46 +1901,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
@@ -1919,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5">
         <v>0.768</v>
@@ -1932,16 +1964,16 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
@@ -1956,7 +1988,7 @@
         <v>9100000007</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:16">
@@ -1967,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5">
         <v>5.99</v>
@@ -1980,16 +2012,16 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>13</v>
@@ -2004,7 +2036,7 @@
         <v>9100000004</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:16">
@@ -2015,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5">
         <v>0.69</v>
@@ -2028,16 +2060,16 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>13</v>
@@ -2052,7 +2084,7 @@
         <v>9100000007</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:16">
@@ -2063,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5">
         <v>5.46</v>
@@ -2076,16 +2108,16 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -2100,7 +2132,7 @@
         <v>9100000007</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:16">
@@ -2111,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5">
         <v>2.82</v>
@@ -2124,16 +2156,16 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>13</v>
@@ -2148,7 +2180,7 @@
         <v>9000000018</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1533,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="16">
-        <v>15000001575</v>
+        <v>15000001494</v>
       </c>
       <c r="J4" s="16">
         <v>9100000007</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Netting</t>
-  </si>
-  <si>
-    <t>28 DEC 2024</t>
   </si>
   <si>
     <t>N</t>
@@ -1394,7 +1391,7 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1876,8 +1873,8 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1964,16 +1961,16 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
@@ -2012,22 +2009,22 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="5">
-        <v>15000000641</v>
+        <v>15000001486</v>
       </c>
       <c r="N3" s="5">
         <v>15000000196</v>
@@ -2050,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5">
         <v>0.69</v>
@@ -2060,22 +2057,22 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="5">
-        <v>15000000730</v>
+        <v>15000001532</v>
       </c>
       <c r="N4" s="5">
         <v>15000000196</v>
@@ -2108,22 +2105,22 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="5">
-        <v>15000000722</v>
+        <v>15000001494</v>
       </c>
       <c r="N5" s="5">
         <v>15000000196</v>
@@ -2146,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5">
         <v>2.82</v>
@@ -2156,22 +2153,22 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="5">
-        <v>15000000994</v>
+        <v>15000001656</v>
       </c>
       <c r="N6" s="5">
         <v>15000000196</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -146,12 +146,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>AED</t>
   </si>
 </sst>
 </file>
@@ -801,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,7 +808,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -842,12 +839,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1430,7 +1421,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1441,130 +1432,130 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="14">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="5">
         <v>9000000004</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>700000</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>1.1</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>15000000242</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>9100000007</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="5">
         <v>9000000004</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>3900000</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>5.59</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>15000001486</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>9100000004</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="5">
         <v>9000000004</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>3910000</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>4.91</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>15000001494</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>9100000007</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="5">
         <v>9000000017</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>5430000</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>1.09</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>15000001591</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>9100000014</v>
       </c>
     </row>
@@ -1628,7 +1619,7 @@
       <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1643,222 +1634,222 @@
       <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:15">
-      <c r="A2" s="11">
+    <row r="2" s="10" customFormat="1" spans="1:15">
+      <c r="A2" s="12">
         <v>202347</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>1.87</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>670000</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="12">
         <v>11021209775</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="14">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:15">
-      <c r="A3" s="11">
+    <row r="3" s="10" customFormat="1" spans="1:15">
+      <c r="A3" s="12">
         <v>202347</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>2.11</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>670001</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="12">
         <v>11021212547</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="14">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:15">
-      <c r="A4" s="11">
+    <row r="4" s="11" customFormat="1" spans="1:15">
+      <c r="A4" s="12">
         <v>202347</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>1.768</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <v>670002</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <v>11021162906</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="14">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:15">
-      <c r="A5" s="11">
+    <row r="5" s="11" customFormat="1" spans="1:15">
+      <c r="A5" s="12">
         <v>202347</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>5.99</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>670003</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="14">
         <v>11021214167</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="14">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:15">
-      <c r="A6" s="11">
+    <row r="6" s="11" customFormat="1" spans="1:15">
+      <c r="A6" s="12">
         <v>202347</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>0.69</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>670004</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="14">
         <v>11021223115</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="14">
         <v>11021162884</v>
       </c>
     </row>
@@ -1874,7 +1865,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1924,7 +1915,7 @@
       <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1936,7 +1927,7 @@
       <c r="O1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1947,42 +1938,42 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" s="5">
-        <v>0.768</v>
-      </c>
-      <c r="F2" s="5">
-        <v>720000</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6" t="s">
+        <v>1.7654</v>
+      </c>
+      <c r="F2" s="6">
+        <v>73000</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
+        <v>15000000277</v>
+      </c>
+      <c r="N2" s="6">
         <v>15000000463</v>
       </c>
-      <c r="N2" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O2" s="5">
-        <v>9100000007</v>
+      <c r="O2" s="6">
+        <v>9100000004</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>32</v>
@@ -1995,42 +1986,42 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="5">
-        <v>5.99</v>
-      </c>
-      <c r="F3" s="5">
-        <v>720001</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="6" t="s">
+        <v>2.12</v>
+      </c>
+      <c r="F3" s="6">
+        <v>73001</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5">
-        <v>15000001486</v>
-      </c>
-      <c r="N3" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O3" s="5">
-        <v>9100000004</v>
+      <c r="M3" s="6">
+        <v>15000001877</v>
+      </c>
+      <c r="N3" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O3" s="6">
+        <v>9100000007</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>32</v>
@@ -2043,42 +2034,42 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="F4" s="5">
-        <v>720002</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="6" t="s">
+        <v>1.1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>73002</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="5">
-        <v>15000001532</v>
-      </c>
-      <c r="N4" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O4" s="5">
-        <v>9100000007</v>
+      <c r="M4" s="6">
+        <v>15000001966</v>
+      </c>
+      <c r="N4" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O4" s="6">
+        <v>9100000010</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>32</v>
@@ -2091,42 +2082,42 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="5">
-        <v>5.46</v>
-      </c>
-      <c r="F5" s="5">
-        <v>720003</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="6" t="s">
+        <v>1.14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>73003</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5">
-        <v>15000001494</v>
-      </c>
-      <c r="N5" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O5" s="5">
-        <v>9100000007</v>
+      <c r="M5" s="6">
+        <v>15000001591</v>
+      </c>
+      <c r="N5" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O5" s="6">
+        <v>9100000014</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>32</v>
@@ -2139,42 +2130,42 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="5">
-        <v>2.82</v>
-      </c>
-      <c r="F6" s="5">
-        <v>720004</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="6" t="s">
+        <v>2.27</v>
+      </c>
+      <c r="F6" s="6">
+        <v>73004</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="5">
-        <v>15000001656</v>
-      </c>
-      <c r="N6" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O6" s="5">
-        <v>9000000018</v>
+      <c r="M6" s="6">
+        <v>15000001826</v>
+      </c>
+      <c r="N6" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O6" s="6">
+        <v>9000000015</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>32</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1864,8 +1864,8 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -2165,7 +2165,7 @@
         <v>15000000463</v>
       </c>
       <c r="O6" s="6">
-        <v>9000000015</v>
+        <v>9100000015</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>32</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="40">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>AED</t>
   </si>
   <si>
     <t>JPY</t>
@@ -1571,13 +1574,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="3" width="22.5462962962963" customWidth="1"/>
@@ -1652,7 +1655,7 @@
         <v>1.87</v>
       </c>
       <c r="E2" s="12">
-        <v>670000</v>
+        <v>6702</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="13" t="s">
@@ -1695,7 +1698,7 @@
         <v>2.11</v>
       </c>
       <c r="E3" s="12">
-        <v>670001</v>
+        <v>6703</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
@@ -1728,17 +1731,17 @@
       <c r="A4" s="12">
         <v>202347</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
+      <c r="C4" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="D4" s="14">
-        <v>1.768</v>
+        <v>3.67</v>
       </c>
       <c r="E4" s="12">
-        <v>670002</v>
+        <v>6704</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
@@ -1754,12 +1757,12 @@
         <v>13</v>
       </c>
       <c r="K4" s="14">
-        <v>11021162906</v>
-      </c>
-      <c r="L4" s="12">
-        <v>11010004336</v>
-      </c>
-      <c r="M4" s="14"/>
+        <v>11021210463</v>
+      </c>
+      <c r="L4" s="14">
+        <v>11010004328</v>
+      </c>
+      <c r="M4" s="12"/>
       <c r="N4" s="12" t="s">
         <v>32</v>
       </c>
@@ -1771,17 +1774,17 @@
       <c r="A5" s="12">
         <v>202347</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="14">
-        <v>5.99</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="12">
-        <v>670003</v>
+        <v>6705</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="13" t="s">
@@ -1797,12 +1800,12 @@
         <v>13</v>
       </c>
       <c r="K5" s="14">
-        <v>11021214167</v>
-      </c>
-      <c r="L5" s="12">
-        <v>11010004336</v>
-      </c>
-      <c r="M5" s="14"/>
+        <v>11021209775</v>
+      </c>
+      <c r="L5" s="14">
+        <v>11010004328</v>
+      </c>
+      <c r="M5" s="12"/>
       <c r="N5" s="12" t="s">
         <v>32</v>
       </c>
@@ -1814,17 +1817,17 @@
       <c r="A6" s="12">
         <v>202347</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>36</v>
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="14">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="E6" s="12">
-        <v>670004</v>
+        <v>6706</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="13" t="s">
@@ -1840,16 +1843,102 @@
         <v>13</v>
       </c>
       <c r="K6" s="14">
-        <v>11021223115</v>
-      </c>
-      <c r="L6" s="12">
-        <v>11010004336</v>
-      </c>
-      <c r="M6" s="14"/>
+        <v>11021212547</v>
+      </c>
+      <c r="L6" s="14">
+        <v>11010004328</v>
+      </c>
+      <c r="M6" s="12"/>
       <c r="N6" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="14">
+        <v>11021162884</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:15">
+      <c r="A7" s="12">
+        <v>202347</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14">
+        <v>143.1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6707</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="14">
+        <v>11021214167</v>
+      </c>
+      <c r="L7" s="14">
+        <v>11010004328</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="14">
+        <v>11021162884</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:15">
+      <c r="A8" s="12">
+        <v>202347</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>6708</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="14">
+        <v>11021223115</v>
+      </c>
+      <c r="L8" s="14">
+        <v>11010004328</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="14">
         <v>11021162884</v>
       </c>
     </row>
@@ -1864,7 +1953,7 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1913,7 +2002,7 @@
         <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>25</v>
@@ -1961,7 +2050,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>13</v>
@@ -1990,7 +2079,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5">
         <v>2.12</v>
@@ -2009,7 +2098,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>13</v>
@@ -2038,7 +2127,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5">
         <v>1.1</v>
@@ -2057,7 +2146,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>13</v>
@@ -2105,7 +2194,7 @@
         <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>13</v>
@@ -2153,7 +2242,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>13</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -61,69 +61,72 @@
     <t>Counterparty Corres Bank.1</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>30 DEC 2024</t>
+  </si>
+  <si>
+    <t>31 DEC 2024</t>
+  </si>
+  <si>
+    <t>后面是不同页面的数据</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>Currency Bought</t>
+  </si>
+  <si>
+    <t>Currency Sold</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Buy Amount</t>
+  </si>
+  <si>
+    <t>Sell Amount</t>
+  </si>
+  <si>
+    <t>Value Date Buy</t>
+  </si>
+  <si>
+    <t>Value Date Sell</t>
+  </si>
+  <si>
+    <t>Mature at Start of Day?</t>
+  </si>
+  <si>
+    <t>inputSettlementInstructionsPage</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Sell.1</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.1</t>
+  </si>
+  <si>
+    <t>Counterparty's SSI.1</t>
+  </si>
+  <si>
+    <t>Search Content</t>
+  </si>
+  <si>
+    <t>Settlement A/c for Buy.2</t>
+  </si>
+  <si>
     <t>SGD</t>
   </si>
   <si>
-    <t>30 DEC 2024</t>
-  </si>
-  <si>
-    <t>31 DEC 2024</t>
-  </si>
-  <si>
-    <t>后面是不同页面的数据</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
     <t>AUD</t>
   </si>
   <si>
-    <t>Currency Bought</t>
-  </si>
-  <si>
-    <t>Currency Sold</t>
-  </si>
-  <si>
-    <t>Spot Rate</t>
-  </si>
-  <si>
-    <t>Buy Amount</t>
-  </si>
-  <si>
-    <t>Sell Amount</t>
-  </si>
-  <si>
-    <t>Value Date Buy</t>
-  </si>
-  <si>
-    <t>Value Date Sell</t>
-  </si>
-  <si>
-    <t>Mature at Start of Day?</t>
-  </si>
-  <si>
-    <t>inputSettlementInstructionsPage</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Sell.1</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.1</t>
-  </si>
-  <si>
-    <t>Counterparty's SSI.1</t>
-  </si>
-  <si>
-    <t>Search Content</t>
-  </si>
-  <si>
-    <t>Settlement A/c for Buy.2</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -131,12 +134,6 @@
   </si>
   <si>
     <t>GBP</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>AED</t>
   </si>
   <si>
     <t>JPY</t>
@@ -1383,10 +1380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1445,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="15">
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>11</v>
@@ -1454,7 +1451,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="15">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>13</v>
@@ -1477,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="15">
-        <v>3900000</v>
+        <v>900000</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>11</v>
@@ -1486,13 +1483,13 @@
         <v>12</v>
       </c>
       <c r="G3" s="15">
-        <v>5.59</v>
+        <v>1.46</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="15">
-        <v>15000001486</v>
+        <v>15000001532</v>
       </c>
       <c r="J3" s="15">
         <v>9100000004</v>
@@ -1509,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="15">
-        <v>3910000</v>
+        <v>920000</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>11</v>
@@ -1518,53 +1515,21 @@
         <v>12</v>
       </c>
       <c r="G4" s="15">
-        <v>4.91</v>
+        <v>3.67</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="15">
-        <v>15000001494</v>
+        <v>15000001656</v>
       </c>
       <c r="J4" s="15">
-        <v>9100000007</v>
+        <v>9000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9000000017</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15">
-        <v>5430000</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="15">
-        <v>1.09</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="15">
-        <v>15000001591</v>
-      </c>
-      <c r="J5" s="15">
-        <v>9100000014</v>
-      </c>
-    </row>
-    <row r="6" ht="127" customHeight="1"/>
-    <row r="25" ht="4" customHeight="1"/>
-    <row r="26" hidden="1"/>
+    <row r="5" ht="127" customHeight="1"/>
+    <row r="24" ht="4" customHeight="1"/>
+    <row r="25" hidden="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1576,7 +1541,7 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -1599,46 +1564,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:15">
@@ -1646,10 +1611,10 @@
         <v>202347</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D2" s="12">
         <v>1.87</v>
@@ -1665,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>13</v>
@@ -1678,7 +1643,7 @@
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="14">
         <v>11021162884</v>
@@ -1689,10 +1654,10 @@
         <v>202347</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="12">
         <v>2.11</v>
@@ -1708,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>13</v>
@@ -1721,7 +1686,7 @@
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="14">
         <v>11021162884</v>
@@ -1732,10 +1697,10 @@
         <v>202347</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D4" s="14">
         <v>3.67</v>
@@ -1751,7 +1716,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>13</v>
@@ -1764,7 +1729,7 @@
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="14">
         <v>11021162884</v>
@@ -1775,10 +1740,10 @@
         <v>202347</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14">
         <v>1.5</v>
@@ -1794,7 +1759,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>13</v>
@@ -1807,7 +1772,7 @@
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="14">
         <v>11021162884</v>
@@ -1818,10 +1783,10 @@
         <v>202347</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="14">
         <v>0.76</v>
@@ -1837,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>13</v>
@@ -1850,7 +1815,7 @@
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="14">
         <v>11021162884</v>
@@ -1861,10 +1826,10 @@
         <v>202347</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="14">
         <v>143.1</v>
@@ -1880,7 +1845,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>13</v>
@@ -1893,7 +1858,7 @@
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" s="14">
         <v>11021162884</v>
@@ -1904,10 +1869,10 @@
         <v>202347</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="14">
         <v>3.1</v>
@@ -1923,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>13</v>
@@ -1936,7 +1901,7 @@
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="14">
         <v>11021162884</v>
@@ -1978,46 +1943,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
@@ -2028,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E2" s="5">
         <v>1.7654</v>
@@ -2047,10 +2012,10 @@
         <v>11</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>13</v>
@@ -2065,7 +2030,7 @@
         <v>9100000004</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:16">
@@ -2076,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5">
         <v>2.12</v>
@@ -2095,10 +2060,10 @@
         <v>11</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>13</v>
@@ -2113,7 +2078,7 @@
         <v>9100000007</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:16">
@@ -2124,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5">
         <v>1.1</v>
@@ -2143,10 +2108,10 @@
         <v>11</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>13</v>
@@ -2161,7 +2126,7 @@
         <v>9100000010</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:16">
@@ -2172,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5">
         <v>1.14</v>
@@ -2191,10 +2156,10 @@
         <v>11</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>13</v>
@@ -2209,7 +2174,7 @@
         <v>9100000014</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:16">
@@ -2220,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="5">
         <v>2.27</v>
@@ -2239,10 +2204,10 @@
         <v>11</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>13</v>
@@ -2257,7 +2222,7 @@
         <v>9100000015</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -145,7 +145,16 @@
     <t>Netting</t>
   </si>
   <si>
+    <t>02 JAN 2025</t>
+  </si>
+  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>CNY</t>
   </si>
 </sst>
 </file>
@@ -795,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,37 +817,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1382,7 +1394,7 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1421,7 +1433,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1432,98 +1444,98 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="15">
         <v>9000000004</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>800000</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="16">
         <v>1.375</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="16">
         <v>15000000242</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="16">
         <v>9100000007</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4">
+      <c r="A3" s="14">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="15">
         <v>9000000004</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>900000</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <v>1.46</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="16">
         <v>15000001532</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="16">
         <v>9100000004</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="14">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="15">
         <v>9000000004</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>920000</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>3.67</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="16">
         <v>15000001656</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="16">
         <v>9000000018</v>
       </c>
     </row>
@@ -1587,7 +1599,7 @@
       <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1602,308 +1614,308 @@
       <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:15">
-      <c r="A2" s="12">
+    <row r="2" s="9" customFormat="1" spans="1:15">
+      <c r="A2" s="11">
         <v>202347</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>1.87</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>6702</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>11021209775</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <v>11010004336</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:15">
-      <c r="A3" s="12">
+    <row r="3" s="9" customFormat="1" spans="1:15">
+      <c r="A3" s="11">
         <v>202347</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>2.11</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>6703</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>11021212547</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>11010004336</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:15">
-      <c r="A4" s="12">
+    <row r="4" s="10" customFormat="1" spans="1:15">
+      <c r="A4" s="11">
         <v>202347</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>3.67</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>6704</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>11021210463</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>11010004328</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:15">
-      <c r="A5" s="12">
+    <row r="5" s="10" customFormat="1" spans="1:15">
+      <c r="A5" s="11">
         <v>202347</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>1.5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>6705</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>11021209775</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>11010004328</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:15">
-      <c r="A6" s="12">
+    <row r="6" s="10" customFormat="1" spans="1:15">
+      <c r="A6" s="11">
         <v>202347</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.76</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>6706</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>11021212547</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>11010004328</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="13">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:15">
-      <c r="A7" s="12">
+    <row r="7" s="10" customFormat="1" spans="1:15">
+      <c r="A7" s="11">
         <v>202347</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>143.1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>6707</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>11021214167</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>11010004328</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:15">
-      <c r="A8" s="12">
+    <row r="8" s="10" customFormat="1" spans="1:15">
+      <c r="A8" s="11">
         <v>202347</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>3.1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>6708</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>11021223115</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>11010004328</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <v>11021162884</v>
       </c>
     </row>
@@ -1918,8 +1930,8 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1969,7 +1981,7 @@
       <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1981,7 +1993,7 @@
       <c r="O1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1992,42 +2004,42 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" s="5">
-        <v>1.7654</v>
-      </c>
-      <c r="F2" s="6">
-        <v>73000</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="7" t="s">
+        <v>0.768</v>
+      </c>
+      <c r="F2" s="5">
+        <v>720000</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6">
-        <v>15000000277</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="M2" s="5">
         <v>15000000463</v>
       </c>
-      <c r="O2" s="6">
-        <v>9100000004</v>
+      <c r="N2" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O2" s="5">
+        <v>9100000007</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>33</v>
@@ -2040,42 +2052,42 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E3" s="5">
-        <v>2.12</v>
-      </c>
-      <c r="F3" s="6">
-        <v>73001</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="7" t="s">
+        <v>5.99</v>
+      </c>
+      <c r="F3" s="5">
+        <v>720001</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="6">
-        <v>15000001877</v>
-      </c>
-      <c r="N3" s="6">
-        <v>15000000463</v>
-      </c>
-      <c r="O3" s="6">
-        <v>9100000007</v>
+      <c r="M3" s="5">
+        <v>15000001486</v>
+      </c>
+      <c r="N3" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O3" s="5">
+        <v>9100000004</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>33</v>
@@ -2088,42 +2100,42 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="5">
-        <v>1.1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>73002</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
+        <v>0.69</v>
+      </c>
+      <c r="F4" s="5">
+        <v>720002</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="6">
-        <v>15000001966</v>
-      </c>
-      <c r="N4" s="6">
-        <v>15000000463</v>
-      </c>
-      <c r="O4" s="6">
-        <v>9100000010</v>
+      <c r="M4" s="5">
+        <v>15000001532</v>
+      </c>
+      <c r="N4" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O4" s="5">
+        <v>9100000004</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>33</v>
@@ -2136,42 +2148,42 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="5">
-        <v>1.14</v>
-      </c>
-      <c r="F5" s="6">
-        <v>73003</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7" t="s">
+        <v>5.46</v>
+      </c>
+      <c r="F5" s="5">
+        <v>720003</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="6">
-        <v>15000001591</v>
-      </c>
-      <c r="N5" s="6">
-        <v>15000000463</v>
-      </c>
-      <c r="O5" s="6">
-        <v>9100000014</v>
+      <c r="M5" s="5">
+        <v>15000001494</v>
+      </c>
+      <c r="N5" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O5" s="5">
+        <v>9100000004</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>33</v>
@@ -2184,42 +2196,42 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="5">
-        <v>2.27</v>
-      </c>
-      <c r="F6" s="6">
-        <v>73004</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="7" t="s">
+        <v>2.82</v>
+      </c>
+      <c r="F6" s="5">
+        <v>720004</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
-        <v>15000001826</v>
-      </c>
-      <c r="N6" s="6">
-        <v>15000000463</v>
-      </c>
-      <c r="O6" s="6">
-        <v>9100000015</v>
+      <c r="M6" s="5">
+        <v>15000001656</v>
+      </c>
+      <c r="N6" s="5">
+        <v>15000000196</v>
+      </c>
+      <c r="O6" s="5">
+        <v>9000000018</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>33</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -136,25 +136,19 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>NOK</t>
+    <t>02 JAN 2025</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>CNY</t>
   </si>
   <si>
     <t>Netting</t>
   </si>
   <si>
-    <t>02 JAN 2025</t>
-  </si>
-  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>CNY</t>
   </si>
 </sst>
 </file>
@@ -321,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,16 +704,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -722,89 +722,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,13 +835,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,98 +1453,98 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="14">
+      <c r="A2" s="17">
         <v>0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="18">
         <v>9000000004</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="19">
         <v>800000</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="19">
         <v>1.375</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="19">
         <v>15000000242</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="19">
         <v>9100000007</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14">
+      <c r="A3" s="17">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="18">
         <v>9000000004</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="19">
         <v>900000</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="19">
         <v>1.46</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="19">
         <v>15000001532</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="19">
         <v>9100000004</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14">
+      <c r="A4" s="17">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="18">
         <v>9000000004</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="19">
         <v>920000</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="19">
         <v>3.67</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="19">
         <v>15000001656</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="19">
         <v>9000000018</v>
       </c>
     </row>
@@ -1553,8 +1562,8 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1651,13 +1660,13 @@
         <v>11021209775</v>
       </c>
       <c r="L2" s="11">
-        <v>11010004336</v>
+        <v>11010004956</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="16">
         <v>11021162884</v>
       </c>
     </row>
@@ -1694,228 +1703,228 @@
         <v>11021212547</v>
       </c>
       <c r="L3" s="11">
-        <v>11010004336</v>
+        <v>11010004956</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="16">
         <v>11021162884</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:15">
-      <c r="A4" s="11">
+      <c r="A4" s="13">
         <v>202347</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="14">
         <v>3.67</v>
       </c>
-      <c r="E4" s="11">
-        <v>6704</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="E4" s="13">
+        <v>666704</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13">
-        <v>11021210463</v>
-      </c>
-      <c r="L4" s="13">
-        <v>11010004328</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11" t="s">
+      <c r="K4" s="14">
+        <v>11021162892</v>
+      </c>
+      <c r="L4" s="11">
+        <v>11010004956</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="14">
         <v>11021162884</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:15">
-      <c r="A5" s="11">
+      <c r="A5" s="13">
         <v>202347</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14">
         <v>1.5</v>
       </c>
-      <c r="E5" s="11">
-        <v>6705</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="E5" s="13">
+        <v>666705</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="13">
-        <v>11021209775</v>
-      </c>
-      <c r="L5" s="13">
-        <v>11010004328</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
+      <c r="K5" s="14">
+        <v>11021200646</v>
+      </c>
+      <c r="L5" s="11">
+        <v>11010004956</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="14">
         <v>11021162884</v>
       </c>
     </row>
     <row r="6" s="10" customFormat="1" spans="1:15">
-      <c r="A6" s="11">
+      <c r="A6" s="13">
         <v>202347</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.76</v>
-      </c>
-      <c r="E6" s="11">
-        <v>6706</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="E6" s="13">
+        <v>666706</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="13">
-        <v>11021212547</v>
-      </c>
-      <c r="L6" s="13">
-        <v>11010004328</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
+      <c r="K6" s="14">
+        <v>11021200662</v>
+      </c>
+      <c r="L6" s="11">
+        <v>11010004956</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="14">
         <v>11021162884</v>
       </c>
     </row>
     <row r="7" s="10" customFormat="1" spans="1:15">
-      <c r="A7" s="11">
+      <c r="A7" s="13">
         <v>202347</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>666707</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="13">
-        <v>143.1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>6707</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="13">
-        <v>11021214167</v>
-      </c>
-      <c r="L7" s="13">
-        <v>11010004328</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11" t="s">
+      <c r="K7" s="14">
+        <v>11021200638</v>
+      </c>
+      <c r="L7" s="11">
+        <v>11010004956</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="14">
         <v>11021162884</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:15">
-      <c r="A8" s="11">
+      <c r="A8" s="13">
         <v>202347</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14">
         <v>3.1</v>
       </c>
-      <c r="E8" s="11">
-        <v>6708</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="E8" s="13">
+        <v>666708</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="13">
-        <v>11021223115</v>
-      </c>
-      <c r="L8" s="13">
-        <v>11010004328</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="K8" s="14">
+        <v>11021210463</v>
+      </c>
+      <c r="L8" s="11">
+        <v>11010004956</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="14">
         <v>11021162884</v>
       </c>
     </row>
@@ -1930,7 +1939,7 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1979,7 +1988,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>24</v>
@@ -2018,10 +2027,10 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>32</v>
@@ -2056,7 +2065,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5">
         <v>5.99</v>
@@ -2066,10 +2075,10 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>32</v>
@@ -2114,10 +2123,10 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>32</v>
@@ -2152,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <v>5.46</v>
@@ -2162,10 +2171,10 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>32</v>
@@ -2210,10 +2219,10 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>32</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K9" sqref="K9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1717,17 +1717,17 @@
       <c r="A4" s="13">
         <v>202347</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="14">
         <v>3.67</v>
       </c>
       <c r="E4" s="13">
-        <v>666704</v>
+        <v>6704</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15" t="s">
@@ -1743,10 +1743,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="14">
-        <v>11021162892</v>
+        <v>11021162906</v>
       </c>
       <c r="L4" s="11">
-        <v>11010004956</v>
+        <v>11010004336</v>
       </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13" t="s">
@@ -1760,8 +1760,8 @@
       <c r="A5" s="13">
         <v>202347</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>36</v>
@@ -1770,7 +1770,7 @@
         <v>1.5</v>
       </c>
       <c r="E5" s="13">
-        <v>666705</v>
+        <v>6705</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
@@ -1789,7 +1789,7 @@
         <v>11021200646</v>
       </c>
       <c r="L5" s="11">
-        <v>11010004956</v>
+        <v>11010004336</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="13" t="s">
@@ -1803,8 +1803,8 @@
       <c r="A6" s="13">
         <v>202347</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>10</v>
+      <c r="B6" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>14</v>
@@ -1813,7 +1813,7 @@
         <v>1.76</v>
       </c>
       <c r="E6" s="13">
-        <v>666706</v>
+        <v>6706</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
@@ -1832,7 +1832,7 @@
         <v>11021200662</v>
       </c>
       <c r="L6" s="11">
-        <v>11010004956</v>
+        <v>11010004336</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13" t="s">
@@ -1846,8 +1846,8 @@
       <c r="A7" s="13">
         <v>202347</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>37</v>
@@ -1856,7 +1856,7 @@
         <v>3.1</v>
       </c>
       <c r="E7" s="13">
-        <v>666707</v>
+        <v>6707</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15" t="s">
@@ -1875,7 +1875,7 @@
         <v>11021200638</v>
       </c>
       <c r="L7" s="11">
-        <v>11010004956</v>
+        <v>11010004336</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13" t="s">
@@ -1889,8 +1889,8 @@
       <c r="A8" s="13">
         <v>202347</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>10</v>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>15</v>
@@ -1899,7 +1899,7 @@
         <v>3.1</v>
       </c>
       <c r="E8" s="13">
-        <v>666708</v>
+        <v>6708</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="15" t="s">
@@ -1918,7 +1918,7 @@
         <v>11021210463</v>
       </c>
       <c r="L8" s="11">
-        <v>11010004956</v>
+        <v>11010004336</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,7 +817,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,12 +857,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1442,7 +1439,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1453,98 +1450,98 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="17">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="5">
         <v>9000000004</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>800000</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>1.375</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>15000000242</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="18">
         <v>9100000007</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="5">
         <v>9000000004</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>900000</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>1.46</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>15000001532</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>9100000004</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="17">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="5">
         <v>9000000004</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>920000</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>3.67</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>15000001656</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="18">
         <v>9000000018</v>
       </c>
     </row>
@@ -1562,7 +1559,7 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9:M9"/>
     </sheetView>
   </sheetViews>
@@ -1608,7 +1605,7 @@
       <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1623,308 +1620,308 @@
       <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:15">
-      <c r="A2" s="11">
+    <row r="2" s="10" customFormat="1" spans="1:15">
+      <c r="A2" s="12">
         <v>202347</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>1.87</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>6702</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="12">
         <v>11021209775</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="12">
         <v>11010004956</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="17">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:15">
-      <c r="A3" s="11">
+    <row r="3" s="10" customFormat="1" spans="1:15">
+      <c r="A3" s="12">
         <v>202347</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>2.11</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>6703</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="12">
         <v>11021212547</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="12">
         <v>11010004956</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="17">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:15">
-      <c r="A4" s="13">
+    <row r="4" s="11" customFormat="1" spans="1:15">
+      <c r="A4" s="14">
         <v>202347</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="15">
         <v>3.67</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>6704</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="15">
         <v>11021162906</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="15">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:15">
-      <c r="A5" s="13">
+    <row r="5" s="11" customFormat="1" spans="1:15">
+      <c r="A5" s="14">
         <v>202347</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>1.5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>6705</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="15">
         <v>11021200646</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="15">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:15">
-      <c r="A6" s="13">
+    <row r="6" s="11" customFormat="1" spans="1:15">
+      <c r="A6" s="14">
         <v>202347</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="15">
         <v>1.76</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>6706</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="15">
         <v>11021200662</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="15">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:15">
-      <c r="A7" s="13">
+    <row r="7" s="11" customFormat="1" spans="1:15">
+      <c r="A7" s="14">
         <v>202347</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>3.1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>6707</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="15">
         <v>11021200638</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="15">
         <v>11021162884</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" spans="1:15">
-      <c r="A8" s="13">
+    <row r="8" s="11" customFormat="1" spans="1:15">
+      <c r="A8" s="14">
         <v>202347</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="15">
         <v>3.1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>6708</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="15">
         <v>11021210463</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="12">
         <v>11010004336</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="15">
         <v>11021162884</v>
       </c>
     </row>
@@ -1939,8 +1936,8 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1990,7 +1987,7 @@
       <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -2002,7 +1999,7 @@
       <c r="O1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2013,42 +2010,42 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="5">
-        <v>0.768</v>
-      </c>
-      <c r="F2" s="5">
-        <v>720000</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+        <v>1.7654</v>
+      </c>
+      <c r="F2" s="6">
+        <v>7300</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
+        <v>15000000277</v>
+      </c>
+      <c r="N2" s="6">
         <v>15000000463</v>
       </c>
-      <c r="N2" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O2" s="5">
-        <v>9100000007</v>
+      <c r="O2" s="6">
+        <v>9100000004</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>33</v>
@@ -2061,41 +2058,41 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="5">
-        <v>5.99</v>
-      </c>
-      <c r="F3" s="5">
-        <v>720001</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+        <v>2.12</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7301</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>15000001486</v>
       </c>
-      <c r="N3" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="N3" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O3" s="6">
         <v>9100000004</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -2109,41 +2106,41 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="F4" s="5">
-        <v>720002</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
+        <v>1.1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>7302</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>15000001532</v>
       </c>
-      <c r="N4" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="N4" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O4" s="6">
         <v>9100000004</v>
       </c>
       <c r="P4" s="3" t="s">
@@ -2157,41 +2154,41 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="5">
-        <v>5.46</v>
-      </c>
-      <c r="F5" s="5">
-        <v>720003</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6" t="s">
+        <v>1.14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7303</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>15000001494</v>
       </c>
-      <c r="N5" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="N5" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O5" s="6">
         <v>9100000004</v>
       </c>
       <c r="P5" s="3" t="s">
@@ -2205,41 +2202,41 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="5">
-        <v>2.82</v>
-      </c>
-      <c r="F6" s="5">
-        <v>720004</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
+        <v>2.27</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7304</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>15000001656</v>
       </c>
-      <c r="N6" s="5">
-        <v>15000000196</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N6" s="6">
+        <v>15000000463</v>
+      </c>
+      <c r="O6" s="6">
         <v>9000000018</v>
       </c>
       <c r="P6" s="3" t="s">

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MM_Placement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -136,16 +136,25 @@
     <t>GBP</t>
   </si>
   <si>
+    <t>03 JAN 2025</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>进</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
     <t>02 JAN 2025</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>Netting</t>
   </si>
   <si>
     <t>N</t>
@@ -1557,13 +1566,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:M9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.8148148148148" customWidth="1"/>
     <col min="2" max="3" width="22.5462962962963" customWidth="1"/>
@@ -1724,7 +1733,7 @@
         <v>3.67</v>
       </c>
       <c r="E4" s="14">
-        <v>6704</v>
+        <v>666704</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="16" t="s">
@@ -1743,7 +1752,7 @@
         <v>11021162906</v>
       </c>
       <c r="L4" s="12">
-        <v>11010004336</v>
+        <v>11021162892</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
@@ -1758,16 +1767,16 @@
         <v>202347</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D5" s="15">
         <v>1.5</v>
       </c>
       <c r="E5" s="14">
-        <v>6705</v>
+        <v>666705</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="16" t="s">
@@ -1783,10 +1792,10 @@
         <v>13</v>
       </c>
       <c r="K5" s="15">
+        <v>11021162906</v>
+      </c>
+      <c r="L5" s="12">
         <v>11021200646</v>
-      </c>
-      <c r="L5" s="12">
-        <v>11010004336</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
@@ -1801,16 +1810,16 @@
         <v>202347</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="15">
         <v>1.76</v>
       </c>
       <c r="E6" s="14">
-        <v>6706</v>
+        <v>666706</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="16" t="s">
@@ -1826,10 +1835,10 @@
         <v>13</v>
       </c>
       <c r="K6" s="15">
+        <v>11021162906</v>
+      </c>
+      <c r="L6" s="12">
         <v>11021200662</v>
-      </c>
-      <c r="L6" s="12">
-        <v>11010004336</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
@@ -1844,16 +1853,16 @@
         <v>202347</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D7" s="15">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="E7" s="14">
-        <v>6707</v>
+        <v>666707</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16" t="s">
@@ -1869,10 +1878,10 @@
         <v>13</v>
       </c>
       <c r="K7" s="15">
+        <v>11021162906</v>
+      </c>
+      <c r="L7" s="12">
         <v>11021200638</v>
-      </c>
-      <c r="L7" s="12">
-        <v>11010004336</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
@@ -1887,16 +1896,16 @@
         <v>202347</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="15">
         <v>3.1</v>
       </c>
       <c r="E8" s="14">
-        <v>6708</v>
+        <v>666708</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16" t="s">
@@ -1912,10 +1921,10 @@
         <v>13</v>
       </c>
       <c r="K8" s="15">
+        <v>11021162906</v>
+      </c>
+      <c r="L8" s="12">
         <v>11021210463</v>
-      </c>
-      <c r="L8" s="12">
-        <v>11010004336</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14" t="s">
@@ -1923,6 +1932,14 @@
       </c>
       <c r="O8" s="15">
         <v>11021162884</v>
+      </c>
+    </row>
+    <row r="11" spans="11:12">
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +1953,7 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -1985,7 +2002,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>24</v>
@@ -2024,16 +2041,16 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>13</v>
@@ -2072,16 +2089,16 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>13</v>
@@ -2120,16 +2137,16 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>13</v>
@@ -2168,16 +2185,16 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>13</v>
@@ -2216,16 +2233,16 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>13</v>

--- a/src/test/resources/testData/T24Excel/Treasury.xlsx
+++ b/src/test/resources/testData/T24Excel/Treasury.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
   <si>
     <t>Dealer Desk</t>
   </si>
@@ -139,25 +139,31 @@
     <t>03 JAN 2025</t>
   </si>
   <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>进</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>Netting</t>
+  </si>
+  <si>
+    <t>02 JAN 2025</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>HKD</t>
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>进</t>
-  </si>
-  <si>
-    <t>出</t>
-  </si>
-  <si>
-    <t>Netting</t>
-  </si>
-  <si>
-    <t>02 JAN 2025</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1566,10 +1572,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1724,7 +1730,7 @@
         <v>202347</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>10</v>
@@ -1733,7 +1739,7 @@
         <v>3.67</v>
       </c>
       <c r="E4" s="14">
-        <v>666704</v>
+        <v>6704</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="16" t="s">
@@ -1752,7 +1758,7 @@
         <v>11021162906</v>
       </c>
       <c r="L4" s="12">
-        <v>11021162892</v>
+        <v>11021209775</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
@@ -1767,7 +1773,7 @@
         <v>202347</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>10</v>
@@ -1776,7 +1782,7 @@
         <v>1.5</v>
       </c>
       <c r="E5" s="14">
-        <v>666705</v>
+        <v>6705</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="16" t="s">
@@ -1795,7 +1801,7 @@
         <v>11021162906</v>
       </c>
       <c r="L5" s="12">
-        <v>11021200646</v>
+        <v>11021212547</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
@@ -1810,7 +1816,7 @@
         <v>202347</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>10</v>
@@ -1819,7 +1825,7 @@
         <v>1.76</v>
       </c>
       <c r="E6" s="14">
-        <v>666706</v>
+        <v>6706</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="16" t="s">
@@ -1838,7 +1844,7 @@
         <v>11021162906</v>
       </c>
       <c r="L6" s="12">
-        <v>11021200662</v>
+        <v>11021214167</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
@@ -1862,7 +1868,7 @@
         <v>1.1</v>
       </c>
       <c r="E7" s="14">
-        <v>666707</v>
+        <v>6707</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16" t="s">
@@ -1881,7 +1887,7 @@
         <v>11021162906</v>
       </c>
       <c r="L7" s="12">
-        <v>11021200638</v>
+        <v>11021223115</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
@@ -1891,54 +1897,11 @@
         <v>11021162884</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:15">
-      <c r="A8" s="14">
-        <v>202347</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>666708</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="15">
-        <v>11021162906</v>
-      </c>
-      <c r="L8" s="12">
-        <v>11021210463</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="15">
-        <v>11021162884</v>
-      </c>
-    </row>
-    <row r="11" spans="11:12">
-      <c r="K11" t="s">
+    <row r="10" spans="11:12">
+      <c r="K10" t="s">
         <v>38</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2079,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" s="5">
         <v>2.12</v>
@@ -2175,7 +2138,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5">
         <v>1.14</v>
